--- a/设计与实现 2.0.xlsx
+++ b/设计与实现 2.0.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="后端开发目录" sheetId="3" r:id="rId2"/>
     <sheet name="前端开发目录" sheetId="4" r:id="rId3"/>
+    <sheet name="git命令" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="670">
   <si>
     <t>property-management-backend/</t>
   </si>
@@ -2373,6 +2374,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4078F2"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>npm</t>
     </r>
     <r>
@@ -2414,6 +2421,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF50A14F"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>cd</t>
     </r>
     <r>
@@ -2458,6 +2471,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4078F2"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>npm</t>
     </r>
     <r>
@@ -2502,6 +2521,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4078F2"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>npm</t>
     </r>
     <r>
@@ -3034,6 +3059,522 @@
   </si>
   <si>
     <t>└── README.md                 # 项目文档</t>
+  </si>
+  <si>
+    <t>2. 基本配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 设置全局用户名（提交时显示）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> config --global user.name "你的用户名"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 设置全局邮箱（提交时显示）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> config --global user.email "你的邮箱地址"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看配置信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> config --list</t>
+  </si>
+  <si>
+    <t>二、代码仓库基本操作</t>
+  </si>
+  <si>
+    <t>1. 初始化本地仓库</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在项目目录中初始化  仓库</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> init</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看仓库状态（首次初始化后应显示无文件追踪）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> status</t>
+  </si>
+  <si>
+    <t>2. 克隆远程仓库到本地</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 克隆远程仓库（HTTP 方式）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> clone https://hub.com/用户名/仓库名.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 克隆远程仓库（SSH 方式，需先配置 SSH 密钥）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> clone @hub.com:用户名/仓库名.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 克隆指定分支</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> clone -b 分支名 https://hub.com/用户名/仓库名.</t>
+  </si>
+  <si>
+    <t>3. 提交代码到本地仓库</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 添加单个文件到暂存区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> add 文件名.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 添加所有文件到暂存区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> add .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看暂存区状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提交暂存区内容到本地仓库（-m 后接提交说明）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commit -m "提交说明：例如修改了 README 文件"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 强制覆盖最近一次提交（慎用，仅用于修改提交说明）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commit --amend -m "新的提交说明"</t>
+  </si>
+  <si>
+    <t>4. 与远程仓库同步</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 添加远程仓库（origin 为默认别名）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> remote add origin https://hub.com/用户名/仓库名.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看远程仓库列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> remote -v</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拉取远程仓库最新代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pull origin 分支名（如 master/main）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 推送本地代码到远程仓库</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> push origin 分支名（如 master/main）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 首次推送时关联远程分支（避免后续重复输入分支名）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> push -u origin 分支名</t>
+  </si>
+  <si>
+    <t>三、分支管理核心操作</t>
+  </si>
+  <si>
+    <t>1. 分支基本操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看本地分支列表（当前分支前有 * 标记）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看远程分支列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> branch -r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创建新分支（不切换）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> branch 新分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创建并切换到新分支</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checkout -b 新分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 切换到已有分支</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checkout 分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 删除本地分支（需先切换到其他分支）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> branch -d 分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 强制删除本地分支</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> branch -D 分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 删除远程分支</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> push origin --delete 分支名</t>
+  </si>
+  <si>
+    <t>2. 分支合并操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 场景：在 feature 分支开发完成后，合并到 main 分支</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 先切换到目标分支（如 main）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checkout main</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拉取目标分支最新代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pull origin main</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 合并指定分支到当前分支</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> merge 待合并分支名（如 feature）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 合并时显示详细日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> merge -v 待合并分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 解决合并冲突后，继续提交合并结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commit -m "合并 feature 分支到 main"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 推送合并结果到远程仓库</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> push origin main</t>
+  </si>
+  <si>
+    <t>3. 分支冲突解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 当合并分支出现冲突时， 会标记冲突区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 例如：</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt; HEAD</t>
+  </si>
+  <si>
+    <t>当前分支内容</t>
+  </si>
+  <si>
+    <t>=======</t>
+  </si>
+  <si>
+    <t>待合并分支内容</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt; 待合并分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 解决步骤：</t>
+  </si>
+  <si>
+    <t>1. 使用编辑器打开冲突文件，删除  标记（&lt;&lt;&lt;&lt;&lt;&lt;&lt;, =======, &gt;&gt;&gt;&gt;&gt;&gt;&gt;）</t>
+  </si>
+  <si>
+    <t>2. 保留正确的代码内容</t>
+  </si>
+  <si>
+    <t>3. 保存文件</t>
+  </si>
+  <si>
+    <t>4. 添加修改到暂存区： add 冲突文件名</t>
+  </si>
+  <si>
+    <t>5. 提交合并结果： commit -m "解决分支冲突"</t>
+  </si>
+  <si>
+    <t>四、版本回退与历史管理</t>
+  </si>
+  <si>
+    <t>1. 查看提交历史</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看简洁的提交历史</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> log --oneline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看详细的提交历史（含作者、时间等）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> log</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看图形化提交历史</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> log --graph --oneline --all</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看指定文件的修改历史</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> log 文件名.txt</t>
+  </si>
+  <si>
+    <t>2. 版本回退操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 方式一：回退到指定提交（保留本地修改）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reset --soft 提交哈希值前7位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 方式二：回退到指定提交并丢弃本地修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reset --hard 提交哈希值前7位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 方式三：回退到上一次提交</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reset --hard HEAD^</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 回退后强制推送到远程仓库（慎用，会覆盖远程历史）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> push -f origin 分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看可回退的版本列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reflog</t>
+  </si>
+  <si>
+    <t>五、常用辅助命令</t>
+  </si>
+  <si>
+    <t>1. 查看与撤销操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看工作区修改（未添加到暂存区）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看暂存区与本地仓库的差异</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> diff --staged</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 撤销文件修改（回到上一次提交状态）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checkout -- 文件名.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 撤销暂存区修改（回到工作区状态）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reset HEAD 文件名.txt</t>
+  </si>
+  <si>
+    <t>2. 标签管理（用于版本发布）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创建轻量级标签</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tag 标签名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创建带说明的标签</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tag -a 标签名 -m "标签说明"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看所有标签</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 推送标签到远程仓库</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> push origin 标签名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 推送所有标签到远程仓库</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> push origin --tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基于标签创建新分支</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checkout -b 分支名 标签名</t>
+  </si>
+  <si>
+    <t>六、团队协作常用技巧</t>
+  </si>
+  <si>
+    <t>1. 拉取代码并解决冲突</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拉取远程代码并自动合并（可能触发冲突）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pull origin 分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拉取远程代码并创建新的合并提交</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pull --no-ff origin 分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 先拉取再手动合并（推荐方式）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fetch origin 分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> merge origin/分支名</t>
+  </si>
+  <si>
+    <t>2. 变基操作（Rebase）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 场景：将本地分支的提交基于远程最新分支重排</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 优点：保持分支历史整洁，无多余合并提交</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 切换到需要变基的分支</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 执行变基操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rebase origin/main</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 解决变基过程中的冲突（如果有）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 解决后继续： rebase --continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 放弃变基： rebase --abort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 变基完成后推送到远程（需强制推送）</t>
+  </si>
+  <si>
+    <t>七、常见问题解决方案</t>
+  </si>
+  <si>
+    <t>1. 忘记设置用户名 / 邮箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 临时设置本次提交的用户名和邮箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commit --author="用户名 &lt;邮箱&gt;" -m "提交说明"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 重新设置全局用户名和邮箱（永久生效）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> config --global user.name "新用户名"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> config --global user.email "新邮箱"</t>
+  </si>
+  <si>
+    <t>2. 远程仓库地址变更</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看当前远程仓库地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 修改远程仓库地址（HTTP 方式）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> remote set-url origin https://新仓库地址.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 修改远程仓库地址（SSH 方式）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> remote set-url origin @新仓库地址:用户名/仓库名.</t>
+  </si>
+  <si>
+    <t>3. 大文件管理（推荐使用  LFS）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 安装  LFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lfs install</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 追踪大文件类型（如 .zip, .jpg）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lfs track "*.zip"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lfs track "*.jpg"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 提交配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> add .attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commit -m "添加  LFS 配置"</t>
   </si>
 </sst>
 </file>
@@ -3046,13 +3587,39 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.05"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -3144,13 +3711,6 @@
       <color rgb="FF404040"/>
       <name val="Courier New"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3289,19 +3849,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3789,192 +4349,210 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3983,62 +4561,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="24">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="24">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="22">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4377,8 +4952,8 @@
   <sheetPr/>
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1"/>
@@ -4396,33 +4971,33 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" customHeight="1" spans="1:13">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4430,17 +5005,17 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="J3" s="9" t="s">
+      <c r="G3" s="11"/>
+      <c r="J3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="33" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4448,19 +5023,19 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="32" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4468,19 +5043,19 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="33" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4488,19 +5063,19 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4508,19 +5083,19 @@
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4528,19 +5103,19 @@
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="32" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4548,17 +5123,17 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="J9" s="9" t="s">
+      <c r="G9" s="11"/>
+      <c r="J9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="33" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4566,19 +5141,19 @@
       <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="32" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4586,19 +5161,19 @@
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="33" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4606,19 +5181,19 @@
       <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="34" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4626,7 +5201,7 @@
       <c r="A13" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4634,13 +5209,13 @@
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="39" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4648,7 +5223,7 @@
       <c r="A16" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="39" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4656,7 +5231,7 @@
       <c r="A17" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4664,7 +5239,7 @@
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4672,13 +5247,13 @@
       <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
       <c r="A20" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="39" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4686,7 +5261,7 @@
       <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="39" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4694,7 +5269,7 @@
       <c r="A22" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="38" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4702,7 +5277,7 @@
       <c r="A23" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4710,13 +5285,13 @@
       <c r="A24" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
       <c r="A25" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="41" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4724,7 +5299,7 @@
       <c r="A26" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="42" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4732,7 +5307,7 @@
       <c r="A27" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4740,7 +5315,7 @@
       <c r="A28" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4748,13 +5323,13 @@
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="41" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4762,7 +5337,7 @@
       <c r="A31" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="41" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4770,7 +5345,7 @@
       <c r="A32" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="41" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4778,7 +5353,7 @@
       <c r="A33" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4786,13 +5361,13 @@
       <c r="A34" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="41" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4800,7 +5375,7 @@
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="41" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4808,7 +5383,7 @@
       <c r="A37" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="41" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4816,7 +5391,7 @@
       <c r="A38" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4824,13 +5399,13 @@
       <c r="A39" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="5"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" customHeight="1" spans="1:7">
       <c r="A40" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="41" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4838,7 +5413,7 @@
       <c r="A41" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="41" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4846,7 +5421,7 @@
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4854,7 +5429,7 @@
       <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4862,13 +5437,13 @@
       <c r="A44" t="s">
         <v>119</v>
       </c>
-      <c r="G44" s="5"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" customHeight="1" spans="1:7">
       <c r="A45" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G45" s="41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4876,7 +5451,7 @@
       <c r="A46" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" s="41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4884,7 +5459,7 @@
       <c r="A47" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="35" t="s">
+      <c r="G47" s="41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4892,7 +5467,7 @@
       <c r="A48" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4900,13 +5475,13 @@
       <c r="A49" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="5"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" customHeight="1" spans="1:7">
       <c r="A50" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="G50" s="41" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4914,7 +5489,7 @@
       <c r="A51" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="35" t="s">
+      <c r="G51" s="41" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4922,7 +5497,7 @@
       <c r="A52" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="G52" s="41" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4930,7 +5505,7 @@
       <c r="A53" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="32" t="s">
+      <c r="G53" s="38" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4938,7 +5513,7 @@
       <c r="A54" t="s">
         <v>137</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4946,258 +5521,258 @@
       <c r="A55" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="5"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="35" t="s">
+      <c r="G56" s="41" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:7">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="G57" s="35" t="s">
+      <c r="G57" s="41" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D58" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="35" t="s">
+      <c r="G58" s="41" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="11" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="G60" s="5"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="G61" s="35" t="s">
+      <c r="G61" s="41" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="G62" s="35" t="s">
+      <c r="G62" s="41" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="G63" s="35" t="s">
+      <c r="G63" s="41" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="G65" s="5"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="G66" s="35" t="s">
+      <c r="G66" s="41" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="G67" s="35" t="s">
+      <c r="G67" s="41" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="G68" s="35" t="s">
+      <c r="G68" s="41" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="G70" s="5"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="G71" s="35" t="s">
+      <c r="G71" s="41" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G72" s="35" t="s">
+      <c r="G72" s="41" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="G73" s="35" t="s">
+      <c r="G73" s="41" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D74" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="11" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="G75" s="5"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="G76" s="35" t="s">
+      <c r="G76" s="41" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="G77" s="35" t="s">
+      <c r="G77" s="41" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="G78" s="35" t="s">
+      <c r="G78" s="41" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="32" t="s">
+      <c r="G79" s="38" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5205,10 +5780,10 @@
       <c r="A80" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="38" t="s">
+      <c r="D80" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="11" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5216,19 +5791,19 @@
       <c r="A81" t="s">
         <v>208</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="G81" s="5"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
       <c r="A82" t="s">
         <v>210</v>
       </c>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="G82" s="33" t="s">
+      <c r="G82" s="39" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5236,10 +5811,10 @@
       <c r="A83" t="s">
         <v>212</v>
       </c>
-      <c r="D83" s="38" t="s">
+      <c r="D83" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G83" s="33" t="s">
+      <c r="G83" s="39" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5247,10 +5822,10 @@
       <c r="A84" t="s">
         <v>215</v>
       </c>
-      <c r="D84" s="38" t="s">
+      <c r="D84" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="11" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5258,19 +5833,19 @@
       <c r="A85" t="s">
         <v>38</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="G85" s="5"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" customHeight="1" spans="1:7">
       <c r="A86" t="s">
         <v>219</v>
       </c>
-      <c r="D86" s="38" t="s">
+      <c r="D86" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="G86" s="39" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5278,10 +5853,10 @@
       <c r="A87" t="s">
         <v>222</v>
       </c>
-      <c r="D87" s="38" t="s">
+      <c r="D87" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="G87" s="33" t="s">
+      <c r="G87" s="39" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5289,10 +5864,10 @@
       <c r="A88" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="38" t="s">
+      <c r="D88" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="39" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5300,7 +5875,7 @@
       <c r="A89" t="s">
         <v>228</v>
       </c>
-      <c r="G89" s="32" t="s">
+      <c r="G89" s="38" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5308,7 +5883,7 @@
       <c r="A90" t="s">
         <v>230</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5316,13 +5891,13 @@
       <c r="A91" t="s">
         <v>232</v>
       </c>
-      <c r="G91" s="5"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" customHeight="1" spans="1:7">
       <c r="A92" t="s">
         <v>38</v>
       </c>
-      <c r="G92" s="33" t="s">
+      <c r="G92" s="39" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5330,7 +5905,7 @@
       <c r="A93" t="s">
         <v>234</v>
       </c>
-      <c r="G93" s="33" t="s">
+      <c r="G93" s="39" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5338,7 +5913,7 @@
       <c r="A94" t="s">
         <v>236</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="11" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5346,13 +5921,13 @@
       <c r="A95" t="s">
         <v>238</v>
       </c>
-      <c r="G95" s="5"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" customHeight="1" spans="1:7">
       <c r="A96" t="s">
         <v>167</v>
       </c>
-      <c r="G96" s="33" t="s">
+      <c r="G96" s="39" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5360,7 +5935,7 @@
       <c r="A97" t="s">
         <v>240</v>
       </c>
-      <c r="G97" s="33" t="s">
+      <c r="G97" s="39" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5368,7 +5943,7 @@
       <c r="A98" t="s">
         <v>242</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="11" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5376,13 +5951,13 @@
       <c r="A99" t="s">
         <v>244</v>
       </c>
-      <c r="G99" s="5"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" customHeight="1" spans="1:7">
       <c r="A100" t="s">
         <v>245</v>
       </c>
-      <c r="G100" s="33" t="s">
+      <c r="G100" s="39" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5390,7 +5965,7 @@
       <c r="A101" t="s">
         <v>247</v>
       </c>
-      <c r="G101" s="32" t="s">
+      <c r="G101" s="38" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5398,7 +5973,7 @@
       <c r="A102" t="s">
         <v>249</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="11" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5406,13 +5981,13 @@
       <c r="A103" t="s">
         <v>251</v>
       </c>
-      <c r="G103" s="5"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" customHeight="1" spans="1:7">
       <c r="A104" t="s">
         <v>252</v>
       </c>
-      <c r="G104" s="33" t="s">
+      <c r="G104" s="39" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5420,7 +5995,7 @@
       <c r="A105" t="s">
         <v>254</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G105" s="39" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5428,7 +6003,7 @@
       <c r="A106" t="s">
         <v>256</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="11" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5436,13 +6011,13 @@
       <c r="A107" t="s">
         <v>251</v>
       </c>
-      <c r="G107" s="5"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" customHeight="1" spans="1:7">
       <c r="A108" t="s">
         <v>258</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="G108" s="39" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5450,7 +6025,7 @@
       <c r="A109" t="s">
         <v>260</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G109" s="39" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5458,7 +6033,7 @@
       <c r="A110" t="s">
         <v>262</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G110" s="39" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5466,7 +6041,7 @@
       <c r="A111" t="s">
         <v>264</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="11" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5474,13 +6049,13 @@
       <c r="A112" t="s">
         <v>266</v>
       </c>
-      <c r="G112" s="5"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" customHeight="1" spans="1:7">
       <c r="A113" t="s">
         <v>267</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G113" s="39" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5488,7 +6063,7 @@
       <c r="A114" t="s">
         <v>269</v>
       </c>
-      <c r="G114" s="33" t="s">
+      <c r="G114" s="39" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5496,7 +6071,7 @@
       <c r="A115" t="s">
         <v>271</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G115" s="11" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5504,13 +6079,13 @@
       <c r="A116" t="s">
         <v>273</v>
       </c>
-      <c r="G116" s="5"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" customHeight="1" spans="1:7">
       <c r="A117" t="s">
         <v>274</v>
       </c>
-      <c r="G117" s="33" t="s">
+      <c r="G117" s="39" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5518,7 +6093,7 @@
       <c r="A118" t="s">
         <v>276</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="G118" s="39" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5526,7 +6101,7 @@
       <c r="A119" t="s">
         <v>278</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G119" s="11" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5534,13 +6109,13 @@
       <c r="A120" t="s">
         <v>167</v>
       </c>
-      <c r="G120" s="5"/>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
       <c r="A121" t="s">
         <v>280</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="G121" s="39" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5548,7 +6123,7 @@
       <c r="A122" t="s">
         <v>193</v>
       </c>
-      <c r="G122" s="33" t="s">
+      <c r="G122" s="39" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5556,7 +6131,7 @@
       <c r="A123" t="s">
         <v>283</v>
       </c>
-      <c r="G123" s="32" t="s">
+      <c r="G123" s="38" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5564,7 +6139,7 @@
       <c r="A124" t="s">
         <v>285</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="G124" s="11" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5572,13 +6147,13 @@
       <c r="A125" t="s">
         <v>287</v>
       </c>
-      <c r="G125" s="5"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
       <c r="A126" t="s">
         <v>288</v>
       </c>
-      <c r="G126" s="33" t="s">
+      <c r="G126" s="39" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5586,7 +6161,7 @@
       <c r="A127" t="s">
         <v>290</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="G127" s="11" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5594,339 +6169,339 @@
       <c r="A128" t="s">
         <v>292</v>
       </c>
-      <c r="G128" s="5"/>
+      <c r="G128" s="11"/>
     </row>
     <row r="129" customHeight="1" spans="1:7">
       <c r="A129" t="s">
         <v>293</v>
       </c>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="39" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="7:7">
-      <c r="G130" s="33" t="s">
+      <c r="G130" s="39" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="7:7">
-      <c r="G131" s="5" t="s">
+      <c r="G131" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="7:7">
-      <c r="G132" s="5"/>
+      <c r="G132" s="11"/>
     </row>
     <row r="133" customHeight="1" spans="7:7">
-      <c r="G133" s="33" t="s">
+      <c r="G133" s="39" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="7:7">
-      <c r="G134" s="33" t="s">
+      <c r="G134" s="39" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="7:7">
-      <c r="G135" s="32" t="s">
+      <c r="G135" s="38" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="7:7">
-      <c r="G136" s="5" t="s">
+      <c r="G136" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="7:7">
-      <c r="G137" s="5"/>
+      <c r="G137" s="11"/>
     </row>
     <row r="138" customHeight="1" spans="7:7">
-      <c r="G138" s="33" t="s">
+      <c r="G138" s="39" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="7:7">
-      <c r="G139" s="33" t="s">
+      <c r="G139" s="39" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="7:7">
-      <c r="G140" s="33" t="s">
+      <c r="G140" s="39" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="7:7">
-      <c r="G141" s="5" t="s">
+      <c r="G141" s="11" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="7:7">
-      <c r="G142" s="5"/>
+      <c r="G142" s="11"/>
     </row>
     <row r="143" customHeight="1" spans="7:7">
-      <c r="G143" s="33" t="s">
+      <c r="G143" s="39" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="7:7">
-      <c r="G144" s="33" t="s">
+      <c r="G144" s="39" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="7:7">
-      <c r="G145" s="5" t="s">
+      <c r="G145" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="7:7">
-      <c r="G146" s="5"/>
+      <c r="G146" s="11"/>
     </row>
     <row r="147" customHeight="1" spans="7:7">
-      <c r="G147" s="33" t="s">
+      <c r="G147" s="39" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="7:7">
-      <c r="G148" s="33" t="s">
+      <c r="G148" s="39" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="7:7">
-      <c r="G149" s="5" t="s">
+      <c r="G149" s="11" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="7:7">
-      <c r="G150" s="5"/>
+      <c r="G150" s="11"/>
     </row>
     <row r="151" customHeight="1" spans="7:7">
-      <c r="G151" s="33" t="s">
+      <c r="G151" s="39" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="7:7">
-      <c r="G152" s="33" t="s">
+      <c r="G152" s="39" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="7:7">
-      <c r="G153" s="5" t="s">
+      <c r="G153" s="11" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="7:7">
-      <c r="G154" s="5"/>
+      <c r="G154" s="11"/>
     </row>
     <row r="155" customHeight="1" spans="7:7">
-      <c r="G155" s="33" t="s">
+      <c r="G155" s="39" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="7:7">
-      <c r="G156" s="33" t="s">
+      <c r="G156" s="39" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="7:7">
-      <c r="G157" s="5"/>
+      <c r="G157" s="11"/>
     </row>
     <row r="158" customHeight="1" spans="7:7">
-      <c r="G158" s="33" t="s">
+      <c r="G158" s="39" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="7:7">
-      <c r="G159" s="33" t="s">
+      <c r="G159" s="39" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="7:7">
-      <c r="G160" s="5" t="s">
+      <c r="G160" s="11" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="7:7">
-      <c r="G161" s="5"/>
+      <c r="G161" s="11"/>
     </row>
     <row r="162" customHeight="1" spans="7:7">
-      <c r="G162" s="33" t="s">
+      <c r="G162" s="39" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="7:7">
-      <c r="G163" s="33" t="s">
+      <c r="G163" s="39" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="7:7">
-      <c r="G164" s="5" t="s">
+      <c r="G164" s="11" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="7:7">
-      <c r="G165" s="5"/>
+      <c r="G165" s="11"/>
     </row>
     <row r="166" customHeight="1" spans="7:7">
-      <c r="G166" s="33" t="s">
+      <c r="G166" s="39" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="7:7">
-      <c r="G167" s="33" t="s">
+      <c r="G167" s="39" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="7:7">
-      <c r="G168" s="32" t="s">
+      <c r="G168" s="38" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="7:7">
-      <c r="G169" s="5" t="s">
+      <c r="G169" s="11" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="7:7">
-      <c r="G170" s="5"/>
+      <c r="G170" s="11"/>
     </row>
     <row r="171" customHeight="1" spans="7:7">
-      <c r="G171" s="33" t="s">
+      <c r="G171" s="39" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="7:7">
-      <c r="G172" s="5" t="s">
+      <c r="G172" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="7:7">
-      <c r="G173" s="5"/>
+      <c r="G173" s="11"/>
     </row>
     <row r="174" customHeight="1" spans="7:7">
-      <c r="G174" s="33" t="s">
+      <c r="G174" s="39" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="7:7">
-      <c r="G175" s="33" t="s">
+      <c r="G175" s="39" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="7:7">
-      <c r="G176" s="5" t="s">
+      <c r="G176" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="7:7">
-      <c r="G177" s="5"/>
+      <c r="G177" s="11"/>
     </row>
     <row r="178" customHeight="1" spans="7:7">
-      <c r="G178" s="33" t="s">
+      <c r="G178" s="39" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="7:7">
-      <c r="G179" s="33" t="s">
+      <c r="G179" s="39" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="7:7">
-      <c r="G180" s="32" t="s">
+      <c r="G180" s="38" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="7:7">
-      <c r="G181" s="5" t="s">
+      <c r="G181" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="7:7">
-      <c r="G182" s="5"/>
+      <c r="G182" s="11"/>
     </row>
     <row r="183" customHeight="1" spans="7:7">
-      <c r="G183" s="33" t="s">
+      <c r="G183" s="39" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="7:7">
-      <c r="G184" s="33" t="s">
+      <c r="G184" s="39" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="7:7">
-      <c r="G185" s="33" t="s">
+      <c r="G185" s="39" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="7:7">
-      <c r="G186" s="5" t="s">
+      <c r="G186" s="11" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="7:7">
-      <c r="G187" s="5"/>
+      <c r="G187" s="11"/>
     </row>
     <row r="188" customHeight="1" spans="7:7">
-      <c r="G188" s="33" t="s">
+      <c r="G188" s="39" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="7:7">
-      <c r="G189" s="33" t="s">
+      <c r="G189" s="39" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="7:7">
-      <c r="G190" s="5" t="s">
+      <c r="G190" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="7:7">
-      <c r="G191" s="5"/>
+      <c r="G191" s="11"/>
     </row>
     <row r="192" customHeight="1" spans="7:7">
-      <c r="G192" s="33" t="s">
+      <c r="G192" s="39" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="7:7">
-      <c r="G193" s="33" t="s">
+      <c r="G193" s="39" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="7:7">
-      <c r="G194" s="5" t="s">
+      <c r="G194" s="11" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="7:7">
-      <c r="G195" s="5"/>
+      <c r="G195" s="11"/>
     </row>
     <row r="196" customHeight="1" spans="7:7">
-      <c r="G196" s="33" t="s">
+      <c r="G196" s="39" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="7:7">
-      <c r="G197" s="33" t="s">
+      <c r="G197" s="39" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="7:7">
-      <c r="G198" s="5" t="s">
+      <c r="G198" s="11" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="7:7">
-      <c r="G199" s="5"/>
+      <c r="G199" s="11"/>
     </row>
     <row r="200" customHeight="1" spans="7:7">
-      <c r="G200" s="33" t="s">
+      <c r="G200" s="39" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="7:7">
-      <c r="G201" s="33" t="s">
+      <c r="G201" s="39" t="s">
         <v>315</v>
       </c>
     </row>
@@ -5946,7 +6521,7 @@
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -5963,37 +6538,37 @@
     <col min="10" max="10" width="21.2090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="8" customFormat="1" ht="25" customHeight="1" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6001,19 +6576,19 @@
       <c r="A3" t="s">
         <v>320</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="33" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6021,19 +6596,19 @@
       <c r="A4" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="32" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6041,22 +6616,22 @@
       <c r="A5" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="33" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6064,22 +6639,22 @@
       <c r="A6" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="32" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6087,22 +6662,22 @@
       <c r="A7" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="33" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6110,22 +6685,22 @@
       <c r="A8" t="s">
         <v>344</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>348</v>
       </c>
     </row>
@@ -6133,22 +6708,22 @@
       <c r="A9" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="33" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6156,22 +6731,22 @@
       <c r="A10" t="s">
         <v>354</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="32" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6179,22 +6754,22 @@
       <c r="A11" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="33" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6202,22 +6777,22 @@
       <c r="A12" t="s">
         <v>363</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="34" t="s">
         <v>367</v>
       </c>
     </row>
@@ -6225,22 +6800,22 @@
       <c r="A13" t="s">
         <v>368</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="29"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="21" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6248,7 +6823,7 @@
       <c r="A15" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="20" t="s">
         <v>372</v>
       </c>
     </row>
@@ -6256,7 +6831,7 @@
       <c r="A16" t="s">
         <v>373</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="27" t="s">
         <v>374</v>
       </c>
     </row>
@@ -6419,47 +6994,47 @@
       <c r="A48" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="30" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="20" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="21" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="20" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="21" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6467,23 +7042,23 @@
       <c r="A54" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="20" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="21" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:3">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="20" t="s">
         <v>413</v>
       </c>
     </row>
@@ -6491,55 +7066,55 @@
       <c r="A57" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="21" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="20" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="31" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="20" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="21" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="20" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="21" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6547,55 +7122,55 @@
       <c r="A64" t="s">
         <v>167</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="20" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:3">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="21" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:3">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="20" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:3">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="21" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:3">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="20" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:3">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="31" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="20" t="s">
         <v>437</v>
       </c>
     </row>
@@ -6603,47 +7178,47 @@
       <c r="A71" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="21" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:3">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="20" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:3">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="21" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:3">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="20" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="21" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:3">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="20" t="s">
         <v>447</v>
       </c>
     </row>
@@ -6651,7 +7226,7 @@
       <c r="A77" t="s">
         <v>167</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="21" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6659,7 +7234,7 @@
       <c r="A78" t="s">
         <v>449</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="36" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6667,7 +7242,7 @@
       <c r="A79" t="s">
         <v>450</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="21" t="s">
         <v>451</v>
       </c>
     </row>
@@ -6675,7 +7250,7 @@
       <c r="A80" t="s">
         <v>452</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="20" t="s">
         <v>453</v>
       </c>
     </row>
@@ -6683,7 +7258,7 @@
       <c r="A81" t="s">
         <v>454</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="21" t="s">
         <v>455</v>
       </c>
     </row>
@@ -6691,7 +7266,7 @@
       <c r="A82" t="s">
         <v>251</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="20" t="s">
         <v>456</v>
       </c>
     </row>
@@ -6699,7 +7274,7 @@
       <c r="A83" t="s">
         <v>457</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="21" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6707,7 +7282,7 @@
       <c r="A84" t="s">
         <v>459</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="20" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6715,7 +7290,7 @@
       <c r="A85" t="s">
         <v>251</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="21" t="s">
         <v>461</v>
       </c>
     </row>
@@ -6723,7 +7298,7 @@
       <c r="A86" t="s">
         <v>462</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="20" t="s">
         <v>463</v>
       </c>
     </row>
@@ -6731,7 +7306,7 @@
       <c r="A87" t="s">
         <v>464</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="31" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6739,7 +7314,7 @@
       <c r="A88" t="s">
         <v>465</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="20" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6747,7 +7322,7 @@
       <c r="A89" t="s">
         <v>251</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="21" t="s">
         <v>467</v>
       </c>
     </row>
@@ -6755,7 +7330,7 @@
       <c r="A90" t="s">
         <v>468</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="20" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6763,7 +7338,7 @@
       <c r="A91" t="s">
         <v>470</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="21" t="s">
         <v>471</v>
       </c>
     </row>
@@ -6771,7 +7346,7 @@
       <c r="A92" t="s">
         <v>472</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="20" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6779,7 +7354,7 @@
       <c r="A93" t="s">
         <v>474</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="21" t="s">
         <v>475</v>
       </c>
     </row>
@@ -6787,7 +7362,7 @@
       <c r="A94" t="s">
         <v>251</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="20" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6795,7 +7370,7 @@
       <c r="A95" t="s">
         <v>477</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="21" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6803,7 +7378,7 @@
       <c r="A96" t="s">
         <v>479</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C96" s="37" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6925,7 +7500,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{72c4df18-8973-4a2e-8b0d-b1ce1118e12d}</x14:id>
+          <x14:id>{60c8d753-ce53-42a0-a9ba-2e7587a00b14}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6936,7 +7511,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{72c4df18-8973-4a2e-8b0d-b1ce1118e12d}">
+          <x14:cfRule type="dataBar" id="{60c8d753-ce53-42a0-a9ba-2e7587a00b14}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6952,4 +7527,965 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A291"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A284" sqref="A284"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="17" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="84" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:1">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:1">
+      <c r="A34" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:1">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:1">
+      <c r="A40" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:1">
+      <c r="A43" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:1">
+      <c r="A45" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:1">
+      <c r="A46" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:1">
+      <c r="A49" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:1">
+      <c r="A52" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:1">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:1">
+      <c r="A57" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:1">
+      <c r="A58" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:1">
+      <c r="A60" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:1">
+      <c r="A61" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:1">
+      <c r="A69" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:1">
+      <c r="A72" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:1">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:1">
+      <c r="A77" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:1">
+      <c r="A78" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:1">
+      <c r="A80" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:1">
+      <c r="A81" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:1">
+      <c r="A83" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:1">
+      <c r="A84" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:1">
+      <c r="A86" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:1">
+      <c r="A89" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:1">
+      <c r="A92" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:1">
+      <c r="A93" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:1">
+      <c r="A95" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:1">
+      <c r="A96" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:1">
+      <c r="A98" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:1">
+      <c r="A99" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:1">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:1">
+      <c r="A104" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:1">
+      <c r="A106" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:1">
+      <c r="A107" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:1">
+      <c r="A109" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:1">
+      <c r="A110" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:1">
+      <c r="A112" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:1">
+      <c r="A113" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:1">
+      <c r="A115" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:1">
+      <c r="A116" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:1">
+      <c r="A118" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:1">
+      <c r="A119" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:1">
+      <c r="A120" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:1">
+      <c r="A122" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:1">
+      <c r="A123" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:1">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:1">
+      <c r="A128" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:1">
+      <c r="A129" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:1">
+      <c r="A130" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:1">
+      <c r="A131" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:1">
+      <c r="A132" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:1">
+      <c r="A133" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:1">
+      <c r="A134" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:1">
+      <c r="A136" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:1">
+      <c r="A137" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:1">
+      <c r="A138" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:1">
+      <c r="A139" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:1">
+      <c r="A140" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:1">
+      <c r="A141" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:1">
+      <c r="A143" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:1">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" customHeight="1" spans="1:1">
+      <c r="A148" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:1">
+      <c r="A149" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:1">
+      <c r="A151" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:1">
+      <c r="A152" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:1">
+      <c r="A154" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:1">
+      <c r="A155" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:1">
+      <c r="A157" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:1">
+      <c r="A158" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:1">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" customHeight="1" spans="1:1">
+      <c r="A163" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:1">
+      <c r="A164" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:1">
+      <c r="A166" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:1">
+      <c r="A167" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:1">
+      <c r="A169" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:1">
+      <c r="A170" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:1">
+      <c r="A172" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:1">
+      <c r="A173" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:1">
+      <c r="A175" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:1">
+      <c r="A176" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:1">
+      <c r="A178" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:1">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" customHeight="1" spans="1:1">
+      <c r="A183" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:1">
+      <c r="A184" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:1">
+      <c r="A186" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:1">
+      <c r="A187" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:1">
+      <c r="A189" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:1">
+      <c r="A190" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="1:1">
+      <c r="A192" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="1:1">
+      <c r="A193" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="1:1">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:1">
+      <c r="A198" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:1">
+      <c r="A199" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="1:1">
+      <c r="A201" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="1:1">
+      <c r="A202" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="1:1">
+      <c r="A204" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="1:1">
+      <c r="A205" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="1:1">
+      <c r="A207" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="1:1">
+      <c r="A208" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="1:1">
+      <c r="A210" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="211" customHeight="1" spans="1:1">
+      <c r="A211" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="213" customHeight="1" spans="1:1">
+      <c r="A213" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="1:1">
+      <c r="A214" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="1:1">
+      <c r="A216" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="218" customHeight="1" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="1:1">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:1">
+      <c r="A221" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="1:1">
+      <c r="A222" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="224" customHeight="1" spans="1:1">
+      <c r="A224" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="1:1">
+      <c r="A225" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="1:1">
+      <c r="A227" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="1:1">
+      <c r="A228" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="1:1">
+      <c r="A229" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="233" customHeight="1" spans="1:1">
+      <c r="A233" s="2"/>
+    </row>
+    <row r="234" customHeight="1" spans="1:1">
+      <c r="A234" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="235" customHeight="1" spans="1:1">
+      <c r="A235" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="1:1">
+      <c r="A237" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="238" customHeight="1" spans="1:1">
+      <c r="A238" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="240" customHeight="1" spans="1:1">
+      <c r="A240" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="241" customHeight="1" spans="1:1">
+      <c r="A241" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="243" customHeight="1" spans="1:1">
+      <c r="A243" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="244" customHeight="1" spans="1:1">
+      <c r="A244" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="245" customHeight="1" spans="1:1">
+      <c r="A245" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="1:1">
+      <c r="A247" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="1:1">
+      <c r="A248" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="250" customHeight="1" spans="1:1">
+      <c r="A250" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="252" customHeight="1" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="254" customHeight="1" spans="1:1">
+      <c r="A254" s="2"/>
+    </row>
+    <row r="255" customHeight="1" spans="1:1">
+      <c r="A255" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="256" customHeight="1" spans="1:1">
+      <c r="A256" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="258" customHeight="1" spans="1:1">
+      <c r="A258" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="1:1">
+      <c r="A259" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="1:1">
+      <c r="A260" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="264" customHeight="1" spans="1:1">
+      <c r="A264" s="2"/>
+    </row>
+    <row r="265" customHeight="1" spans="1:1">
+      <c r="A265" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="266" customHeight="1" spans="1:1">
+      <c r="A266" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="268" customHeight="1" spans="1:1">
+      <c r="A268" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="269" customHeight="1" spans="1:1">
+      <c r="A269" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="271" customHeight="1" spans="1:1">
+      <c r="A271" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="272" customHeight="1" spans="1:1">
+      <c r="A272" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="278" customHeight="1" spans="1:1">
+      <c r="A278" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="280" customHeight="1" spans="1:1">
+      <c r="A280" s="2"/>
+    </row>
+    <row r="281" customHeight="1" spans="1:1">
+      <c r="A281" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="282" customHeight="1" spans="1:1">
+      <c r="A282" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="284" customHeight="1" spans="1:1">
+      <c r="A284" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="285" customHeight="1" spans="1:1">
+      <c r="A285" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="286" customHeight="1" spans="1:1">
+      <c r="A286" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="288" customHeight="1" spans="1:1">
+      <c r="A288" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="289" customHeight="1" spans="1:1">
+      <c r="A289" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="290" customHeight="1" spans="1:1">
+      <c r="A290" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="291" customHeight="1" spans="1:1">
+      <c r="A291" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/设计与实现 2.0.xlsx
+++ b/设计与实现 2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="3"/>
+    <workbookView windowWidth="11950" windowHeight="12080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3067,19 +3067,19 @@
     <t xml:space="preserve"> 设置全局用户名（提交时显示）</t>
   </si>
   <si>
-    <t xml:space="preserve"> config --global user.name "你的用户名"</t>
+    <t>git config --global user.name "你的用户名"</t>
   </si>
   <si>
     <t xml:space="preserve"> 设置全局邮箱（提交时显示）</t>
   </si>
   <si>
-    <t xml:space="preserve"> config --global user.email "你的邮箱地址"</t>
+    <t>git config --global user.email "你的邮箱地址"</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看配置信息</t>
   </si>
   <si>
-    <t xml:space="preserve"> config --list</t>
+    <t>git config --list</t>
   </si>
   <si>
     <t>二、代码仓库基本操作</t>
@@ -3088,16 +3088,16 @@
     <t>1. 初始化本地仓库</t>
   </si>
   <si>
-    <t xml:space="preserve"> 在项目目录中初始化  仓库</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> init</t>
+    <t xml:space="preserve"> 在项目目录中初始化 git 仓库</t>
+  </si>
+  <si>
+    <t>git init</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看仓库状态（首次初始化后应显示无文件追踪）</t>
   </si>
   <si>
-    <t xml:space="preserve"> status</t>
+    <t>git status</t>
   </si>
   <si>
     <t>2. 克隆远程仓库到本地</t>
@@ -3106,19 +3106,19 @@
     <t xml:space="preserve"> 克隆远程仓库（HTTP 方式）</t>
   </si>
   <si>
-    <t xml:space="preserve"> clone https://hub.com/用户名/仓库名.</t>
+    <t>git clone https://github.com/用户名/仓库名.git</t>
   </si>
   <si>
     <t xml:space="preserve"> 克隆远程仓库（SSH 方式，需先配置 SSH 密钥）</t>
   </si>
   <si>
-    <t xml:space="preserve"> clone @hub.com:用户名/仓库名.</t>
+    <t>git clone git@github.com:用户名/仓库名.git</t>
   </si>
   <si>
     <t xml:space="preserve"> 克隆指定分支</t>
   </si>
   <si>
-    <t xml:space="preserve"> clone -b 分支名 https://hub.com/用户名/仓库名.</t>
+    <t>git clone -b 分支名 https://github.com/用户名/仓库名.git</t>
   </si>
   <si>
     <t>3. 提交代码到本地仓库</t>
@@ -3127,13 +3127,13 @@
     <t xml:space="preserve"> 添加单个文件到暂存区</t>
   </si>
   <si>
-    <t xml:space="preserve"> add 文件名.txt</t>
+    <t>git add 文件名.txt</t>
   </si>
   <si>
     <t xml:space="preserve"> 添加所有文件到暂存区</t>
   </si>
   <si>
-    <t xml:space="preserve"> add .</t>
+    <t>git add .</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看暂存区状态</t>
@@ -3142,13 +3142,51 @@
     <t xml:space="preserve"> 提交暂存区内容到本地仓库（-m 后接提交说明）</t>
   </si>
   <si>
-    <t xml:space="preserve"> commit -m "提交说明：例如修改了 README 文件"</t>
+    <r>
+      <t>git commit -m "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交说明：例如修改了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> README </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> 强制覆盖最近一次提交（慎用，仅用于修改提交说明）</t>
   </si>
   <si>
-    <t xml:space="preserve"> commit --amend -m "新的提交说明"</t>
+    <t>git commit --amend -m "新的提交说明"</t>
   </si>
   <si>
     <t>4. 与远程仓库同步</t>
@@ -3157,31 +3195,42 @@
     <t xml:space="preserve"> 添加远程仓库（origin 为默认别名）</t>
   </si>
   <si>
-    <t xml:space="preserve"> remote add origin https://hub.com/用户名/仓库名.</t>
+    <t>git remote add origin https://github.com/用户名/仓库名.git</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看远程仓库列表</t>
   </si>
   <si>
-    <t xml:space="preserve"> remote -v</t>
+    <t>git remote -v</t>
   </si>
   <si>
     <t xml:space="preserve"> 拉取远程仓库最新代码</t>
   </si>
   <si>
-    <t xml:space="preserve"> pull origin 分支名（如 master/main）</t>
+    <t>git pull origin 分支名（如 master/main）</t>
   </si>
   <si>
     <t xml:space="preserve"> 推送本地代码到远程仓库</t>
   </si>
   <si>
-    <t xml:space="preserve"> push origin 分支名（如 master/main）</t>
+    <t>git push origin 分支名（如 master/main）</t>
   </si>
   <si>
     <t xml:space="preserve"> 首次推送时关联远程分支（避免后续重复输入分支名）</t>
   </si>
   <si>
-    <t xml:space="preserve"> push -u origin 分支名</t>
+    <r>
+      <t xml:space="preserve">git push -u origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支名</t>
+    </r>
   </si>
   <si>
     <t>三、分支管理核心操作</t>
@@ -3193,49 +3242,60 @@
     <t xml:space="preserve"> 查看本地分支列表（当前分支前有 * 标记）</t>
   </si>
   <si>
-    <t xml:space="preserve"> branch</t>
+    <t>git branch</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看远程分支列表</t>
   </si>
   <si>
-    <t xml:space="preserve"> branch -r</t>
+    <t>git branch -r</t>
   </si>
   <si>
     <t xml:space="preserve"> 创建新分支（不切换）</t>
   </si>
   <si>
-    <t xml:space="preserve"> branch 新分支名</t>
+    <t>git branch 新分支名</t>
   </si>
   <si>
     <t xml:space="preserve"> 创建并切换到新分支</t>
   </si>
   <si>
-    <t xml:space="preserve"> checkout -b 新分支名</t>
+    <r>
+      <t xml:space="preserve">git checkout -b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新分支名</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> 切换到已有分支</t>
   </si>
   <si>
-    <t xml:space="preserve"> checkout 分支名</t>
+    <t>git checkout 分支名</t>
   </si>
   <si>
     <t xml:space="preserve"> 删除本地分支（需先切换到其他分支）</t>
   </si>
   <si>
-    <t xml:space="preserve"> branch -d 分支名</t>
+    <t>git branch -d 分支名</t>
   </si>
   <si>
     <t xml:space="preserve"> 强制删除本地分支</t>
   </si>
   <si>
-    <t xml:space="preserve"> branch -D 分支名</t>
+    <t>git branch -D 分支名</t>
   </si>
   <si>
     <t xml:space="preserve"> 删除远程分支</t>
   </si>
   <si>
-    <t xml:space="preserve"> push origin --delete 分支名</t>
+    <t>git push origin --delete 分支名</t>
   </si>
   <si>
     <t>2. 分支合并操作</t>
@@ -3247,43 +3307,43 @@
     <t xml:space="preserve"> 先切换到目标分支（如 main）</t>
   </si>
   <si>
-    <t xml:space="preserve"> checkout main</t>
+    <t>git checkout main</t>
   </si>
   <si>
     <t xml:space="preserve"> 拉取目标分支最新代码</t>
   </si>
   <si>
-    <t xml:space="preserve"> pull origin main</t>
+    <t>git pull origin main</t>
   </si>
   <si>
     <t xml:space="preserve"> 合并指定分支到当前分支</t>
   </si>
   <si>
-    <t xml:space="preserve"> merge 待合并分支名（如 feature）</t>
+    <t>git merge 待合并分支名（如 feature）</t>
   </si>
   <si>
     <t xml:space="preserve"> 合并时显示详细日志</t>
   </si>
   <si>
-    <t xml:space="preserve"> merge -v 待合并分支名</t>
+    <t>git merge -v 待合并分支名</t>
   </si>
   <si>
     <t xml:space="preserve"> 解决合并冲突后，继续提交合并结果</t>
   </si>
   <si>
-    <t xml:space="preserve"> commit -m "合并 feature 分支到 main"</t>
+    <t>git commit -m "合并 feature 分支到 main"</t>
   </si>
   <si>
     <t xml:space="preserve"> 推送合并结果到远程仓库</t>
   </si>
   <si>
-    <t xml:space="preserve"> push origin main</t>
+    <t>git push origin main</t>
   </si>
   <si>
     <t>3. 分支冲突解决</t>
   </si>
   <si>
-    <t xml:space="preserve"> 当合并分支出现冲突时， 会标记冲突区域</t>
+    <t xml:space="preserve"> 当合并分支出现冲突时，git 会标记冲突区域</t>
   </si>
   <si>
     <t xml:space="preserve"> 例如：</t>
@@ -3307,7 +3367,7 @@
     <t xml:space="preserve"> 解决步骤：</t>
   </si>
   <si>
-    <t>1. 使用编辑器打开冲突文件，删除  标记（&lt;&lt;&lt;&lt;&lt;&lt;&lt;, =======, &gt;&gt;&gt;&gt;&gt;&gt;&gt;）</t>
+    <t>1. 使用编辑器打开冲突文件，删除 git 标记（&lt;&lt;&lt;&lt;&lt;&lt;&lt;, =======, &gt;&gt;&gt;&gt;&gt;&gt;&gt;）</t>
   </si>
   <si>
     <t>2. 保留正确的代码内容</t>
@@ -3316,10 +3376,10 @@
     <t>3. 保存文件</t>
   </si>
   <si>
-    <t>4. 添加修改到暂存区： add 冲突文件名</t>
-  </si>
-  <si>
-    <t>5. 提交合并结果： commit -m "解决分支冲突"</t>
+    <t>4. 添加修改到暂存区：git add 冲突文件名</t>
+  </si>
+  <si>
+    <t>5. 提交合并结果：git commit -m "解决分支冲突"</t>
   </si>
   <si>
     <t>四、版本回退与历史管理</t>
@@ -3331,25 +3391,25 @@
     <t xml:space="preserve"> 查看简洁的提交历史</t>
   </si>
   <si>
-    <t xml:space="preserve"> log --oneline</t>
+    <t>git log --oneline</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看详细的提交历史（含作者、时间等）</t>
   </si>
   <si>
-    <t xml:space="preserve"> log</t>
+    <t>git log</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看图形化提交历史</t>
   </si>
   <si>
-    <t xml:space="preserve"> log --graph --oneline --all</t>
+    <t>git log --graph --oneline --all</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看指定文件的修改历史</t>
   </si>
   <si>
-    <t xml:space="preserve"> log 文件名.txt</t>
+    <t>git log 文件名.txt</t>
   </si>
   <si>
     <t>2. 版本回退操作</t>
@@ -3358,31 +3418,31 @@
     <t xml:space="preserve"> 方式一：回退到指定提交（保留本地修改）</t>
   </si>
   <si>
-    <t xml:space="preserve"> reset --soft 提交哈希值前7位</t>
+    <t>git reset --soft 提交哈希值前7位</t>
   </si>
   <si>
     <t xml:space="preserve"> 方式二：回退到指定提交并丢弃本地修改</t>
   </si>
   <si>
-    <t xml:space="preserve"> reset --hard 提交哈希值前7位</t>
+    <t>git reset --hard 提交哈希值前7位</t>
   </si>
   <si>
     <t xml:space="preserve"> 方式三：回退到上一次提交</t>
   </si>
   <si>
-    <t xml:space="preserve"> reset --hard HEAD^</t>
+    <t>git reset --hard HEAD^</t>
   </si>
   <si>
     <t xml:space="preserve"> 回退后强制推送到远程仓库（慎用，会覆盖远程历史）</t>
   </si>
   <si>
-    <t xml:space="preserve"> push -f origin 分支名</t>
+    <t>git push -f origin 分支名</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看可回退的版本列表</t>
   </si>
   <si>
-    <t xml:space="preserve"> reflog</t>
+    <t>git reflog</t>
   </si>
   <si>
     <t>五、常用辅助命令</t>
@@ -3394,25 +3454,25 @@
     <t xml:space="preserve"> 查看工作区修改（未添加到暂存区）</t>
   </si>
   <si>
-    <t xml:space="preserve"> diff</t>
+    <t>git diff</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看暂存区与本地仓库的差异</t>
   </si>
   <si>
-    <t xml:space="preserve"> diff --staged</t>
+    <t>git diff --staged</t>
   </si>
   <si>
     <t xml:space="preserve"> 撤销文件修改（回到上一次提交状态）</t>
   </si>
   <si>
-    <t xml:space="preserve"> checkout -- 文件名.txt</t>
+    <t>git checkout -- 文件名.txt</t>
   </si>
   <si>
     <t xml:space="preserve"> 撤销暂存区修改（回到工作区状态）</t>
   </si>
   <si>
-    <t xml:space="preserve"> reset HEAD 文件名.txt</t>
+    <t>git reset HEAD 文件名.txt</t>
   </si>
   <si>
     <t>2. 标签管理（用于版本发布）</t>
@@ -3421,37 +3481,37 @@
     <t xml:space="preserve"> 创建轻量级标签</t>
   </si>
   <si>
-    <t xml:space="preserve"> tag 标签名</t>
+    <t>git tag 标签名</t>
   </si>
   <si>
     <t xml:space="preserve"> 创建带说明的标签</t>
   </si>
   <si>
-    <t xml:space="preserve"> tag -a 标签名 -m "标签说明"</t>
+    <t>git tag -a 标签名 -m "标签说明"</t>
   </si>
   <si>
     <t xml:space="preserve"> 查看所有标签</t>
   </si>
   <si>
-    <t xml:space="preserve"> tag</t>
+    <t>git tag</t>
   </si>
   <si>
     <t xml:space="preserve"> 推送标签到远程仓库</t>
   </si>
   <si>
-    <t xml:space="preserve"> push origin 标签名</t>
+    <t>git push origin 标签名</t>
   </si>
   <si>
     <t xml:space="preserve"> 推送所有标签到远程仓库</t>
   </si>
   <si>
-    <t xml:space="preserve"> push origin --tags</t>
+    <t>git push origin --tags</t>
   </si>
   <si>
     <t xml:space="preserve"> 基于标签创建新分支</t>
   </si>
   <si>
-    <t xml:space="preserve"> checkout -b 分支名 标签名</t>
+    <t>git checkout -b 分支名 标签名</t>
   </si>
   <si>
     <t>六、团队协作常用技巧</t>
@@ -3463,22 +3523,22 @@
     <t xml:space="preserve"> 拉取远程代码并自动合并（可能触发冲突）</t>
   </si>
   <si>
-    <t xml:space="preserve"> pull origin 分支名</t>
+    <t>git pull origin 分支名</t>
   </si>
   <si>
     <t xml:space="preserve"> 拉取远程代码并创建新的合并提交</t>
   </si>
   <si>
-    <t xml:space="preserve"> pull --no-ff origin 分支名</t>
+    <t>git pull --no-ff origin 分支名</t>
   </si>
   <si>
     <t xml:space="preserve"> 先拉取再手动合并（推荐方式）</t>
   </si>
   <si>
-    <t xml:space="preserve"> fetch origin 分支名</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> merge origin/分支名</t>
+    <t>git fetch origin 分支名</t>
+  </si>
+  <si>
+    <t>git merge origin/分支名</t>
   </si>
   <si>
     <t>2. 变基操作（Rebase）</t>
@@ -3496,16 +3556,16 @@
     <t xml:space="preserve"> 执行变基操作</t>
   </si>
   <si>
-    <t xml:space="preserve"> rebase origin/main</t>
+    <t>git rebase origin/main</t>
   </si>
   <si>
     <t xml:space="preserve"> 解决变基过程中的冲突（如果有）</t>
   </si>
   <si>
-    <t xml:space="preserve"> 解决后继续： rebase --continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 放弃变基： rebase --abort</t>
+    <t xml:space="preserve"> 解决后继续：git rebase --continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 放弃变基：git rebase --abort</t>
   </si>
   <si>
     <t xml:space="preserve"> 变基完成后推送到远程（需强制推送）</t>
@@ -3520,16 +3580,16 @@
     <t xml:space="preserve"> 临时设置本次提交的用户名和邮箱</t>
   </si>
   <si>
-    <t xml:space="preserve"> commit --author="用户名 &lt;邮箱&gt;" -m "提交说明"</t>
+    <t>git commit --author="用户名 &lt;邮箱&gt;" -m "提交说明"</t>
   </si>
   <si>
     <t xml:space="preserve"> 重新设置全局用户名和邮箱（永久生效）</t>
   </si>
   <si>
-    <t xml:space="preserve"> config --global user.name "新用户名"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config --global user.email "新邮箱"</t>
+    <t>git config --global user.name "新用户名"</t>
+  </si>
+  <si>
+    <t>git config --global user.email "新邮箱"</t>
   </si>
   <si>
     <t>2. 远程仓库地址变更</t>
@@ -3541,40 +3601,40 @@
     <t xml:space="preserve"> 修改远程仓库地址（HTTP 方式）</t>
   </si>
   <si>
-    <t xml:space="preserve"> remote set-url origin https://新仓库地址.</t>
+    <t>git remote set-url origin https://新仓库地址.git</t>
   </si>
   <si>
     <t xml:space="preserve"> 修改远程仓库地址（SSH 方式）</t>
   </si>
   <si>
-    <t xml:space="preserve"> remote set-url origin @新仓库地址:用户名/仓库名.</t>
-  </si>
-  <si>
-    <t>3. 大文件管理（推荐使用  LFS）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 安装  LFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lfs install</t>
+    <t>git remote set-url origin git@新仓库地址:用户名/仓库名.git</t>
+  </si>
+  <si>
+    <t>3. 大文件管理（推荐使用 git LFS）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 安装 git LFS</t>
+  </si>
+  <si>
+    <t>git lfs install</t>
   </si>
   <si>
     <t xml:space="preserve"> 追踪大文件类型（如 .zip, .jpg）</t>
   </si>
   <si>
-    <t xml:space="preserve"> lfs track "*.zip"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lfs track "*.jpg"</t>
+    <t>git lfs track "*.zip"</t>
+  </si>
+  <si>
+    <t>git lfs track "*.jpg"</t>
   </si>
   <si>
     <t xml:space="preserve"> 提交配置</t>
   </si>
   <si>
-    <t xml:space="preserve"> add .attributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> commit -m "添加  LFS 配置"</t>
+    <t>git add .gitattributes</t>
+  </si>
+  <si>
+    <t>git commit -m "添加 git LFS 配置"</t>
   </si>
 </sst>
 </file>
@@ -3587,7 +3647,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3619,6 +3679,12 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3848,6 +3914,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -4349,133 +4421,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4498,22 +4570,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4522,7 +4594,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4531,22 +4603,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4561,19 +4633,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="24">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="24">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4588,19 +4660,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4609,10 +4678,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4681,6 +4753,53 @@
   <book/>
   <sheets/>
 </customStorage>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="59372500"/>
+          <a:ext cx="965200" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6520,8 +6639,8 @@
   <sheetPr/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -7500,7 +7619,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{60c8d753-ce53-42a0-a9ba-2e7587a00b14}</x14:id>
+          <x14:id>{3faba20b-6bd7-47c0-a0e4-58252ede7b29}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7511,7 +7630,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{60c8d753-ce53-42a0-a9ba-2e7587a00b14}">
+          <x14:cfRule type="dataBar" id="{3faba20b-6bd7-47c0-a0e4-58252ede7b29}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7534,8 +7653,8 @@
   <sheetPr/>
   <dimension ref="A1:A291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A284" sqref="A284"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="17" customHeight="1"/>
@@ -7696,7 +7815,7 @@
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="6" t="s">
         <v>525</v>
       </c>
     </row>
@@ -7764,7 +7883,7 @@
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:1">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="6" t="s">
         <v>538</v>
       </c>
     </row>
@@ -7817,7 +7936,7 @@
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:1">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="6" t="s">
         <v>548</v>
       </c>
     </row>
@@ -8432,7 +8551,7 @@
       </c>
     </row>
     <row r="278" customHeight="1" spans="1:1">
-      <c r="A278" s="6" t="s">
+      <c r="A278" s="7" t="s">
         <v>661</v>
       </c>
     </row>
@@ -8440,7 +8559,7 @@
       <c r="A280" s="2"/>
     </row>
     <row r="281" customHeight="1" spans="1:1">
-      <c r="A281" s="7" t="s">
+      <c r="A281" s="4" t="s">
         <v>662</v>
       </c>
     </row>
@@ -8487,5 +8606,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/设计与实现 2.0.xlsx
+++ b/设计与实现 2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11950" windowHeight="12080" activeTab="2"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="671">
   <si>
     <t>property-management-backend/</t>
   </si>
@@ -129,7 +129,7 @@
     <t>用户注册功能</t>
   </si>
   <si>
-    <t>注册API</t>
+    <t>注册api</t>
   </si>
   <si>
     <t>密码加密、数据验证</t>
@@ -147,7 +147,7 @@
     <t>用户登录与会话</t>
   </si>
   <si>
-    <t>登录API、会话管理</t>
+    <t>登录api、会话管理</t>
   </si>
   <si>
     <t>HttpSession使用</t>
@@ -165,7 +165,7 @@
     <t>房产管理</t>
   </si>
   <si>
-    <t>房产增查API</t>
+    <t>房产增查api</t>
   </si>
   <si>
     <t>数据库关联操作</t>
@@ -183,7 +183,7 @@
     <t>报修提交</t>
   </si>
   <si>
-    <t>报修提交API</t>
+    <t>报修提交api</t>
   </si>
   <si>
     <t>基础CRUD</t>
@@ -218,7 +218,7 @@
     <t>报修状态管理</t>
   </si>
   <si>
-    <t>状态更新API</t>
+    <t>状态更新api</t>
   </si>
   <si>
     <t>枚举状态转换</t>
@@ -233,7 +233,7 @@
     <t>缴费管理</t>
   </si>
   <si>
-    <t>账单生成与缴费API</t>
+    <t>账单生成与缴费api</t>
   </si>
   <si>
     <t>查询过滤</t>
@@ -251,7 +251,7 @@
     <t>公告管理</t>
   </si>
   <si>
-    <t>公告发布API</t>
+    <t>公告发布api</t>
   </si>
   <si>
     <t>时间处理</t>
@@ -290,10 +290,10 @@
     <t>完整测试报告</t>
   </si>
   <si>
-    <t>API测试、打包</t>
-  </si>
-  <si>
-    <t>│   │               │   └── SwaggerConfig.java                   // API文档配置</t>
+    <t>api测试、打包</t>
+  </si>
+  <si>
+    <t>│   │               │   └── SwaggerConfig.java                   // api文档配置</t>
   </si>
   <si>
     <r>
@@ -337,14 +337,70 @@
     <t>│   │               │   │   └── RegisterController.java          // 注册相关</t>
   </si>
   <si>
+    <t>SwaggerConfig.java: api文档配置</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── user/</t>
+  </si>
+  <si>
+    <t>│   │               │   │   └── UserController.java              // 用户管理</t>
+  </si>
+  <si>
+    <t>集成Swagger/Openapi</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── property/</t>
+  </si>
+  <si>
+    <t>api分组和文档描述</t>
+  </si>
+  <si>
+    <t>│   │               │   │   └── PropertyController.java          // 房产管理</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2. 控制器层 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>controller/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   ├── repair/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AuthController.java: </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SwaggerConfig.java</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认证相关</t>
     </r>
     <r>
       <rPr>
@@ -353,26 +409,225 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>: API文档配置</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── user/</t>
-  </si>
-  <si>
-    <t>│   │               │   │   └── UserController.java              // 用户管理</t>
-  </si>
-  <si>
-    <t>集成Swagger/OpenAPI</t>
-  </si>
-  <si>
-    <t>│   │               │   ├── property/</t>
-  </si>
-  <si>
-    <t>API分组和文档描述</t>
-  </si>
-  <si>
-    <t>│   │               │   │   └── PropertyController.java          // 房产管理</t>
+      <t>api</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   └── RepairController.java            // 报修管理</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── bill/</t>
+  </si>
+  <si>
+    <t>/api/auth/login: 用户登录</t>
+  </si>
+  <si>
+    <t>│   │               │   │   └── BillController.java              // 缴费管理</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">/api/auth/logout: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户登出</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   └── notice/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">/api/auth/register: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户注册</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │       └── NoticeController.java            // 公告管理</t>
+  </si>
+  <si>
+    <t>UserController.java: 用户管理api</t>
+  </si>
+  <si>
+    <t>│   │               ├── service/                                 // 服务层接口</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/api/users/{id}: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取用户信息</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   ├── UserService.java</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/api/users/update: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新用户信息</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   ├── PropertyService.java</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/api/users/disable: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁用用户</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   ├── RepairService.java</t>
+  </si>
+  <si>
+    <t>PropertyController.java: 房产管理api</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── BillService.java</t>
+  </si>
+  <si>
+    <t>│   │               │   └── NoticeService.java</t>
+  </si>
+  <si>
+    <t>/api/properties: 获取房产列表</t>
+  </si>
+  <si>
+    <t>/api/properties/add: 添加房产</t>
+  </si>
+  <si>
+    <t>│   │               ├── service/impl/                            // 服务层实现</t>
+  </si>
+  <si>
+    <t>/api/properties/{id}: 获取房产详情</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── UserServiceImpl.java</t>
+  </si>
+  <si>
+    <t>RepairController.java: 报修管理api</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── PropertyServiceImpl.java</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── RepairServiceImpl.java</t>
+  </si>
+  <si>
+    <t>/api/repairs: 提交报修</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── BillServiceImpl.java</t>
+  </si>
+  <si>
+    <t>/api/repairs/status: 更新报修状态</t>
+  </si>
+  <si>
+    <t>│   │               │   └── NoticeServiceImpl.java</t>
+  </si>
+  <si>
+    <t>/api/repairs/history: 获取报修历史</t>
+  </si>
+  <si>
+    <t>BillController.java: 缴费管理api</t>
+  </si>
+  <si>
+    <t>│   │               ├── repository/                              // 数据访问层</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── UserRepository.java                  // JPA接口</t>
+  </si>
+  <si>
+    <t>/api/bills: 生成账单</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── PropertyRepository.java</t>
+  </si>
+  <si>
+    <t>/api/bills/pay: 模拟缴费</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── RepairRepository.java</t>
+  </si>
+  <si>
+    <t>/api/bills/unpaid: 获取未缴账单</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── BillRepository.java</t>
+  </si>
+  <si>
+    <t>NoticeController.java: 公告管理api</t>
+  </si>
+  <si>
+    <t>│   │               │   └── NoticeRepository.java</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── mapper/                              // MyBatis Mapper</t>
+  </si>
+  <si>
+    <t>/api/notices: 发布公告</t>
+  </si>
+  <si>
+    <t>│   │               │   │   ├── UserMapper.java</t>
+  </si>
+  <si>
+    <t>/api/notices/latest: 获取最新公告</t>
+  </si>
+  <si>
+    <t>│   │               │   │   ├── PropertyMapper.java</t>
+  </si>
+  <si>
+    <t>/api/notices/all: 获取所有公告</t>
+  </si>
+  <si>
+    <t>│   │               │   │   ├── RepairMapper.java</t>
   </si>
   <si>
     <r>
@@ -382,7 +637,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>2. 控制器层 (</t>
+      <t>3. 服务层 (</t>
     </r>
     <r>
       <rPr>
@@ -391,7 +646,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>controller/</t>
+      <t>service/</t>
     </r>
     <r>
       <rPr>
@@ -400,11 +655,29 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
+      <t> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>service/impl/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>│   │               │   ├── repair/</t>
+    <t>│   │               │   │   ├── BillMapper.java</t>
   </si>
   <si>
     <r>
@@ -414,7 +687,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>AuthController.java</t>
+      <t>UserService.java</t>
     </r>
     <r>
       <rPr>
@@ -423,14 +696,11 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>: 认证相关API</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   └── RepairController.java            // 报修管理</t>
-  </si>
-  <si>
-    <t>│   │               │   ├── bill/</t>
+      <t>: 用户服务接口</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   └── NoticeMapper.java</t>
   </si>
   <si>
     <r>
@@ -440,7 +710,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>/api/auth/login</t>
+      <t>registerUser()</t>
     </r>
     <r>
       <rPr>
@@ -449,15 +719,24 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>: 用户登录</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   └── BillController.java              // 缴费管理</t>
-  </si>
-  <si>
-    <r>
-      <t>/api/auth/logout</t>
+      <t>: 用户注册</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               ├── model/                                   // 模型层</t>
+  </si>
+  <si>
+    <t>后续扩展</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>authenticate()</t>
     </r>
     <r>
       <rPr>
@@ -466,6 +745,715 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
+      <t>: 用户认证</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   ├── entity/                              // 实体类</t>
+  </si>
+  <si>
+    <t>├── dto/                             // 数据传输对象（顶级目录）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>updateUserInfo()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 更新用户信息</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   ├── User.java</t>
+  </si>
+  <si>
+    <t>│   ├── request/                     // 请求DTO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PropertyService.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 房产服务接口</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   ├── Property.java</t>
+  </si>
+  <si>
+    <t>│   │   ├── LoginRequest.java</t>
+  </si>
+  <si>
+    <t>│   │               │   │   ├── Repair.java</t>
+  </si>
+  <si>
+    <t>│   │   ├── RegisterRequest.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addProperty()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 添加房产</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   ├── Bill.java</t>
+  </si>
+  <si>
+    <t>│   │   ├── RepairRequest.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getUserProperties()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 获取用户房产</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   └── Notice.java</t>
+  </si>
+  <si>
+    <t>│   │   ├── BillRequest.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>searchProperties()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 搜索房产</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   ├── dto/                                 // 数据传输对象</t>
+  </si>
+  <si>
+    <t>│   │   ├── PropertyRequest.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RepairService.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 报修服务接口</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   ├── request/                         // 请求DTO</t>
+  </si>
+  <si>
+    <t>│   │   └── NoticeRequest.java</t>
+  </si>
+  <si>
+    <t>│   │               │   │   │   ├── LoginRequest.java</t>
+  </si>
+  <si>
+    <t>│   │</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>submitRepair()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 提交报修</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   │   ├── RegisterRequest.java</t>
+  </si>
+  <si>
+    <t>│   └── response/                    // 响应DTO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>updateRepairStatus()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 更新报修状态</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   │   ├── RepairRequest.java</t>
+  </si>
+  <si>
+    <t>│       ├── apiResponse.java         // 统一响应格式</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getRepairHistory()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 获取报修历史</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   │   └── ...</t>
+  </si>
+  <si>
+    <t>│       ├── LoginResponse.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BillService.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 账单服务接口</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │   └── response/                        // 响应DTO</t>
+  </si>
+  <si>
+    <t>│       ├── UserResponse.java</t>
+  </si>
+  <si>
+    <t>│   │               │   │       ├── apiResponse.java             // 统一响应格式</t>
+  </si>
+  <si>
+    <t>│       ├── RepairResponse.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>generateBill()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 生成账单</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │       ├── LoginResponse.java</t>
+  </si>
+  <si>
+    <t>│       ├── BillResponse.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>payBill()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 支付账单</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │       ├── UserResponse.java</t>
+  </si>
+  <si>
+    <t>│       ├── PropertyResponse.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getUnpaidBills()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 获取未缴账单</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   │       └── ...</t>
+  </si>
+  <si>
+    <t>│       └── NoticeResponse.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NoticeService.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 公告服务接口</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   └── enums/                               // 枚举类</t>
+  </si>
+  <si>
+    <t>│</t>
+  </si>
+  <si>
+    <t>│   │               │       ├── UserRole.java</t>
+  </si>
+  <si>
+    <t>├── enums/                           // 枚举类（顶级目录）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>publishNotice()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 发布公告</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │       ├── RepairStatus.java</t>
+  </si>
+  <si>
+    <t>│   ├── UserRole.java                // 用户角色</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getLatestNotices()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 获取最新公告</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │       ├── BillStatus.java</t>
+  </si>
+  <si>
+    <t>│   ├── RepairStatus.java            // 报修状态</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getAllNotices()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 获取所有公告</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │       └── ...</t>
+  </si>
+  <si>
+    <t>│   ├── BillStatus.java              // 账单状态</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4. 数据访问层 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>repository/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mapper/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>│   ├── RepairType.java              // 报修类型</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JPA Repository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 使用Spring Data JPA</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               ├── exception/                               // 异常处理</t>
+  </si>
+  <si>
+    <t>│   └── NoticeType.java              // 公告类型</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── BusinessException.java               // 自定义业务异常</t>
+  </si>
+  <si>
+    <t>提供基本的CRUD操作</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── GlobalExceptionHandler.java          // 全局异常处理器</t>
+  </si>
+  <si>
+    <t>└── entity/                          // 实体类（顶级目录）</t>
+  </si>
+  <si>
+    <t>支持自定义查询方法</t>
+  </si>
+  <si>
+    <t>│   │               │   └── ErrorCode.java                       // 错误码枚举</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── User.java</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MyBatis Mapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 复杂SQL操作</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── Property.java</t>
+  </si>
+  <si>
+    <t>│   │               ├── util/                                    // 工具类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── Repair.java</t>
+  </si>
+  <si>
+    <t>XML映射文件定义复杂查询</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── SessionUtils.java                    // 会话工具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── Bill.java</t>
+  </si>
+  <si>
+    <t>动态SQL支持</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── FileUploadUtils.java                 // 文件上传工具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    └── Notice.java</t>
+  </si>
+  <si>
+    <t>结果集映射</t>
+  </si>
+  <si>
+    <t>│   │               │   ├── PasswordUtils.java                   // 密码工具</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5. 模型层 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>model/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   ├── ValidationUtils.java                 // 验证工具</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Entity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 数据库实体</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   └── CryptoConverter.java                 // 数据加密转换器</t>
+  </si>
+  <si>
+    <t>对应数据库表结构</t>
+  </si>
+  <si>
+    <t>│   │               └── aspect/                                  // AOP切面</t>
+  </si>
+  <si>
+    <t>JPA注解定义关系</t>
+  </si>
+  <si>
+    <t>│   │                   ├── LoggingAspect.java                   // 日志切面</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
@@ -475,1335 +1463,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>用户登出</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   └── notice/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/auth/register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 用户注册</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │       └── NoticeController.java            // 公告管理</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>UserController.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 用户管理API</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               ├── service/                                 // 服务层接口</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/users/{id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取用户信息</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── UserService.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/users/update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 更新用户信息</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── PropertyService.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/users/disable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 禁用用户</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── RepairService.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PropertyController.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 房产管理API</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── BillService.java</t>
-  </si>
-  <si>
-    <t>│   │               │   └── NoticeService.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/properties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取房产列表</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/properties/add</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 添加房产</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               ├── service/impl/                            // 服务层实现</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/properties/{id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取房产详情</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── UserServiceImpl.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RepairController.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 报修管理API</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── PropertyServiceImpl.java</t>
-  </si>
-  <si>
-    <t>│   │               │   ├── RepairServiceImpl.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/repairs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 提交报修</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── BillServiceImpl.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/repairs/status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 更新报修状态</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   └── NoticeServiceImpl.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/repairs/history</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取报修历史</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BillController.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 缴费管理API</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               ├── repository/                              // 数据访问层</t>
-  </si>
-  <si>
-    <t>│   │               │   ├── UserRepository.java                  // JPA接口</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/bills</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 生成账单</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── PropertyRepository.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/bills/pay</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 模拟缴费</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── RepairRepository.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/bills/unpaid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取未缴账单</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── BillRepository.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NoticeController.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 公告管理API</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   └── NoticeRepository.java</t>
-  </si>
-  <si>
-    <t>│   │               │   ├── mapper/                              // MyBatis Mapper</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/notices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 发布公告</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   ├── UserMapper.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/notices/latest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取最新公告</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   ├── PropertyMapper.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/api/notices/all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取所有公告</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   ├── RepairMapper.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3. 服务层 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>service/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t> 和 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>service/impl/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   ├── BillMapper.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>UserService.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 用户服务接口</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   └── NoticeMapper.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>registerUser()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 用户注册</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               ├── model/                                   // 模型层</t>
-  </si>
-  <si>
-    <t>后续扩展</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>authenticate()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 用户认证</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── entity/                              // 实体类</t>
-  </si>
-  <si>
-    <t>├── dto/                             // 数据传输对象（顶级目录）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>updateUserInfo()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 更新用户信息</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   ├── User.java</t>
-  </si>
-  <si>
-    <t>│   ├── request/                     // 请求DTO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PropertyService.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 房产服务接口</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   ├── Property.java</t>
-  </si>
-  <si>
-    <t>│   │   ├── LoginRequest.java</t>
-  </si>
-  <si>
-    <t>│   │               │   │   ├── Repair.java</t>
-  </si>
-  <si>
-    <t>│   │   ├── RegisterRequest.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>addProperty()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 添加房产</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   ├── Bill.java</t>
-  </si>
-  <si>
-    <t>│   │   ├── RepairRequest.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>getUserProperties()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取用户房产</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   └── Notice.java</t>
-  </si>
-  <si>
-    <t>│   │   ├── BillRequest.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>searchProperties()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 搜索房产</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── dto/                                 // 数据传输对象</t>
-  </si>
-  <si>
-    <t>│   │   ├── PropertyRequest.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RepairService.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 报修服务接口</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   ├── request/                         // 请求DTO</t>
-  </si>
-  <si>
-    <t>│   │   └── NoticeRequest.java</t>
-  </si>
-  <si>
-    <t>│   │               │   │   │   ├── LoginRequest.java</t>
-  </si>
-  <si>
-    <t>│   │</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>submitRepair()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 提交报修</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   │   ├── RegisterRequest.java</t>
-  </si>
-  <si>
-    <t>│   └── response/                    // 响应DTO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>updateRepairStatus()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 更新报修状态</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   │   ├── RepairRequest.java</t>
-  </si>
-  <si>
-    <t>│       ├── ApiResponse.java         // 统一响应格式</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>getRepairHistory()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取报修历史</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   │   └── ...</t>
-  </si>
-  <si>
-    <t>│       ├── LoginResponse.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BillService.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 账单服务接口</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │   └── response/                        // 响应DTO</t>
-  </si>
-  <si>
-    <t>│       ├── UserResponse.java</t>
-  </si>
-  <si>
-    <t>│   │               │   │       ├── ApiResponse.java             // 统一响应格式</t>
-  </si>
-  <si>
-    <t>│       ├── RepairResponse.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>generateBill()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 生成账单</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │       ├── LoginResponse.java</t>
-  </si>
-  <si>
-    <t>│       ├── BillResponse.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>payBill()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 支付账单</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │       ├── UserResponse.java</t>
-  </si>
-  <si>
-    <t>│       ├── PropertyResponse.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>getUnpaidBills()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取未缴账单</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   │       └── ...</t>
-  </si>
-  <si>
-    <t>│       └── NoticeResponse.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NoticeService.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 公告服务接口</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   └── enums/                               // 枚举类</t>
-  </si>
-  <si>
-    <t>│</t>
-  </si>
-  <si>
-    <t>│   │               │       ├── UserRole.java</t>
-  </si>
-  <si>
-    <t>├── enums/                           // 枚举类（顶级目录）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>publishNotice()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 发布公告</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │       ├── RepairStatus.java</t>
-  </si>
-  <si>
-    <t>│   ├── UserRole.java                // 用户角色</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>getLatestNotices()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取最新公告</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │       ├── BillStatus.java</t>
-  </si>
-  <si>
-    <t>│   ├── RepairStatus.java            // 报修状态</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>getAllNotices()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 获取所有公告</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │       └── ...</t>
-  </si>
-  <si>
-    <t>│   ├── BillStatus.java              // 账单状态</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4. 数据访问层 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>repository/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t> 和 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mapper/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>│   ├── RepairType.java              // 报修类型</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JPA Repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 使用Spring Data JPA</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               ├── exception/                               // 异常处理</t>
-  </si>
-  <si>
-    <t>│   └── NoticeType.java              // 公告类型</t>
-  </si>
-  <si>
-    <t>│   │               │   ├── BusinessException.java               // 自定义业务异常</t>
-  </si>
-  <si>
-    <t>提供基本的CRUD操作</t>
-  </si>
-  <si>
-    <t>│   │               │   ├── GlobalExceptionHandler.java          // 全局异常处理器</t>
-  </si>
-  <si>
-    <t>└── entity/                          // 实体类（顶级目录）</t>
-  </si>
-  <si>
-    <t>支持自定义查询方法</t>
-  </si>
-  <si>
-    <t>│   │               │   └── ErrorCode.java                       // 错误码枚举</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── User.java</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MyBatis Mapper</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 复杂SQL操作</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── Property.java</t>
-  </si>
-  <si>
-    <t>│   │               ├── util/                                    // 工具类</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── Repair.java</t>
-  </si>
-  <si>
-    <t>XML映射文件定义复杂查询</t>
-  </si>
-  <si>
-    <t>│   │               │   ├── SessionUtils.java                    // 会话工具</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ├── Bill.java</t>
-  </si>
-  <si>
-    <t>动态SQL支持</t>
-  </si>
-  <si>
-    <t>│   │               │   ├── FileUploadUtils.java                 // 文件上传工具</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    └── Notice.java</t>
-  </si>
-  <si>
-    <t>结果集映射</t>
-  </si>
-  <si>
-    <t>│   │               │   ├── PasswordUtils.java                   // 密码工具</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5. 模型层 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>model/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── ValidationUtils.java                 // 验证工具</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Entity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 数据库实体</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   └── CryptoConverter.java                 // 数据加密转换器</t>
-  </si>
-  <si>
-    <t>对应数据库表结构</t>
-  </si>
-  <si>
-    <t>│   │               └── aspect/                                  // AOP切面</t>
-  </si>
-  <si>
-    <t>JPA注解定义关系</t>
-  </si>
-  <si>
-    <t>│   │                   ├── LoggingAspect.java                   // 日志切面</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DTO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF404040"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>数据传输对象</t>
     </r>
   </si>
@@ -1811,13 +1470,13 @@
     <t>│   │                   └── PerformanceAspect.java               // 性能监控切面</t>
   </si>
   <si>
-    <t>Request DTO: API请求参数</t>
+    <t>Request DTO: api请求参数</t>
   </si>
   <si>
     <t>│   ├── resources/</t>
   </si>
   <si>
-    <t>Response DTO: API响应数据</t>
+    <t>Response DTO: api响应数据</t>
   </si>
   <si>
     <t>│   │   ├── static/                             // 静态资源</t>
@@ -2686,6 +2345,9 @@
     <t xml:space="preserve">    ├── useVirtualList.js # 虚拟列表</t>
   </si>
   <si>
+    <t>npm install path</t>
+  </si>
+  <si>
     <t>│   │   ├── layout/           # 布局组件</t>
   </si>
   <si>
@@ -3143,6 +2805,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>git commit -m "</t>
     </r>
     <r>
@@ -3220,6 +2888,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">git push -u origin </t>
     </r>
     <r>
@@ -3261,6 +2935,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">git checkout -b </t>
     </r>
     <r>
@@ -3647,7 +3327,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3921,8 +3601,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3957,6 +3643,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -4134,7 +3832,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -4305,6 +4003,93 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4427,7 +4212,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4439,119 +4224,119 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4675,16 +4460,64 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="22" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="24" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5071,8 +4904,8 @@
   <sheetPr/>
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1"/>
@@ -5093,12 +4926,12 @@
       <c r="G1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" customHeight="1" spans="1:13">
       <c r="A2" t="s">
@@ -5107,16 +4940,16 @@
       <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="52" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5125,16 +4958,16 @@
         <v>9</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="55" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5145,16 +4978,16 @@
       <c r="G4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="52" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5165,16 +4998,16 @@
       <c r="G5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="55" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5185,16 +5018,16 @@
       <c r="G6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="52" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5205,16 +5038,16 @@
       <c r="G7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="55" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5225,16 +5058,16 @@
       <c r="G8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="52" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5243,16 +5076,16 @@
         <v>44</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="55" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5263,16 +5096,16 @@
       <c r="G10" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="52" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5283,16 +5116,16 @@
       <c r="G11" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5303,21 +5136,21 @@
       <c r="G12" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="58" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" t="s">
+      <c r="A13" s="41" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -5358,7 +5191,7 @@
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="42" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5372,7 +5205,7 @@
       <c r="A20" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="43" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5380,7 +5213,7 @@
       <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="43" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5396,7 +5229,7 @@
       <c r="A23" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="42" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5410,7 +5243,7 @@
       <c r="A25" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="44" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5418,7 +5251,7 @@
       <c r="A26" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="45" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5426,7 +5259,7 @@
       <c r="A27" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="45" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5434,7 +5267,7 @@
       <c r="A28" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="42" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5448,7 +5281,7 @@
       <c r="A30" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="45" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5456,7 +5289,7 @@
       <c r="A31" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="45" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5464,7 +5297,7 @@
       <c r="A32" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="45" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5472,7 +5305,7 @@
       <c r="A33" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="42" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5486,7 +5319,7 @@
       <c r="A35" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="44" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5494,7 +5327,7 @@
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="44" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5502,7 +5335,7 @@
       <c r="A37" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="44" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5510,7 +5343,7 @@
       <c r="A38" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="42" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5524,7 +5357,7 @@
       <c r="A40" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="44" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5532,7 +5365,7 @@
       <c r="A41" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="44" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5540,7 +5373,7 @@
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="44" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5548,7 +5381,7 @@
       <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="42" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5562,7 +5395,7 @@
       <c r="A45" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5570,7 +5403,7 @@
       <c r="A46" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5578,7 +5411,7 @@
       <c r="A47" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="44" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5586,7 +5419,7 @@
       <c r="A48" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="42" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5600,7 +5433,7 @@
       <c r="A50" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="41" t="s">
+      <c r="G50" s="44" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5608,7 +5441,7 @@
       <c r="A51" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="44" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5616,7 +5449,7 @@
       <c r="A52" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="44" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5646,7 +5479,7 @@
       <c r="A56" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="46" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5654,10 +5487,10 @@
       <c r="A57" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="G57" s="41" t="s">
+      <c r="G57" s="46" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5665,10 +5498,10 @@
       <c r="A58" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="44" t="s">
+      <c r="D58" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="41" t="s">
+      <c r="G58" s="46" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5676,7 +5509,7 @@
       <c r="A59" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="48" t="s">
         <v>148</v>
       </c>
       <c r="G59" s="11" t="s">
@@ -5687,7 +5520,7 @@
       <c r="A60" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="48" t="s">
         <v>151</v>
       </c>
       <c r="G60" s="11"/>
@@ -5696,10 +5529,10 @@
       <c r="A61" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="G61" s="41" t="s">
+      <c r="G61" s="46" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5707,10 +5540,10 @@
       <c r="A62" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="G62" s="41" t="s">
+      <c r="G62" s="46" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5718,10 +5551,10 @@
       <c r="A63" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="G63" s="41" t="s">
+      <c r="G63" s="46" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5729,7 +5562,7 @@
       <c r="A64" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="48" t="s">
         <v>162</v>
       </c>
       <c r="G64" s="11" t="s">
@@ -5740,7 +5573,7 @@
       <c r="A65" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="48" t="s">
         <v>165</v>
       </c>
       <c r="G65" s="11"/>
@@ -5749,10 +5582,10 @@
       <c r="A66" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D66" s="44" t="s">
+      <c r="D66" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="G66" s="41" t="s">
+      <c r="G66" s="46" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5760,10 +5593,10 @@
       <c r="A67" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="G67" s="41" t="s">
+      <c r="G67" s="46" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5771,10 +5604,10 @@
       <c r="A68" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="G68" s="41" t="s">
+      <c r="G68" s="46" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5782,7 +5615,7 @@
       <c r="A69" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D69" s="44" t="s">
+      <c r="D69" s="48" t="s">
         <v>176</v>
       </c>
       <c r="G69" s="11" t="s">
@@ -5793,19 +5626,19 @@
       <c r="A70" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="44" t="s">
+      <c r="D70" s="48" t="s">
         <v>179</v>
       </c>
       <c r="G70" s="11"/>
     </row>
     <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="44" t="s">
+      <c r="D71" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="G71" s="41" t="s">
+      <c r="G71" s="46" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5813,10 +5646,10 @@
       <c r="A72" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="44" t="s">
+      <c r="D72" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="G72" s="41" t="s">
+      <c r="G72" s="46" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5824,10 +5657,10 @@
       <c r="A73" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="44" t="s">
+      <c r="D73" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="G73" s="41" t="s">
+      <c r="G73" s="46" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5835,7 +5668,7 @@
       <c r="A74" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="48" t="s">
         <v>190</v>
       </c>
       <c r="G74" s="11" t="s">
@@ -5846,7 +5679,7 @@
       <c r="A75" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="48" t="s">
         <v>193</v>
       </c>
       <c r="G75" s="11"/>
@@ -5855,10 +5688,10 @@
       <c r="A76" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="G76" s="41" t="s">
+      <c r="G76" s="46" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5866,10 +5699,10 @@
       <c r="A77" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="G77" s="41" t="s">
+      <c r="G77" s="46" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5877,10 +5710,10 @@
       <c r="A78" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="G78" s="41" t="s">
+      <c r="G78" s="46" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5888,7 +5721,7 @@
       <c r="A79" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D79" s="44" t="s">
+      <c r="D79" s="48" t="s">
         <v>204</v>
       </c>
       <c r="G79" s="38" t="s">
@@ -5899,7 +5732,7 @@
       <c r="A80" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="44" t="s">
+      <c r="D80" s="48" t="s">
         <v>206</v>
       </c>
       <c r="G80" s="11" t="s">
@@ -5910,7 +5743,7 @@
       <c r="A81" t="s">
         <v>208</v>
       </c>
-      <c r="D81" s="44" t="s">
+      <c r="D81" s="48" t="s">
         <v>209</v>
       </c>
       <c r="G81" s="11"/>
@@ -5919,7 +5752,7 @@
       <c r="A82" t="s">
         <v>210</v>
       </c>
-      <c r="D82" s="44" t="s">
+      <c r="D82" s="48" t="s">
         <v>193</v>
       </c>
       <c r="G82" s="39" t="s">
@@ -5930,7 +5763,7 @@
       <c r="A83" t="s">
         <v>212</v>
       </c>
-      <c r="D83" s="44" t="s">
+      <c r="D83" s="48" t="s">
         <v>213</v>
       </c>
       <c r="G83" s="39" t="s">
@@ -5941,7 +5774,7 @@
       <c r="A84" t="s">
         <v>215</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="D84" s="48" t="s">
         <v>216</v>
       </c>
       <c r="G84" s="11" t="s">
@@ -5952,7 +5785,7 @@
       <c r="A85" t="s">
         <v>38</v>
       </c>
-      <c r="D85" s="44" t="s">
+      <c r="D85" s="48" t="s">
         <v>218</v>
       </c>
       <c r="G85" s="11"/>
@@ -5961,7 +5794,7 @@
       <c r="A86" t="s">
         <v>219</v>
       </c>
-      <c r="D86" s="44" t="s">
+      <c r="D86" s="48" t="s">
         <v>220</v>
       </c>
       <c r="G86" s="39" t="s">
@@ -5972,7 +5805,7 @@
       <c r="A87" t="s">
         <v>222</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="48" t="s">
         <v>223</v>
       </c>
       <c r="G87" s="39" t="s">
@@ -5983,7 +5816,7 @@
       <c r="A88" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="48" t="s">
         <v>226</v>
       </c>
       <c r="G88" s="39" t="s">
@@ -6046,7 +5879,7 @@
       <c r="A96" t="s">
         <v>167</v>
       </c>
-      <c r="G96" s="39" t="s">
+      <c r="G96" s="43" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6054,7 +5887,7 @@
       <c r="A97" t="s">
         <v>240</v>
       </c>
-      <c r="G97" s="39" t="s">
+      <c r="G97" s="43" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6639,8 +6472,8 @@
   <sheetPr/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -6938,35 +6771,38 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:3">
+    <row r="15" customHeight="1" spans="1:5">
       <c r="A15" t="s">
         <v>371</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>372</v>
       </c>
+      <c r="E15" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
@@ -6976,32 +6812,32 @@
     </row>
     <row r="21" customHeight="1" spans="1:1">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
       <c r="A24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:1">
       <c r="A25" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:1">
@@ -7011,17 +6847,17 @@
     </row>
     <row r="28" customHeight="1" spans="1:1">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:1">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:1">
@@ -7031,17 +6867,17 @@
     </row>
     <row r="32" customHeight="1" spans="1:1">
       <c r="A32" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:1">
       <c r="A33" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:1">
       <c r="A34" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:1">
@@ -7051,22 +6887,22 @@
     </row>
     <row r="36" customHeight="1" spans="1:1">
       <c r="A36" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:1">
       <c r="A37" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:1">
       <c r="A38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:1">
       <c r="A39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:1">
@@ -7076,17 +6912,17 @@
     </row>
     <row r="41" customHeight="1" spans="1:1">
       <c r="A41" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:1">
       <c r="A42" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:1">
       <c r="A43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:1">
@@ -7096,17 +6932,17 @@
     </row>
     <row r="45" customHeight="1" spans="1:1">
       <c r="A45" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
       <c r="A46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:1">
       <c r="A47" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:3">
@@ -7119,7 +6955,7 @@
     </row>
     <row r="49" customHeight="1" spans="1:3">
       <c r="A49" s="29" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>316</v>
@@ -7127,34 +6963,34 @@
     </row>
     <row r="50" customHeight="1" spans="1:3">
       <c r="A50" s="29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
       <c r="A51" s="29" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
       <c r="A52" s="29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
       <c r="A53" s="29" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
@@ -7162,23 +6998,23 @@
         <v>167</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
       <c r="A55" s="29" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:3">
       <c r="A56" s="29" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:3">
@@ -7186,20 +7022,20 @@
         <v>167</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
       <c r="A58" s="29" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
       <c r="A59" s="29" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>167</v>
@@ -7207,34 +7043,34 @@
     </row>
     <row r="60" customHeight="1" spans="1:3">
       <c r="A60" s="29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
       <c r="A61" s="29" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
       <c r="A62" s="29" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
       <c r="A63" s="29" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:3">
@@ -7242,44 +7078,44 @@
         <v>167</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:3">
       <c r="A65" s="29" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:3">
       <c r="A66" s="29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:3">
       <c r="A67" s="29" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:3">
       <c r="A68" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:3">
       <c r="A69" s="29" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>167</v>
@@ -7287,10 +7123,10 @@
     </row>
     <row r="70" customHeight="1" spans="1:3">
       <c r="A70" s="29" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:3">
@@ -7298,47 +7134,47 @@
         <v>167</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:3">
       <c r="A72" s="29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:3">
       <c r="A73" s="29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:3">
       <c r="A74" s="29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
       <c r="A75" s="29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:3">
       <c r="A76" s="29" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:3">
@@ -7346,12 +7182,12 @@
         <v>167</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:3">
       <c r="A78" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>167</v>
@@ -7359,26 +7195,26 @@
     </row>
     <row r="79" customHeight="1" spans="1:3">
       <c r="A79" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:3">
       <c r="A80" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:3">
       <c r="A81" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:3">
@@ -7386,23 +7222,23 @@
         <v>251</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
       <c r="A83" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:3">
       <c r="A84" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:3">
@@ -7410,20 +7246,20 @@
         <v>251</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:3">
       <c r="A86" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:3">
       <c r="A87" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C87" s="31" t="s">
         <v>167</v>
@@ -7431,10 +7267,10 @@
     </row>
     <row r="88" customHeight="1" spans="1:3">
       <c r="A88" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:3">
@@ -7442,39 +7278,39 @@
         <v>251</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:3">
       <c r="A92" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:3">
       <c r="A93" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:3">
@@ -7482,28 +7318,28 @@
         <v>251</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:3">
       <c r="A95" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:3">
       <c r="A96" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:1">
       <c r="A97" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:1">
@@ -7513,17 +7349,17 @@
     </row>
     <row r="99" customHeight="1" spans="1:1">
       <c r="A99" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:1">
       <c r="A100" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:1">
       <c r="A101" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:1">
@@ -7533,17 +7369,17 @@
     </row>
     <row r="103" customHeight="1" spans="1:1">
       <c r="A103" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:1">
       <c r="A104" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:1">
       <c r="A105" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:1">
@@ -7553,12 +7389,12 @@
     </row>
     <row r="107" customHeight="1" spans="1:1">
       <c r="A107" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:1">
       <c r="A108" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:1">
@@ -7568,42 +7404,42 @@
     </row>
     <row r="110" customHeight="1" spans="1:1">
       <c r="A110" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:1">
       <c r="A111" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:1">
       <c r="A112" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:1">
       <c r="A113" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:1">
       <c r="A114" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:1">
       <c r="A115" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:1">
       <c r="A116" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:1">
       <c r="A117" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -7619,7 +7455,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3faba20b-6bd7-47c0-a0e4-58252ede7b29}</x14:id>
+          <x14:id>{bc24b071-bfd4-44ce-a85d-01d50ca0b464}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7630,7 +7466,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3faba20b-6bd7-47c0-a0e4-58252ede7b29}">
+          <x14:cfRule type="dataBar" id="{bc24b071-bfd4-44ce-a85d-01d50ca0b464}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7664,7 +7500,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
@@ -7672,42 +7508,42 @@
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
@@ -7715,27 +7551,27 @@
     </row>
     <row r="18" customHeight="1" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:1">
@@ -7743,37 +7579,37 @@
     </row>
     <row r="27" customHeight="1" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:1">
@@ -7781,57 +7617,57 @@
     </row>
     <row r="39" customHeight="1" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:1">
       <c r="A49" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:1">
@@ -7839,62 +7675,62 @@
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:1">
       <c r="A58" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:1">
       <c r="A64" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:1">
       <c r="A66" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:1">
       <c r="A67" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:1">
       <c r="A70" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:1">
       <c r="A72" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:1">
@@ -7902,87 +7738,87 @@
     </row>
     <row r="77" customHeight="1" spans="1:1">
       <c r="A77" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:1">
       <c r="A78" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:1">
       <c r="A83" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
       <c r="A84" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:1">
       <c r="A86" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:1">
       <c r="A87" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:1">
       <c r="A89" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:1">
       <c r="A93" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:1">
       <c r="A96" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:1">
       <c r="A98" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:1">
@@ -7990,77 +7826,77 @@
     </row>
     <row r="104" customHeight="1" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:1">
       <c r="A106" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:1">
       <c r="A107" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:1">
       <c r="A109" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:1">
       <c r="A110" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:1">
       <c r="A113" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:1">
       <c r="A115" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:1">
       <c r="A118" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:1">
       <c r="A120" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:1">
       <c r="A122" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:1">
@@ -8068,77 +7904,77 @@
     </row>
     <row r="128" customHeight="1" spans="1:1">
       <c r="A128" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:1">
       <c r="A129" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:1">
       <c r="A130" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:1">
       <c r="A131" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:1">
       <c r="A132" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:1">
       <c r="A133" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:1">
       <c r="A134" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:1">
       <c r="A136" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:1">
       <c r="A137" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:1">
       <c r="A138" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:1">
       <c r="A140" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:1">
       <c r="A143" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:1">
@@ -8146,47 +7982,47 @@
     </row>
     <row r="148" customHeight="1" spans="1:1">
       <c r="A148" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:1">
       <c r="A151" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:1">
       <c r="A152" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:1">
       <c r="A154" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:1">
       <c r="A157" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:1">
       <c r="A158" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:1">
@@ -8194,62 +8030,62 @@
     </row>
     <row r="163" customHeight="1" spans="1:1">
       <c r="A163" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:1">
       <c r="A164" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:1">
       <c r="A166" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:1">
       <c r="A167" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:1">
       <c r="A169" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:1">
       <c r="A170" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:1">
       <c r="A172" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="1:1">
       <c r="A173" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:1">
       <c r="A176" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:1">
       <c r="A178" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:1">
@@ -8257,47 +8093,47 @@
     </row>
     <row r="183" customHeight="1" spans="1:1">
       <c r="A183" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="1:1">
       <c r="A186" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="1:1">
       <c r="A187" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="1:1">
       <c r="A189" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="1:1">
       <c r="A190" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="1:1">
       <c r="A192" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="1:1">
       <c r="A193" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="1:1">
@@ -8305,72 +8141,72 @@
     </row>
     <row r="198" customHeight="1" spans="1:1">
       <c r="A198" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="1:1">
       <c r="A199" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="1:1">
       <c r="A201" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="1:1">
       <c r="A202" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="1:1">
       <c r="A204" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="1:1">
       <c r="A205" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="1:1">
       <c r="A207" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="1:1">
       <c r="A208" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="1:1">
       <c r="A210" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="1:1">
       <c r="A211" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="1:1">
       <c r="A213" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="1:1">
       <c r="A214" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="1:1">
       <c r="A216" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="218" customHeight="1" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="220" customHeight="1" spans="1:1">
@@ -8378,42 +8214,42 @@
     </row>
     <row r="221" customHeight="1" spans="1:1">
       <c r="A221" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="1:1">
       <c r="A222" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="1:1">
       <c r="A224" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="225" customHeight="1" spans="1:1">
       <c r="A225" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="1:1">
       <c r="A227" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="228" customHeight="1" spans="1:1">
       <c r="A228" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="1:1">
       <c r="A229" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="231" customHeight="1" spans="1:1">
       <c r="A231" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="233" customHeight="1" spans="1:1">
@@ -8421,67 +8257,67 @@
     </row>
     <row r="234" customHeight="1" spans="1:1">
       <c r="A234" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="1:1">
       <c r="A235" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="237" customHeight="1" spans="1:1">
       <c r="A237" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="1:1">
       <c r="A238" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="240" customHeight="1" spans="1:1">
       <c r="A240" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="1:1">
       <c r="A241" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="243" customHeight="1" spans="1:1">
       <c r="A243" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="1:1">
       <c r="A244" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="1:1">
       <c r="A245" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="1:1">
       <c r="A247" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="1:1">
       <c r="A248" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="1:1">
       <c r="A250" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="252" customHeight="1" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="1:1">
@@ -8489,32 +8325,32 @@
     </row>
     <row r="255" customHeight="1" spans="1:1">
       <c r="A255" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="1:1">
       <c r="A256" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="258" customHeight="1" spans="1:1">
       <c r="A258" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="1:1">
       <c r="A259" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="1:1">
       <c r="A260" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="264" customHeight="1" spans="1:1">
@@ -8522,37 +8358,37 @@
     </row>
     <row r="265" customHeight="1" spans="1:1">
       <c r="A265" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="1:1">
       <c r="A266" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="1:1">
       <c r="A268" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="1:1">
       <c r="A269" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="1:1">
       <c r="A271" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="1:1">
       <c r="A272" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="1:1">
       <c r="A278" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="1:1">
@@ -8560,47 +8396,47 @@
     </row>
     <row r="281" customHeight="1" spans="1:1">
       <c r="A281" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="282" customHeight="1" spans="1:1">
       <c r="A282" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="1:1">
       <c r="A284" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="285" customHeight="1" spans="1:1">
       <c r="A285" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="1:1">
       <c r="A286" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="288" customHeight="1" spans="1:1">
       <c r="A288" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="1:1">
       <c r="A289" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="1:1">
       <c r="A290" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="291" customHeight="1" spans="1:1">
       <c r="A291" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/设计与实现 2.0.xlsx
+++ b/设计与实现 2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="11950" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">AuthController.java: </t>
     </r>
     <r>
@@ -426,13 +432,30 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">/api/auth/logout: </t>
+    </r>
+    <r>
       <rPr>
         <sz val="9.5"/>
         <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户登出</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   └── notice/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">/api/auth/logout: </t>
+      <t xml:space="preserve">/api/auth/register: </t>
     </r>
     <r>
       <rPr>
@@ -441,11 +464,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>用户登出</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   └── notice/</t>
+      <t>用户注册</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │       └── NoticeController.java            // 公告管理</t>
+  </si>
+  <si>
+    <t>UserController.java: 用户管理api</t>
+  </si>
+  <si>
+    <t>│   │               ├── service/                                 // 服务层接口</t>
   </si>
   <si>
     <r>
@@ -455,7 +484,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">/api/auth/register: </t>
+      <t xml:space="preserve">/api/users/{id}: </t>
     </r>
     <r>
       <rPr>
@@ -464,54 +493,43 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>用户注册</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │       └── NoticeController.java            // 公告管理</t>
-  </si>
-  <si>
-    <t>UserController.java: 用户管理api</t>
-  </si>
-  <si>
-    <t>│   │               ├── service/                                 // 服务层接口</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">/api/users/{id}: </t>
-    </r>
+      <t>获取用户信息</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   ├── UserService.java</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.5"/>
         <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">/api/users/update: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>获取用户信息</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── UserService.java</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">/api/users/update: </t>
-    </r>
+      <t>更新用户信息</t>
+    </r>
+  </si>
+  <si>
+    <t>│   │               │   ├── PropertyService.java</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.5"/>
         <color rgb="FF404040"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>更新用户信息</t>
-    </r>
-  </si>
-  <si>
-    <t>│   │               │   ├── PropertyService.java</t>
-  </si>
-  <si>
-    <r>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">/api/users/disable: </t>
     </r>
     <r>
@@ -2805,12 +2823,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>git commit -m "</t>
     </r>
     <r>
@@ -4904,8 +4916,8 @@
   <sheetPr/>
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1"/>
@@ -7455,7 +7467,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bc24b071-bfd4-44ce-a85d-01d50ca0b464}</x14:id>
+          <x14:id>{6081585b-e5ec-4078-a298-4798c133ede6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7466,7 +7478,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bc24b071-bfd4-44ce-a85d-01d50ca0b464}">
+          <x14:cfRule type="dataBar" id="{6081585b-e5ec-4078-a298-4798c133ede6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7489,8 +7501,8 @@
   <sheetPr/>
   <dimension ref="A1:A291"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="17" customHeight="1"/>

--- a/设计与实现 2.0.xlsx
+++ b/设计与实现 2.0.xlsx
@@ -501,18 +501,12 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">/api/users/update: </t>
+    </r>
+    <r>
       <rPr>
         <sz val="9.5"/>
         <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/api/users/update: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF404040"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -524,12 +518,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF404040"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">/api/users/disable: </t>
     </r>
     <r>
@@ -3608,14 +3596,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9.5"/>
+      <color rgb="FF404040"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FF404040"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4917,7 +4905,7 @@
   <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H21" sqref="G20:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1"/>
@@ -7467,7 +7455,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6081585b-e5ec-4078-a298-4798c133ede6}</x14:id>
+          <x14:id>{5a876ce0-9495-4303-94d1-0f817903ba8f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7478,7 +7466,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6081585b-e5ec-4078-a298-4798c133ede6}">
+          <x14:cfRule type="dataBar" id="{5a876ce0-9495-4303-94d1-0f817903ba8f}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/设计与实现 2.0.xlsx
+++ b/设计与实现 2.0.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11950" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="12080" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="毕业设计主题" sheetId="1" r:id="rId1"/>
     <sheet name="后端开发目录" sheetId="3" r:id="rId2"/>
     <sheet name="前端开发目录" sheetId="4" r:id="rId3"/>
     <sheet name="git命令" sheetId="5" r:id="rId4"/>
+    <sheet name="前端开发" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="713">
+  <si>
+    <t>智慧物业管理系统</t>
+  </si>
+  <si>
+    <t>1.系统架构：
+采用Java EE技术栈，系统架构可以是B/S（浏览器/服务器）模式，方便用户通过浏览器访问系统。后端可以使用Spring、Spring MVC、Spirngboot|MyBatis等框架实现业务逻辑和数据处理。
+2.数据库设计：
+使用MySQL等关系型数据库存储系统数据，包括用户信息、物业信息、报修记录、缴费记录等。数据库设计应合理规范，确保数据的完整性和一致性。
+3.功能模块：
+系统应包含用户管理、物业管理、报修管理、缴费管理、公告管理等功能模块。每个功能模块应实现具体的业务逻辑，如用户登录、物业信息查询、报修提交与处理、缴费记录查询等。
+4.界面设计：
+使用HTML、CSS、JavaScript等技术进行前端界面设计，确保界面简洁明了、易于操作。可以采用Vue.js等前端框架提高开发效率和界面交互性。
+5.文档编写：
+毕业生应编写详细的毕业设计文档，包括需求分析、系统设计、实现过程、测试与调试、总结与展望等部分。文档应清晰明了，能够全面反映毕业设计的过程和成果。</t>
+  </si>
   <si>
     <t>property-management-backend/</t>
   </si>
@@ -432,6 +449,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">/api/auth/logout: </t>
     </r>
     <r>
@@ -501,6 +524,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">/api/users/update: </t>
     </r>
     <r>
@@ -518,6 +547,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF404040"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">/api/users/disable: </t>
     </r>
     <r>
@@ -2375,6 +2410,9 @@
     <t>│   │   │   ├── BaseCard.vue  # 卡片组件</t>
   </si>
   <si>
+    <t>后端使用 Maven 管理的 Java 项目，前端使用 Vite 构建的 Vue 3 项目</t>
+  </si>
+  <si>
     <t>│   │   │   ├── BaseButton.vue# 按钮组件</t>
   </si>
   <si>
@@ -2811,6 +2849,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>git commit -m "</t>
     </r>
     <r>
@@ -2881,12 +2925,6 @@
     <t xml:space="preserve"> 推送本地代码到远程仓库</t>
   </si>
   <si>
-    <t>git push origin 分支名（如 master/main）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 首次推送时关联远程分支（避免后续重复输入分支名）</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2894,7 +2932,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">git push -u origin </t>
+      <t xml:space="preserve">git push origin </t>
     </r>
     <r>
       <rPr>
@@ -2903,37 +2941,8 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>分支名</t>
-    </r>
-  </si>
-  <si>
-    <t>三、分支管理核心操作</t>
-  </si>
-  <si>
-    <t>1. 分支基本操作</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 查看本地分支列表（当前分支前有 * 标记）</t>
-  </si>
-  <si>
-    <t>git branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 查看远程分支列表</t>
-  </si>
-  <si>
-    <t>git branch -r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 创建新分支（不切换）</t>
-  </si>
-  <si>
-    <t>git branch 新分支名</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 创建并切换到新分支</t>
-  </si>
-  <si>
+      <t>分支名（如</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2941,7 +2950,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">git checkout -b </t>
+      <t xml:space="preserve"> master/main</t>
     </r>
     <r>
       <rPr>
@@ -2950,6 +2959,76 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 首次推送时关联远程分支（避免后续重复输入分支名）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git push -u origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支名</t>
+    </r>
+  </si>
+  <si>
+    <t>三、分支管理核心操作</t>
+  </si>
+  <si>
+    <t>1. 分支基本操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看本地分支列表（当前分支前有 * 标记）</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看远程分支列表</t>
+  </si>
+  <si>
+    <t>git branch -r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创建新分支（不切换）</t>
+  </si>
+  <si>
+    <t>git branch 新分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创建并切换到新分支</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git checkout -b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新分支名</t>
     </r>
   </si>
@@ -3315,6 +3394,145 @@
   </si>
   <si>
     <t>git commit -m "添加 git LFS 配置"</t>
+  </si>
+  <si>
+    <t>页面整体信息</t>
+  </si>
+  <si>
+    <t>系统名称：阳光小区物业管理系统</t>
+  </si>
+  <si>
+    <t>登录状态：欢迎业主 张先生 登录</t>
+  </si>
+  <si>
+    <t>导航菜单（左侧）</t>
+  </si>
+  <si>
+    <t>包含菜单项：首页、用户管理、费用管理、报修管理、车位管理、通知公告、数据统计</t>
+  </si>
+  <si>
+    <t>用户管理模块（主内容区）</t>
+  </si>
+  <si>
+    <t>搜索栏：输入框提示 “请输入需要查找的用户名”，右侧有 “搜索” 按钮、“退出” 按钮</t>
+  </si>
+  <si>
+    <t>业主信息卡片（2 张）</t>
+  </si>
+  <si>
+    <t>卡片 1（状态：启用）</t>
+  </si>
+  <si>
+    <t>标题：业主信息</t>
+  </si>
+  <si>
+    <t>内容：</t>
+  </si>
+  <si>
+    <t>楼梯：3 号楼 2 单元</t>
+  </si>
+  <si>
+    <t>户主名：张先生</t>
+  </si>
+  <si>
+    <t>密码：********（隐藏显示）</t>
+  </si>
+  <si>
+    <t>电话号码：13800138000</t>
+  </si>
+  <si>
+    <t>操作按钮：“更新”（浅绿色）、“删除”（浅红色 ）</t>
+  </si>
+  <si>
+    <t>卡片 2（状态：禁用）</t>
+  </si>
+  <si>
+    <t>楼梯：5 号楼 1 单元</t>
+  </si>
+  <si>
+    <t>户主名：李女士</t>
+  </si>
+  <si>
+    <t>电话号码：13900139000</t>
+  </si>
+  <si>
+    <t>底部操作按钮：“注册”（绿色 ）、“删除”（红色 ）、“更新”（蓝色 ）</t>
+  </si>
+  <si>
+    <t>待开发提示：待开发功能：更多用户管理选项</t>
+  </si>
+  <si>
+    <t>前端service</t>
+  </si>
+  <si>
+    <t>服务层实现了所有模块的 API 调用</t>
+  </si>
+  <si>
+    <r>
+      <t>服务层设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>每个模块都有独立的服务文件</t>
+  </si>
+  <si>
+    <t>使用 axios 处理 HTTP 请求</t>
+  </si>
+  <si>
+    <t>包含错误处理和请求配置</t>
+  </si>
+  <si>
+    <r>
+      <t>API 设计特点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>遵循 RESTful 风格</t>
+  </si>
+  <si>
+    <t>使用 HTTP 动词表示操作类型</t>
+  </si>
+  <si>
+    <t>使用路径参数标识资源</t>
+  </si>
+  <si>
+    <t>返回统一的数据格式</t>
+  </si>
+  <si>
+    <t>authService.js</t>
+  </si>
+  <si>
+    <t>billService.js</t>
+  </si>
+  <si>
+    <t>noticeService.js</t>
+  </si>
+  <si>
+    <t>propertyService.js</t>
+  </si>
+  <si>
+    <t>repairService.js</t>
+  </si>
+  <si>
+    <t>userService.js</t>
   </si>
 </sst>
 </file>
@@ -3327,7 +3545,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3336,9 +3554,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14.05"/>
       <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -3464,6 +3694,17 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -3832,7 +4073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -4090,6 +4331,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4206,171 +4462,195 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4379,7 +4659,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4388,22 +4668,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4418,19 +4698,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="24">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="24">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4445,46 +4725,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4514,11 +4794,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="22" applyFill="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="22" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="24" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="24" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4885,14 +5171,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="33.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="93.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="225" spans="1:2">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4904,8 +5203,8 @@
   <sheetPr/>
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="H21" sqref="G20:H23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1"/>
@@ -4921,1540 +5220,1540 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:13">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="G1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="K2" s="59" t="s">
         <v>8</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="G3" s="19"/>
+      <c r="J3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="K3" s="62" t="s">
         <v>13</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="63" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="G4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="J4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="K4" s="59" t="s">
         <v>19</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="G5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="J5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="K5" s="62" t="s">
         <v>25</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="63" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="G6" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="J6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="K6" s="59" t="s">
         <v>31</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="G7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="J7" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="K7" s="62" t="s">
         <v>37</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="63" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="G8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="J8" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="K8" s="59" t="s">
         <v>43</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="J9" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="G9" s="19"/>
+      <c r="J9" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="K9" s="62" t="s">
         <v>48</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="63" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="G10" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="J10" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="52" t="s">
+      <c r="K10" s="59" t="s">
         <v>54</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="G11" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="54" t="s">
+      <c r="J11" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="K11" s="62" t="s">
         <v>60</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="63" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="G12" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="J12" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="K12" s="65" t="s">
         <v>66</v>
       </c>
+      <c r="L12" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>68</v>
+      <c r="A13" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
       <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
       <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
       <c r="A25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
       <c r="A26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
       <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:7">
       <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:7">
       <c r="A32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="45" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
       <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:7">
       <c r="A34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:7">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:7">
       <c r="A37" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:7">
       <c r="A38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:7">
       <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" customHeight="1" spans="1:7">
       <c r="A40" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:7">
       <c r="A41" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:7">
       <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:7">
       <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>118</v>
+        <v>40</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:7">
       <c r="A44" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="11"/>
+        <v>121</v>
+      </c>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" customHeight="1" spans="1:7">
       <c r="A45" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:7">
       <c r="A46" t="s">
-        <v>122</v>
-      </c>
-      <c r="G46" s="44" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:7">
       <c r="A47" t="s">
-        <v>124</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:7">
       <c r="A48" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="42" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:7">
       <c r="A49" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" customHeight="1" spans="1:7">
       <c r="A50" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:7">
       <c r="A51" t="s">
-        <v>131</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:7">
       <c r="A52" t="s">
-        <v>133</v>
-      </c>
-      <c r="G52" s="44" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:7">
       <c r="A53" t="s">
-        <v>135</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:7">
       <c r="A54" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:7">
       <c r="A55" t="s">
-        <v>139</v>
-      </c>
-      <c r="G55" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="G55" s="19"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="46" t="s">
-        <v>140</v>
+        <v>40</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:7">
-      <c r="A57" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="G57" s="46" t="s">
+      <c r="A57" s="37" t="s">
         <v>143</v>
       </c>
+      <c r="D57" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="46" t="s">
+      <c r="A58" s="37" t="s">
         <v>146</v>
       </c>
+      <c r="D58" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="54" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="11" t="s">
+      <c r="A59" s="37" t="s">
         <v>149</v>
       </c>
+      <c r="D59" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="G60" s="11"/>
+      <c r="A60" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="G61" s="46" t="s">
+      <c r="A61" s="37" t="s">
         <v>154</v>
       </c>
+      <c r="D61" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="46" t="s">
+      <c r="A62" s="37" t="s">
         <v>157</v>
       </c>
+      <c r="D62" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" s="54" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="G63" s="46" t="s">
+      <c r="A63" s="37" t="s">
         <v>160</v>
       </c>
+      <c r="D63" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="G64" s="11" t="s">
+      <c r="A64" s="37" t="s">
         <v>163</v>
       </c>
+      <c r="D64" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="G65" s="11"/>
+      <c r="A65" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="G66" s="46" t="s">
+      <c r="A66" s="37" t="s">
         <v>168</v>
       </c>
+      <c r="D66" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66" s="54" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="G67" s="46" t="s">
+      <c r="A67" s="37" t="s">
         <v>171</v>
       </c>
+      <c r="D67" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="G68" s="46" t="s">
+      <c r="A68" s="37" t="s">
         <v>174</v>
       </c>
+      <c r="D68" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="G69" s="11" t="s">
+      <c r="A69" s="37" t="s">
         <v>177</v>
       </c>
+      <c r="D69" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="G70" s="11"/>
+      <c r="A70" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="G71" s="46" t="s">
+      <c r="A71" s="68" t="s">
         <v>182</v>
       </c>
+      <c r="D71" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="D72" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="G72" s="46" t="s">
+      <c r="A72" s="37" t="s">
         <v>185</v>
       </c>
+      <c r="D72" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="G73" s="46" t="s">
+      <c r="A73" s="37" t="s">
         <v>188</v>
       </c>
+      <c r="D73" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="G74" s="11" t="s">
+      <c r="A74" s="37" t="s">
         <v>191</v>
       </c>
+      <c r="D74" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="G75" s="11"/>
+      <c r="A75" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="G75" s="19"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D76" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="G76" s="46" t="s">
+      <c r="A76" s="37" t="s">
         <v>196</v>
       </c>
+      <c r="D76" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="G76" s="54" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D77" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="G77" s="46" t="s">
+      <c r="A77" s="37" t="s">
         <v>199</v>
       </c>
+      <c r="D77" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="54" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="G78" s="46" t="s">
+      <c r="A78" s="37" t="s">
         <v>202</v>
       </c>
+      <c r="D78" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="G78" s="54" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="G79" s="38" t="s">
+      <c r="A79" s="37" t="s">
         <v>205</v>
+      </c>
+      <c r="D79" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:7">
       <c r="A80" t="s">
-        <v>38</v>
-      </c>
-      <c r="D80" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>207</v>
+        <v>40</v>
+      </c>
+      <c r="D80" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:7">
       <c r="A81" t="s">
-        <v>208</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="G81" s="11"/>
+        <v>210</v>
+      </c>
+      <c r="D81" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="G81" s="19"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
       <c r="A82" t="s">
-        <v>210</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="G82" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="D82" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="G82" s="47" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:7">
       <c r="A83" t="s">
-        <v>212</v>
-      </c>
-      <c r="D83" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="G83" s="39" t="s">
         <v>214</v>
+      </c>
+      <c r="D83" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="G83" s="47" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:7">
       <c r="A84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D84" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="G84" s="11" t="s">
         <v>217</v>
+      </c>
+      <c r="D84" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:7">
       <c r="A85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="G85" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="G85" s="19"/>
     </row>
     <row r="86" customHeight="1" spans="1:7">
       <c r="A86" t="s">
-        <v>219</v>
-      </c>
-      <c r="D86" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="G86" s="39" t="s">
         <v>221</v>
+      </c>
+      <c r="D86" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="G86" s="47" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:7">
       <c r="A87" t="s">
-        <v>222</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="G87" s="39" t="s">
         <v>224</v>
+      </c>
+      <c r="D87" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="G87" s="47" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:7">
       <c r="A88" t="s">
-        <v>225</v>
-      </c>
-      <c r="D88" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="G88" s="39" t="s">
         <v>227</v>
+      </c>
+      <c r="D88" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="G88" s="47" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:7">
       <c r="A89" t="s">
-        <v>228</v>
-      </c>
-      <c r="G89" s="38" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="G89" s="46" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:7">
       <c r="A90" t="s">
-        <v>230</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:7">
       <c r="A91" t="s">
-        <v>232</v>
-      </c>
-      <c r="G91" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="G91" s="19"/>
     </row>
     <row r="92" customHeight="1" spans="1:7">
       <c r="A92" t="s">
-        <v>38</v>
-      </c>
-      <c r="G92" s="39" t="s">
-        <v>233</v>
+        <v>40</v>
+      </c>
+      <c r="G92" s="47" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:7">
       <c r="A93" t="s">
-        <v>234</v>
-      </c>
-      <c r="G93" s="39" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="G93" s="47" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:7">
       <c r="A94" t="s">
-        <v>236</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="G94" s="19" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:7">
       <c r="A95" t="s">
-        <v>238</v>
-      </c>
-      <c r="G95" s="11"/>
+        <v>240</v>
+      </c>
+      <c r="G95" s="19"/>
     </row>
     <row r="96" customHeight="1" spans="1:7">
       <c r="A96" t="s">
-        <v>167</v>
-      </c>
-      <c r="G96" s="43" t="s">
-        <v>239</v>
+        <v>169</v>
+      </c>
+      <c r="G96" s="51" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:7">
       <c r="A97" t="s">
-        <v>240</v>
-      </c>
-      <c r="G97" s="43" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="G97" s="51" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:7">
       <c r="A98" t="s">
-        <v>242</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:7">
       <c r="A99" t="s">
-        <v>244</v>
-      </c>
-      <c r="G99" s="11"/>
+        <v>246</v>
+      </c>
+      <c r="G99" s="19"/>
     </row>
     <row r="100" customHeight="1" spans="1:7">
       <c r="A100" t="s">
-        <v>245</v>
-      </c>
-      <c r="G100" s="39" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="G100" s="47" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:7">
       <c r="A101" t="s">
-        <v>247</v>
-      </c>
-      <c r="G101" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="G101" s="46" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:7">
       <c r="A102" t="s">
-        <v>249</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:7">
       <c r="A103" t="s">
-        <v>251</v>
-      </c>
-      <c r="G103" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="G103" s="19"/>
     </row>
     <row r="104" customHeight="1" spans="1:7">
       <c r="A104" t="s">
-        <v>252</v>
-      </c>
-      <c r="G104" s="39" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="G104" s="47" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:7">
       <c r="A105" t="s">
-        <v>254</v>
-      </c>
-      <c r="G105" s="39" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="G105" s="47" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:7">
       <c r="A106" t="s">
-        <v>256</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:7">
       <c r="A107" t="s">
-        <v>251</v>
-      </c>
-      <c r="G107" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="G107" s="19"/>
     </row>
     <row r="108" customHeight="1" spans="1:7">
       <c r="A108" t="s">
-        <v>258</v>
-      </c>
-      <c r="G108" s="39" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="G108" s="47" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:7">
       <c r="A109" t="s">
-        <v>260</v>
-      </c>
-      <c r="G109" s="39" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="G109" s="47" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:7">
       <c r="A110" t="s">
-        <v>262</v>
-      </c>
-      <c r="G110" s="39" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="G110" s="47" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:7">
       <c r="A111" t="s">
-        <v>264</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:7">
       <c r="A112" t="s">
-        <v>266</v>
-      </c>
-      <c r="G112" s="11"/>
+        <v>268</v>
+      </c>
+      <c r="G112" s="19"/>
     </row>
     <row r="113" customHeight="1" spans="1:7">
       <c r="A113" t="s">
-        <v>267</v>
-      </c>
-      <c r="G113" s="39" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="G113" s="47" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:7">
       <c r="A114" t="s">
-        <v>269</v>
-      </c>
-      <c r="G114" s="39" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="G114" s="47" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:7">
       <c r="A115" t="s">
-        <v>271</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:7">
       <c r="A116" t="s">
-        <v>273</v>
-      </c>
-      <c r="G116" s="11"/>
+        <v>275</v>
+      </c>
+      <c r="G116" s="19"/>
     </row>
     <row r="117" customHeight="1" spans="1:7">
       <c r="A117" t="s">
-        <v>274</v>
-      </c>
-      <c r="G117" s="39" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="G117" s="47" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:7">
       <c r="A118" t="s">
-        <v>276</v>
-      </c>
-      <c r="G118" s="39" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="G118" s="47" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:7">
       <c r="A119" t="s">
-        <v>278</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:7">
       <c r="A120" t="s">
-        <v>167</v>
-      </c>
-      <c r="G120" s="11"/>
+        <v>169</v>
+      </c>
+      <c r="G120" s="19"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
       <c r="A121" t="s">
-        <v>280</v>
-      </c>
-      <c r="G121" s="39" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="G121" s="47" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:7">
       <c r="A122" t="s">
-        <v>193</v>
-      </c>
-      <c r="G122" s="39" t="s">
-        <v>282</v>
+        <v>195</v>
+      </c>
+      <c r="G122" s="47" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:7">
       <c r="A123" t="s">
-        <v>283</v>
-      </c>
-      <c r="G123" s="38" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="G123" s="46" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:7">
       <c r="A124" t="s">
-        <v>285</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="G124" s="19" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="1:7">
       <c r="A125" t="s">
-        <v>287</v>
-      </c>
-      <c r="G125" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="G125" s="19"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
       <c r="A126" t="s">
-        <v>288</v>
-      </c>
-      <c r="G126" s="39" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="G126" s="47" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:7">
       <c r="A127" t="s">
-        <v>290</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:7">
       <c r="A128" t="s">
-        <v>292</v>
-      </c>
-      <c r="G128" s="11"/>
+        <v>294</v>
+      </c>
+      <c r="G128" s="19"/>
     </row>
     <row r="129" customHeight="1" spans="1:7">
       <c r="A129" t="s">
+        <v>295</v>
+      </c>
+      <c r="G129" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="7:7">
+      <c r="G130" s="47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="7:7">
+      <c r="G131" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="7:7">
+      <c r="G132" s="19"/>
+    </row>
+    <row r="133" customHeight="1" spans="7:7">
+      <c r="G133" s="47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="7:7">
+      <c r="G134" s="47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="7:7">
+      <c r="G135" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="7:7">
+      <c r="G136" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="7:7">
+      <c r="G137" s="19"/>
+    </row>
+    <row r="138" customHeight="1" spans="7:7">
+      <c r="G138" s="47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="7:7">
+      <c r="G139" s="47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="7:7">
+      <c r="G140" s="47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="7:7">
+      <c r="G141" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="7:7">
+      <c r="G142" s="19"/>
+    </row>
+    <row r="143" customHeight="1" spans="7:7">
+      <c r="G143" s="47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="7:7">
+      <c r="G144" s="47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="7:7">
+      <c r="G145" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="7:7">
+      <c r="G146" s="19"/>
+    </row>
+    <row r="147" customHeight="1" spans="7:7">
+      <c r="G147" s="47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="7:7">
+      <c r="G148" s="47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="7:7">
+      <c r="G149" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="7:7">
+      <c r="G150" s="19"/>
+    </row>
+    <row r="151" customHeight="1" spans="7:7">
+      <c r="G151" s="47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="7:7">
+      <c r="G152" s="47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="7:7">
+      <c r="G153" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="7:7">
+      <c r="G154" s="19"/>
+    </row>
+    <row r="155" customHeight="1" spans="7:7">
+      <c r="G155" s="47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="7:7">
+      <c r="G156" s="47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="7:7">
+      <c r="G157" s="19"/>
+    </row>
+    <row r="158" customHeight="1" spans="7:7">
+      <c r="G158" s="47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="7:7">
+      <c r="G159" s="47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="7:7">
+      <c r="G160" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="7:7">
+      <c r="G161" s="19"/>
+    </row>
+    <row r="162" customHeight="1" spans="7:7">
+      <c r="G162" s="47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="7:7">
+      <c r="G163" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="7:7">
+      <c r="G164" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="7:7">
+      <c r="G165" s="19"/>
+    </row>
+    <row r="166" customHeight="1" spans="7:7">
+      <c r="G166" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="7:7">
+      <c r="G167" s="47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="7:7">
+      <c r="G168" s="46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="7:7">
+      <c r="G169" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="7:7">
+      <c r="G170" s="19"/>
+    </row>
+    <row r="171" customHeight="1" spans="7:7">
+      <c r="G171" s="47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="7:7">
+      <c r="G172" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="G129" s="39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="130" customHeight="1" spans="7:7">
-      <c r="G130" s="39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="131" customHeight="1" spans="7:7">
-      <c r="G131" s="11" t="s">
+    </row>
+    <row r="173" customHeight="1" spans="7:7">
+      <c r="G173" s="19"/>
+    </row>
+    <row r="174" customHeight="1" spans="7:7">
+      <c r="G174" s="47" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="7:7">
-      <c r="G132" s="11"/>
-    </row>
-    <row r="133" customHeight="1" spans="7:7">
-      <c r="G133" s="39" t="s">
+    <row r="175" customHeight="1" spans="7:7">
+      <c r="G175" s="47" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="7:7">
-      <c r="G134" s="39" t="s">
+    <row r="176" customHeight="1" spans="7:7">
+      <c r="G176" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="7:7">
-      <c r="G135" s="38" t="s">
+    <row r="177" customHeight="1" spans="7:7">
+      <c r="G177" s="19"/>
+    </row>
+    <row r="178" customHeight="1" spans="7:7">
+      <c r="G178" s="47" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="7:7">
-      <c r="G136" s="11" t="s">
+    <row r="179" customHeight="1" spans="7:7">
+      <c r="G179" s="47" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="7:7">
-      <c r="G137" s="11"/>
-    </row>
-    <row r="138" customHeight="1" spans="7:7">
-      <c r="G138" s="39" t="s">
+    <row r="180" customHeight="1" spans="7:7">
+      <c r="G180" s="46" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="7:7">
-      <c r="G139" s="39" t="s">
+    <row r="181" customHeight="1" spans="7:7">
+      <c r="G181" s="19" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="7:7">
-      <c r="G140" s="39" t="s">
+    <row r="182" customHeight="1" spans="7:7">
+      <c r="G182" s="19"/>
+    </row>
+    <row r="183" customHeight="1" spans="7:7">
+      <c r="G183" s="47" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="7:7">
-      <c r="G141" s="11" t="s">
+    <row r="184" customHeight="1" spans="7:7">
+      <c r="G184" s="47" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="7:7">
-      <c r="G142" s="11"/>
-    </row>
-    <row r="143" customHeight="1" spans="7:7">
-      <c r="G143" s="39" t="s">
+    <row r="185" customHeight="1" spans="7:7">
+      <c r="G185" s="47" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="7:7">
-      <c r="G144" s="39" t="s">
+    <row r="186" customHeight="1" spans="7:7">
+      <c r="G186" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="7:7">
-      <c r="G145" s="11" t="s">
+    <row r="187" customHeight="1" spans="7:7">
+      <c r="G187" s="19"/>
+    </row>
+    <row r="188" customHeight="1" spans="7:7">
+      <c r="G188" s="47" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="7:7">
-      <c r="G146" s="11"/>
-    </row>
-    <row r="147" customHeight="1" spans="7:7">
-      <c r="G147" s="39" t="s">
+    <row r="189" customHeight="1" spans="7:7">
+      <c r="G189" s="47" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="7:7">
-      <c r="G148" s="39" t="s">
+    <row r="190" customHeight="1" spans="7:7">
+      <c r="G190" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="7:7">
-      <c r="G149" s="11" t="s">
+    <row r="191" customHeight="1" spans="7:7">
+      <c r="G191" s="19"/>
+    </row>
+    <row r="192" customHeight="1" spans="7:7">
+      <c r="G192" s="47" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="7:7">
-      <c r="G150" s="11"/>
-    </row>
-    <row r="151" customHeight="1" spans="7:7">
-      <c r="G151" s="39" t="s">
+    <row r="193" customHeight="1" spans="7:7">
+      <c r="G193" s="47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="7:7">
-      <c r="G152" s="39" t="s">
+    <row r="194" customHeight="1" spans="7:7">
+      <c r="G194" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="7:7">
-      <c r="G153" s="11" t="s">
+    <row r="195" customHeight="1" spans="7:7">
+      <c r="G195" s="19"/>
+    </row>
+    <row r="196" customHeight="1" spans="7:7">
+      <c r="G196" s="47" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="7:7">
-      <c r="G154" s="11"/>
-    </row>
-    <row r="155" customHeight="1" spans="7:7">
-      <c r="G155" s="39" t="s">
+    <row r="197" customHeight="1" spans="7:7">
+      <c r="G197" s="47" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="7:7">
-      <c r="G156" s="39" t="s">
+    <row r="198" customHeight="1" spans="7:7">
+      <c r="G198" s="19" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="7:7">
-      <c r="G157" s="11"/>
-    </row>
-    <row r="158" customHeight="1" spans="7:7">
-      <c r="G158" s="39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="159" customHeight="1" spans="7:7">
-      <c r="G159" s="39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="160" customHeight="1" spans="7:7">
-      <c r="G160" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="161" customHeight="1" spans="7:7">
-      <c r="G161" s="11"/>
-    </row>
-    <row r="162" customHeight="1" spans="7:7">
-      <c r="G162" s="39" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="163" customHeight="1" spans="7:7">
-      <c r="G163" s="39" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="164" customHeight="1" spans="7:7">
-      <c r="G164" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="165" customHeight="1" spans="7:7">
-      <c r="G165" s="11"/>
-    </row>
-    <row r="166" customHeight="1" spans="7:7">
-      <c r="G166" s="39" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="167" customHeight="1" spans="7:7">
-      <c r="G167" s="39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="168" customHeight="1" spans="7:7">
-      <c r="G168" s="38" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="169" customHeight="1" spans="7:7">
-      <c r="G169" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="170" customHeight="1" spans="7:7">
-      <c r="G170" s="11"/>
-    </row>
-    <row r="171" customHeight="1" spans="7:7">
-      <c r="G171" s="39" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="172" customHeight="1" spans="7:7">
-      <c r="G172" s="11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="173" customHeight="1" spans="7:7">
-      <c r="G173" s="11"/>
-    </row>
-    <row r="174" customHeight="1" spans="7:7">
-      <c r="G174" s="39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="175" customHeight="1" spans="7:7">
-      <c r="G175" s="39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="176" customHeight="1" spans="7:7">
-      <c r="G176" s="11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="177" customHeight="1" spans="7:7">
-      <c r="G177" s="11"/>
-    </row>
-    <row r="178" customHeight="1" spans="7:7">
-      <c r="G178" s="39" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="179" customHeight="1" spans="7:7">
-      <c r="G179" s="39" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="180" customHeight="1" spans="7:7">
-      <c r="G180" s="38" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="181" customHeight="1" spans="7:7">
-      <c r="G181" s="11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="182" customHeight="1" spans="7:7">
-      <c r="G182" s="11"/>
-    </row>
-    <row r="183" customHeight="1" spans="7:7">
-      <c r="G183" s="39" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="184" customHeight="1" spans="7:7">
-      <c r="G184" s="39" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="185" customHeight="1" spans="7:7">
-      <c r="G185" s="39" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="186" customHeight="1" spans="7:7">
-      <c r="G186" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="187" customHeight="1" spans="7:7">
-      <c r="G187" s="11"/>
-    </row>
-    <row r="188" customHeight="1" spans="7:7">
-      <c r="G188" s="39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="189" customHeight="1" spans="7:7">
-      <c r="G189" s="39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="190" customHeight="1" spans="7:7">
-      <c r="G190" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="191" customHeight="1" spans="7:7">
-      <c r="G191" s="11"/>
-    </row>
-    <row r="192" customHeight="1" spans="7:7">
-      <c r="G192" s="39" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="193" customHeight="1" spans="7:7">
-      <c r="G193" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="194" customHeight="1" spans="7:7">
-      <c r="G194" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="195" customHeight="1" spans="7:7">
-      <c r="G195" s="11"/>
-    </row>
-    <row r="196" customHeight="1" spans="7:7">
-      <c r="G196" s="39" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="197" customHeight="1" spans="7:7">
-      <c r="G197" s="39" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="198" customHeight="1" spans="7:7">
-      <c r="G198" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
     <row r="199" customHeight="1" spans="7:7">
-      <c r="G199" s="11"/>
+      <c r="G199" s="19"/>
     </row>
     <row r="200" customHeight="1" spans="7:7">
-      <c r="G200" s="39" t="s">
-        <v>314</v>
+      <c r="G200" s="47" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="7:7">
-      <c r="G201" s="39" t="s">
-        <v>315</v>
+      <c r="G201" s="47" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6472,8 +6771,8 @@
   <sheetPr/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -6490,956 +6789,959 @@
     <col min="10" max="10" width="21.2090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="25" customHeight="1" spans="1:10">
-      <c r="A1" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+    <row r="1" s="16" customFormat="1" ht="25" customHeight="1" spans="1:10">
+      <c r="A1" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="H2" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="E3" s="22" t="s">
         <v>323</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="E4" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="G4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>328</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="E5" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="G5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>333</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="C6" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="E6" s="22" t="s">
         <v>338</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="E7" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="C7" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="E7" s="22" t="s">
         <v>343</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
       <c r="A8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="E8" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="C8" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="E8" s="19" t="s">
         <v>348</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
       <c r="A9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="E9" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="16" t="s">
+      <c r="C9" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="E9" s="22" t="s">
         <v>353</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
       <c r="A10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="C10" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>357</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:10">
       <c r="A11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="E11" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="C11" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="E11" s="30" t="s">
         <v>362</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:10">
       <c r="A12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E12" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="C12" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="E12" s="19" t="s">
         <v>367</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:10">
       <c r="A13" t="s">
-        <v>368</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="35"/>
+        <v>370</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>370</v>
+        <v>169</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" t="s">
-        <v>371</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>374</v>
       </c>
       <c r="E15" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
       <c r="A21" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
       <c r="A22" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="E22" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
       <c r="A24" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:1">
       <c r="A25" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:1">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">
       <c r="A28" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:1">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:1">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:1">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:1">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:1">
       <c r="A35" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:1">
       <c r="A36" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:1">
       <c r="A37" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:1">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:1">
       <c r="A39" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:1">
       <c r="A41" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:1">
       <c r="A42" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:1">
       <c r="A43" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:1">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:1">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
       <c r="A46" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:1">
       <c r="A47" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:3">
       <c r="A48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>329</v>
+        <v>169</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
-      <c r="A49" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>316</v>
+      <c r="A49" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
-      <c r="A50" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>403</v>
+      <c r="A50" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
-      <c r="A51" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>405</v>
+      <c r="A51" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
-      <c r="A52" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>407</v>
+      <c r="A52" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
-      <c r="A53" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>409</v>
+      <c r="A53" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
       <c r="A54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>410</v>
+        <v>169</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
-      <c r="A55" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>412</v>
+      <c r="A55" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:3">
-      <c r="A56" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>414</v>
+      <c r="A56" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:3">
       <c r="A57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>415</v>
+        <v>169</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
-      <c r="A58" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>417</v>
+      <c r="A58" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
-      <c r="A59" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>167</v>
+      <c r="A59" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
-      <c r="A60" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>420</v>
+      <c r="A60" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
-      <c r="A61" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>422</v>
+      <c r="A61" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
-      <c r="A62" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>424</v>
+      <c r="A62" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
-      <c r="A63" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>426</v>
+      <c r="A63" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:3">
       <c r="A64" t="s">
-        <v>167</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>427</v>
+        <v>169</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:3">
-      <c r="A65" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>429</v>
+      <c r="A65" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:3">
-      <c r="A66" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>431</v>
+      <c r="A66" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:3">
-      <c r="A67" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>433</v>
+      <c r="A67" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:3">
-      <c r="A68" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>435</v>
+      <c r="A68" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:3">
-      <c r="A69" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>167</v>
+      <c r="A69" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
-      <c r="A70" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>438</v>
+      <c r="A70" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:3">
       <c r="A71" t="s">
-        <v>167</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>439</v>
+        <v>169</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:3">
-      <c r="A72" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>441</v>
+      <c r="A72" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:3">
-      <c r="A73" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>443</v>
+      <c r="A73" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:3">
-      <c r="A74" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>445</v>
+      <c r="A74" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
-      <c r="A75" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>447</v>
+      <c r="A75" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:3">
-      <c r="A76" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>448</v>
+      <c r="A76" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:3">
       <c r="A77" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>449</v>
+        <v>169</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:3">
       <c r="A78" t="s">
-        <v>450</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>167</v>
+        <v>453</v>
+      </c>
+      <c r="C78" s="44" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:3">
       <c r="A79" t="s">
-        <v>451</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>452</v>
+        <v>454</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:3">
       <c r="A80" t="s">
-        <v>453</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>454</v>
+        <v>456</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:3">
       <c r="A81" t="s">
-        <v>455</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>456</v>
+        <v>458</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:3">
       <c r="A82" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>457</v>
+        <v>253</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
       <c r="A83" t="s">
-        <v>458</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>459</v>
+        <v>461</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:3">
       <c r="A84" t="s">
-        <v>460</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>461</v>
+        <v>463</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:3">
       <c r="A85" t="s">
-        <v>251</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>462</v>
+        <v>253</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:3">
       <c r="A86" t="s">
-        <v>463</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>464</v>
+        <v>466</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:3">
       <c r="A87" t="s">
-        <v>465</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>167</v>
+        <v>468</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:3">
       <c r="A88" t="s">
-        <v>466</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>467</v>
+        <v>469</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:3">
       <c r="A89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>468</v>
+        <v>253</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" t="s">
-        <v>469</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>470</v>
+        <v>472</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" t="s">
-        <v>471</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:3">
       <c r="A92" t="s">
-        <v>473</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:3">
       <c r="A93" t="s">
-        <v>475</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>476</v>
+        <v>478</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:3">
       <c r="A94" t="s">
-        <v>251</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>477</v>
+        <v>253</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:3">
       <c r="A95" t="s">
-        <v>478</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:3">
       <c r="A96" t="s">
-        <v>480</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>481</v>
+        <v>483</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:1">
       <c r="A97" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:1">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:1">
       <c r="A99" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:1">
       <c r="A100" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:1">
       <c r="A101" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:1">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:1">
       <c r="A103" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:1">
       <c r="A104" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:1">
       <c r="A105" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:1">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:1">
       <c r="A107" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:1">
       <c r="A108" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:1">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:1">
       <c r="A110" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:1">
       <c r="A111" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:1">
       <c r="A112" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:1">
       <c r="A113" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:1">
       <c r="A114" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:1">
       <c r="A115" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:1">
       <c r="A116" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:1">
       <c r="A117" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -7455,7 +7757,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a876ce0-9495-4303-94d1-0f817903ba8f}</x14:id>
+          <x14:id>{82bdb48b-ef8d-46d0-9fcc-f0808c4ff140}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7466,7 +7768,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a876ce0-9495-4303-94d1-0f817903ba8f}">
+          <x14:cfRule type="dataBar" id="{82bdb48b-ef8d-46d0-9fcc-f0808c4ff140}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7489,8 +7791,8 @@
   <sheetPr/>
   <dimension ref="A1:A291"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="17" customHeight="1"/>
@@ -7499,944 +7801,944 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>499</v>
+      <c r="A1" s="4" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="2"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>500</v>
+      <c r="A4" s="11" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>501</v>
+      <c r="A5" s="12" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>502</v>
+      <c r="A7" s="11" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>503</v>
+      <c r="A8" s="12" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>504</v>
+      <c r="A10" s="11" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>505</v>
+      <c r="A11" s="12" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>506</v>
+      <c r="A13" s="13" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>507</v>
+      <c r="A15" s="4" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="10"/>
     </row>
     <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>508</v>
+      <c r="A18" s="12" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>509</v>
+      <c r="A19" s="12" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>510</v>
+      <c r="A21" s="11" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>511</v>
+      <c r="A22" s="12" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>512</v>
+      <c r="A24" s="4" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="2"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>513</v>
+      <c r="A27" s="11" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:1">
+      <c r="A30" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:1">
+      <c r="A31" s="12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:1">
+      <c r="A33" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:1">
+      <c r="A34" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:1">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:1">
+      <c r="A39" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:1">
+      <c r="A40" s="12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:1">
+      <c r="A42" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:1">
+      <c r="A43" s="12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:1">
+      <c r="A45" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:1">
+      <c r="A46" s="12" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:1">
-      <c r="A34" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:1">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:1">
-      <c r="A39" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:1">
-      <c r="A43" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
     <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>525</v>
+      <c r="A48" s="11" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:1">
+      <c r="A52" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:1">
+      <c r="A56" s="10"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:1">
+      <c r="A57" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:1">
+      <c r="A58" s="12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:1">
+      <c r="A60" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:1">
+      <c r="A61" s="12" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:1">
+      <c r="A63" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:1">
+      <c r="A69" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:1">
+      <c r="A72" s="13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:1">
+      <c r="A74" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:1">
+      <c r="A76" s="10"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:1">
+      <c r="A77" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:1">
+      <c r="A78" s="12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:1">
+      <c r="A80" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:1">
+      <c r="A81" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:1">
+      <c r="A83" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:1">
+      <c r="A84" s="12" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:1">
+      <c r="A86" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:1">
+      <c r="A87" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:1">
+      <c r="A89" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:1">
+      <c r="A90" s="12" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:1">
+      <c r="A92" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:1">
+      <c r="A93" s="12" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:1">
+      <c r="A95" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:1">
+      <c r="A96" s="12" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:1">
+      <c r="A98" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:1">
+      <c r="A99" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:1">
+      <c r="A101" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:1">
+      <c r="A103" s="10"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:1">
+      <c r="A104" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:1">
+      <c r="A106" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:1">
+      <c r="A107" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:1">
+      <c r="A109" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:1">
+      <c r="A110" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:1">
+      <c r="A112" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:1">
+      <c r="A113" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:1">
+      <c r="A115" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:1">
+      <c r="A116" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:1">
+      <c r="A118" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:1">
+      <c r="A119" s="12" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:1">
-      <c r="A52" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:1">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:1">
-      <c r="A57" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:1">
-      <c r="A58" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:1">
-      <c r="A60" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:1">
-      <c r="A61" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:1">
-      <c r="A63" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:1">
-      <c r="A64" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:1">
-      <c r="A66" s="3" t="s">
+    <row r="120" customHeight="1" spans="1:1">
+      <c r="A120" s="12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:1">
+      <c r="A122" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:1">
+      <c r="A123" s="12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:1">
+      <c r="A125" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:1">
+      <c r="A127" s="10"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:1">
+      <c r="A128" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:1">
+      <c r="A129" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:1">
+      <c r="A130" s="11" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:1">
+      <c r="A131" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:1">
+      <c r="A132" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:1">
+      <c r="A133" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:1">
+      <c r="A134" s="11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:1">
+      <c r="A136" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:1">
+      <c r="A137" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:1">
+      <c r="A138" s="11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:1">
+      <c r="A139" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:1">
+      <c r="A140" s="12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:1">
+      <c r="A141" s="12" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:1">
+      <c r="A143" s="13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:1">
+      <c r="A145" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:1">
+      <c r="A147" s="10"/>
+    </row>
+    <row r="148" customHeight="1" spans="1:1">
+      <c r="A148" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:1">
+      <c r="A149" s="12" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:1">
+      <c r="A151" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:1">
+      <c r="A152" s="12" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:1">
+      <c r="A154" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:1">
+      <c r="A155" s="12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:1">
+      <c r="A157" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:1">
+      <c r="A158" s="12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:1">
+      <c r="A160" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:1">
+      <c r="A162" s="10"/>
+    </row>
+    <row r="163" customHeight="1" spans="1:1">
+      <c r="A163" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:1">
+      <c r="A164" s="12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:1">
+      <c r="A166" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:1">
+      <c r="A167" s="12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:1">
+      <c r="A169" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:1">
+      <c r="A170" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:1">
+      <c r="A172" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:1">
+      <c r="A173" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:1">
+      <c r="A175" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:1">
+      <c r="A176" s="12" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:1">
+      <c r="A178" s="13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:1">
+      <c r="A180" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:1">
+      <c r="A182" s="10"/>
+    </row>
+    <row r="183" customHeight="1" spans="1:1">
+      <c r="A183" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:1">
+      <c r="A184" s="12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:1">
+      <c r="A186" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:1">
+      <c r="A187" s="12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:1">
+      <c r="A189" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:1">
+      <c r="A190" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="1:1">
+      <c r="A192" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="1:1">
+      <c r="A193" s="12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="1:1">
+      <c r="A195" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="1:1">
+      <c r="A197" s="10"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:1">
+      <c r="A198" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:1">
+      <c r="A199" s="12" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="1:1">
+      <c r="A201" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="1:1">
+      <c r="A202" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="1:1">
+      <c r="A204" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="1:1">
+      <c r="A205" s="12" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="1:1">
+      <c r="A207" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="1:1">
+      <c r="A208" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="1:1">
+      <c r="A210" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="211" customHeight="1" spans="1:1">
+      <c r="A211" s="12" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="213" customHeight="1" spans="1:1">
+      <c r="A213" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="1:1">
+      <c r="A214" s="12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="1:1">
+      <c r="A216" s="13" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="218" customHeight="1" spans="1:1">
+      <c r="A218" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="1:1">
+      <c r="A220" s="10"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:1">
+      <c r="A221" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="1:1">
+      <c r="A222" s="12" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="224" customHeight="1" spans="1:1">
+      <c r="A224" s="11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="1:1">
+      <c r="A225" s="12" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="1:1">
+      <c r="A227" s="11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="1:1">
+      <c r="A228" s="12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="1:1">
+      <c r="A229" s="12" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="1:1">
+      <c r="A231" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="233" customHeight="1" spans="1:1">
+      <c r="A233" s="10"/>
+    </row>
+    <row r="234" customHeight="1" spans="1:1">
+      <c r="A234" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="235" customHeight="1" spans="1:1">
+      <c r="A235" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="1:1">
+      <c r="A237" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="238" customHeight="1" spans="1:1">
+      <c r="A238" s="12" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="240" customHeight="1" spans="1:1">
+      <c r="A240" s="11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="241" customHeight="1" spans="1:1">
+      <c r="A241" s="12" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="243" customHeight="1" spans="1:1">
+      <c r="A243" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="244" customHeight="1" spans="1:1">
+      <c r="A244" s="12" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="245" customHeight="1" spans="1:1">
+      <c r="A245" s="12" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="1:1">
+      <c r="A247" s="11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="1:1">
+      <c r="A248" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="250" customHeight="1" spans="1:1">
+      <c r="A250" s="13" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="252" customHeight="1" spans="1:1">
+      <c r="A252" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="254" customHeight="1" spans="1:1">
+      <c r="A254" s="10"/>
+    </row>
+    <row r="255" customHeight="1" spans="1:1">
+      <c r="A255" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="256" customHeight="1" spans="1:1">
+      <c r="A256" s="12" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="258" customHeight="1" spans="1:1">
+      <c r="A258" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="1:1">
+      <c r="A259" s="12" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="1:1">
+      <c r="A260" s="12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="1:1">
+      <c r="A262" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="264" customHeight="1" spans="1:1">
+      <c r="A264" s="10"/>
+    </row>
+    <row r="265" customHeight="1" spans="1:1">
+      <c r="A265" s="11" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="266" customHeight="1" spans="1:1">
+      <c r="A266" s="12" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:1">
-      <c r="A67" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:1">
-      <c r="A69" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:1">
-      <c r="A70" s="6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:1">
-      <c r="A72" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:1">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:1">
-      <c r="A77" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:1">
-      <c r="A78" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:1">
-      <c r="A80" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:1">
-      <c r="A81" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:1">
-      <c r="A83" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:1">
-      <c r="A84" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:1">
-      <c r="A86" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:1">
-      <c r="A87" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:1">
-      <c r="A89" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:1">
-      <c r="A90" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:1">
-      <c r="A92" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:1">
-      <c r="A93" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:1">
-      <c r="A95" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:1">
-      <c r="A96" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:1">
-      <c r="A98" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:1">
-      <c r="A99" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:1">
-      <c r="A101" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:1">
-      <c r="A103" s="2"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:1">
-      <c r="A104" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:1">
-      <c r="A106" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:1">
-      <c r="A107" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:1">
-      <c r="A109" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:1">
-      <c r="A110" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:1">
-      <c r="A112" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:1">
-      <c r="A113" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:1">
-      <c r="A115" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:1">
-      <c r="A116" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:1">
-      <c r="A118" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:1">
-      <c r="A119" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:1">
-      <c r="A120" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="122" customHeight="1" spans="1:1">
-      <c r="A122" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="123" customHeight="1" spans="1:1">
-      <c r="A123" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:1">
-      <c r="A125" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="127" customHeight="1" spans="1:1">
-      <c r="A127" s="2"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:1">
-      <c r="A128" s="4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="129" customHeight="1" spans="1:1">
-      <c r="A129" s="3" t="s">
+    <row r="268" customHeight="1" spans="1:1">
+      <c r="A268" s="11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="269" customHeight="1" spans="1:1">
+      <c r="A269" s="12" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="271" customHeight="1" spans="1:1">
+      <c r="A271" s="11" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="272" customHeight="1" spans="1:1">
+      <c r="A272" s="12" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="278" customHeight="1" spans="1:1">
+      <c r="A278" s="15" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="280" customHeight="1" spans="1:1">
+      <c r="A280" s="10"/>
+    </row>
+    <row r="281" customHeight="1" spans="1:1">
+      <c r="A281" s="12" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="282" customHeight="1" spans="1:1">
+      <c r="A282" s="12" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="284" customHeight="1" spans="1:1">
+      <c r="A284" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="285" customHeight="1" spans="1:1">
+      <c r="A285" s="12" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="286" customHeight="1" spans="1:1">
+      <c r="A286" s="12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="288" customHeight="1" spans="1:1">
+      <c r="A288" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="289" customHeight="1" spans="1:1">
+      <c r="A289" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="290" customHeight="1" spans="1:1">
+      <c r="A290" s="12" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="291" customHeight="1" spans="1:1">
+      <c r="A291" s="12" t="s">
         <v>574</v>
-      </c>
-    </row>
-    <row r="130" customHeight="1" spans="1:1">
-      <c r="A130" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="131" customHeight="1" spans="1:1">
-      <c r="A131" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="132" customHeight="1" spans="1:1">
-      <c r="A132" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="133" customHeight="1" spans="1:1">
-      <c r="A133" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="1:1">
-      <c r="A134" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="136" customHeight="1" spans="1:1">
-      <c r="A136" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="137" customHeight="1" spans="1:1">
-      <c r="A137" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="1:1">
-      <c r="A138" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="1:1">
-      <c r="A139" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="1:1">
-      <c r="A140" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="141" customHeight="1" spans="1:1">
-      <c r="A141" s="4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="1:1">
-      <c r="A143" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="145" customHeight="1" spans="1:1">
-      <c r="A145" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="147" customHeight="1" spans="1:1">
-      <c r="A147" s="2"/>
-    </row>
-    <row r="148" customHeight="1" spans="1:1">
-      <c r="A148" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="149" customHeight="1" spans="1:1">
-      <c r="A149" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="1:1">
-      <c r="A151" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="152" customHeight="1" spans="1:1">
-      <c r="A152" s="4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="154" customHeight="1" spans="1:1">
-      <c r="A154" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="155" customHeight="1" spans="1:1">
-      <c r="A155" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="157" customHeight="1" spans="1:1">
-      <c r="A157" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="1:1">
-      <c r="A158" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="160" customHeight="1" spans="1:1">
-      <c r="A160" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="162" customHeight="1" spans="1:1">
-      <c r="A162" s="2"/>
-    </row>
-    <row r="163" customHeight="1" spans="1:1">
-      <c r="A163" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="164" customHeight="1" spans="1:1">
-      <c r="A164" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="166" customHeight="1" spans="1:1">
-      <c r="A166" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="167" customHeight="1" spans="1:1">
-      <c r="A167" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="169" customHeight="1" spans="1:1">
-      <c r="A169" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="170" customHeight="1" spans="1:1">
-      <c r="A170" s="4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="172" customHeight="1" spans="1:1">
-      <c r="A172" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="173" customHeight="1" spans="1:1">
-      <c r="A173" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="175" customHeight="1" spans="1:1">
-      <c r="A175" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="176" customHeight="1" spans="1:1">
-      <c r="A176" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="178" customHeight="1" spans="1:1">
-      <c r="A178" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="180" customHeight="1" spans="1:1">
-      <c r="A180" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="182" customHeight="1" spans="1:1">
-      <c r="A182" s="2"/>
-    </row>
-    <row r="183" customHeight="1" spans="1:1">
-      <c r="A183" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="184" customHeight="1" spans="1:1">
-      <c r="A184" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="186" customHeight="1" spans="1:1">
-      <c r="A186" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="187" customHeight="1" spans="1:1">
-      <c r="A187" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="189" customHeight="1" spans="1:1">
-      <c r="A189" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="190" customHeight="1" spans="1:1">
-      <c r="A190" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="192" customHeight="1" spans="1:1">
-      <c r="A192" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="193" customHeight="1" spans="1:1">
-      <c r="A193" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="195" customHeight="1" spans="1:1">
-      <c r="A195" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="197" customHeight="1" spans="1:1">
-      <c r="A197" s="2"/>
-    </row>
-    <row r="198" customHeight="1" spans="1:1">
-      <c r="A198" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="199" customHeight="1" spans="1:1">
-      <c r="A199" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="201" customHeight="1" spans="1:1">
-      <c r="A201" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="202" customHeight="1" spans="1:1">
-      <c r="A202" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="204" customHeight="1" spans="1:1">
-      <c r="A204" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="205" customHeight="1" spans="1:1">
-      <c r="A205" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="207" customHeight="1" spans="1:1">
-      <c r="A207" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="208" customHeight="1" spans="1:1">
-      <c r="A208" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="210" customHeight="1" spans="1:1">
-      <c r="A210" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="211" customHeight="1" spans="1:1">
-      <c r="A211" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="213" customHeight="1" spans="1:1">
-      <c r="A213" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="214" customHeight="1" spans="1:1">
-      <c r="A214" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="216" customHeight="1" spans="1:1">
-      <c r="A216" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="218" customHeight="1" spans="1:1">
-      <c r="A218" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="220" customHeight="1" spans="1:1">
-      <c r="A220" s="2"/>
-    </row>
-    <row r="221" customHeight="1" spans="1:1">
-      <c r="A221" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="222" customHeight="1" spans="1:1">
-      <c r="A222" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="224" customHeight="1" spans="1:1">
-      <c r="A224" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="225" customHeight="1" spans="1:1">
-      <c r="A225" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="227" customHeight="1" spans="1:1">
-      <c r="A227" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="228" customHeight="1" spans="1:1">
-      <c r="A228" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="229" customHeight="1" spans="1:1">
-      <c r="A229" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="231" customHeight="1" spans="1:1">
-      <c r="A231" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="233" customHeight="1" spans="1:1">
-      <c r="A233" s="2"/>
-    </row>
-    <row r="234" customHeight="1" spans="1:1">
-      <c r="A234" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="235" customHeight="1" spans="1:1">
-      <c r="A235" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="237" customHeight="1" spans="1:1">
-      <c r="A237" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="238" customHeight="1" spans="1:1">
-      <c r="A238" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="240" customHeight="1" spans="1:1">
-      <c r="A240" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="241" customHeight="1" spans="1:1">
-      <c r="A241" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="243" customHeight="1" spans="1:1">
-      <c r="A243" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="244" customHeight="1" spans="1:1">
-      <c r="A244" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="245" customHeight="1" spans="1:1">
-      <c r="A245" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="247" customHeight="1" spans="1:1">
-      <c r="A247" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="248" customHeight="1" spans="1:1">
-      <c r="A248" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="250" customHeight="1" spans="1:1">
-      <c r="A250" s="5" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="252" customHeight="1" spans="1:1">
-      <c r="A252" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="254" customHeight="1" spans="1:1">
-      <c r="A254" s="2"/>
-    </row>
-    <row r="255" customHeight="1" spans="1:1">
-      <c r="A255" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="256" customHeight="1" spans="1:1">
-      <c r="A256" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="258" customHeight="1" spans="1:1">
-      <c r="A258" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="259" customHeight="1" spans="1:1">
-      <c r="A259" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="260" customHeight="1" spans="1:1">
-      <c r="A260" s="4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="262" customHeight="1" spans="1:1">
-      <c r="A262" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="264" customHeight="1" spans="1:1">
-      <c r="A264" s="2"/>
-    </row>
-    <row r="265" customHeight="1" spans="1:1">
-      <c r="A265" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="266" customHeight="1" spans="1:1">
-      <c r="A266" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="268" customHeight="1" spans="1:1">
-      <c r="A268" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="269" customHeight="1" spans="1:1">
-      <c r="A269" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="271" customHeight="1" spans="1:1">
-      <c r="A271" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="272" customHeight="1" spans="1:1">
-      <c r="A272" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="278" customHeight="1" spans="1:1">
-      <c r="A278" s="7" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="280" customHeight="1" spans="1:1">
-      <c r="A280" s="2"/>
-    </row>
-    <row r="281" customHeight="1" spans="1:1">
-      <c r="A281" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="282" customHeight="1" spans="1:1">
-      <c r="A282" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="284" customHeight="1" spans="1:1">
-      <c r="A284" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="285" customHeight="1" spans="1:1">
-      <c r="A285" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="286" customHeight="1" spans="1:1">
-      <c r="A286" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="288" customHeight="1" spans="1:1">
-      <c r="A288" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="289" customHeight="1" spans="1:1">
-      <c r="A289" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="290" customHeight="1" spans="1:1">
-      <c r="A290" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="291" customHeight="1" spans="1:1">
-      <c r="A291" s="4" t="s">
-        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -8444,4 +8746,259 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="96.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.5" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" ht="17.5" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" ht="17.5" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:1">
+      <c r="A8" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" ht="17.5" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12" ht="17.5" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="13" ht="17.5" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" ht="17.5" spans="1:1">
+      <c r="A14" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:1">
+      <c r="A15" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:1">
+      <c r="A16" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" ht="17.5" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" ht="17.5" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" ht="17.5" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" ht="17.5" spans="1:1">
+      <c r="A21" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22" ht="17.5" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="25" ht="17.5" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" ht="17.5" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="28" ht="17.5" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="29" ht="17.5" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="30" ht="17.5" spans="1:1">
+      <c r="A30" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" ht="17.5" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" ht="17.5" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13" ht="17.5" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" ht="17.5" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/设计与实现 2.0.xlsx
+++ b/设计与实现 2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="2"/>
+    <workbookView windowWidth="12220" windowHeight="12080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="毕业设计主题" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="729">
   <si>
     <t>智慧物业管理系统</t>
   </si>
@@ -2398,6 +2398,9 @@
     <t>│   │   │   ├── AppHeader.vue # 顶部导航</t>
   </si>
   <si>
+    <t>安装'@element-plus/icons-vue'</t>
+  </si>
+  <si>
     <t>│   │   │   ├── AppSidebar.vue# 侧边栏</t>
   </si>
   <si>
@@ -3183,7 +3186,36 @@
     <t xml:space="preserve"> 方式二：回退到指定提交并丢弃本地修改</t>
   </si>
   <si>
-    <t>git reset --hard 提交哈希值前7位</t>
+    <r>
+      <t xml:space="preserve">git reset --hard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交哈希值前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> 方式三：回退到上一次提交</t>
@@ -3195,141 +3227,206 @@
     <t xml:space="preserve"> 回退后强制推送到远程仓库（慎用，会覆盖远程历史）</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">git push -f origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支名</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看可回退的版本列表</t>
+  </si>
+  <si>
+    <t>git reflog</t>
+  </si>
+  <si>
+    <t>五、常用辅助命令</t>
+  </si>
+  <si>
+    <t>1. 查看与撤销操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看工作区修改（未添加到暂存区）</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看暂存区与本地仓库的差异</t>
+  </si>
+  <si>
+    <t>git diff --staged</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 撤销文件修改（回到上一次提交状态）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git checkout -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 撤销暂存区修改（回到工作区状态）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git reset HEAD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 标签管理（用于版本发布）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创建轻量级标签</t>
+  </si>
+  <si>
+    <t>git tag 标签名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 创建带说明的标签</t>
+  </si>
+  <si>
+    <t>git tag -a 标签名 -m "标签说明"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看所有标签</t>
+  </si>
+  <si>
+    <t>git tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 推送标签到远程仓库</t>
+  </si>
+  <si>
+    <t>git push origin 标签名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 推送所有标签到远程仓库</t>
+  </si>
+  <si>
+    <t>git push origin --tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 基于标签创建新分支</t>
+  </si>
+  <si>
+    <t>git checkout -b 分支名 标签名</t>
+  </si>
+  <si>
+    <t>六、团队协作常用技巧</t>
+  </si>
+  <si>
+    <t>1. 拉取代码并解决冲突</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拉取远程代码并自动合并（可能触发冲突）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git pull origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支名</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拉取远程代码并创建新的合并提交</t>
+  </si>
+  <si>
+    <t>git pull --no-ff origin 分支名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 先拉取再手动合并（推荐方式）</t>
+  </si>
+  <si>
+    <t>git fetch origin 分支名</t>
+  </si>
+  <si>
+    <t>git merge origin/分支名</t>
+  </si>
+  <si>
+    <t>2. 变基操作（Rebase）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 场景：将本地分支的提交基于远程最新分支重排</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 优点：保持分支历史整洁，无多余合并提交</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 切换到需要变基的分支</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 执行变基操作</t>
+  </si>
+  <si>
+    <t>git rebase origin/main</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 解决变基过程中的冲突（如果有）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 解决后继续：git rebase --continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 放弃变基：git rebase --abort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 变基完成后推送到远程（需强制推送）</t>
+  </si>
+  <si>
     <t>git push -f origin 分支名</t>
   </si>
   <si>
-    <t xml:space="preserve"> 查看可回退的版本列表</t>
-  </si>
-  <si>
-    <t>git reflog</t>
-  </si>
-  <si>
-    <t>五、常用辅助命令</t>
-  </si>
-  <si>
-    <t>1. 查看与撤销操作</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 查看工作区修改（未添加到暂存区）</t>
-  </si>
-  <si>
-    <t>git diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 查看暂存区与本地仓库的差异</t>
-  </si>
-  <si>
-    <t>git diff --staged</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 撤销文件修改（回到上一次提交状态）</t>
-  </si>
-  <si>
-    <t>git checkout -- 文件名.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 撤销暂存区修改（回到工作区状态）</t>
-  </si>
-  <si>
-    <t>git reset HEAD 文件名.txt</t>
-  </si>
-  <si>
-    <t>2. 标签管理（用于版本发布）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 创建轻量级标签</t>
-  </si>
-  <si>
-    <t>git tag 标签名</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 创建带说明的标签</t>
-  </si>
-  <si>
-    <t>git tag -a 标签名 -m "标签说明"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 查看所有标签</t>
-  </si>
-  <si>
-    <t>git tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 推送标签到远程仓库</t>
-  </si>
-  <si>
-    <t>git push origin 标签名</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 推送所有标签到远程仓库</t>
-  </si>
-  <si>
-    <t>git push origin --tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 基于标签创建新分支</t>
-  </si>
-  <si>
-    <t>git checkout -b 分支名 标签名</t>
-  </si>
-  <si>
-    <t>六、团队协作常用技巧</t>
-  </si>
-  <si>
-    <t>1. 拉取代码并解决冲突</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 拉取远程代码并自动合并（可能触发冲突）</t>
-  </si>
-  <si>
-    <t>git pull origin 分支名</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 拉取远程代码并创建新的合并提交</t>
-  </si>
-  <si>
-    <t>git pull --no-ff origin 分支名</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 先拉取再手动合并（推荐方式）</t>
-  </si>
-  <si>
-    <t>git fetch origin 分支名</t>
-  </si>
-  <si>
-    <t>git merge origin/分支名</t>
-  </si>
-  <si>
-    <t>2. 变基操作（Rebase）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 场景：将本地分支的提交基于远程最新分支重排</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 优点：保持分支历史整洁，无多余合并提交</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 切换到需要变基的分支</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 执行变基操作</t>
-  </si>
-  <si>
-    <t>git rebase origin/main</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 解决变基过程中的冲突（如果有）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 解决后继续：git rebase --continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 放弃变基：git rebase --abort</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 变基完成后推送到远程（需强制推送）</t>
-  </si>
-  <si>
     <t>七、常见问题解决方案</t>
   </si>
   <si>
@@ -3463,6 +3560,9 @@
   </si>
   <si>
     <t>前端service</t>
+  </si>
+  <si>
+    <t>用户列表页面</t>
   </si>
   <si>
     <t>服务层实现了所有模块的 API 调用</t>
@@ -3482,17 +3582,26 @@
     </r>
   </si>
   <si>
+    <t>展示用户基本信息（用户名、电话、邮箱、角色、状态）</t>
+  </si>
+  <si>
+    <t>支持搜索、筛选和分页</t>
+  </si>
+  <si>
+    <t>提供编辑、禁用 / 启用用户功能</t>
+  </si>
+  <si>
     <t>每个模块都有独立的服务文件</t>
   </si>
   <si>
+    <t>显示加载状态和空状态</t>
+  </si>
+  <si>
     <t>使用 axios 处理 HTTP 请求</t>
   </si>
   <si>
-    <t>包含错误处理和请求配置</t>
-  </si>
-  <si>
-    <r>
-      <t>API 设计特点</t>
+    <r>
+      <t>用户编辑页面</t>
     </r>
     <r>
       <rPr>
@@ -3505,22 +3614,74 @@
     </r>
   </si>
   <si>
+    <t>包含错误处理和请求配置</t>
+  </si>
+  <si>
+    <r>
+      <t>API 设计特点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>支持创建和编辑用户</t>
+  </si>
+  <si>
+    <t>表单验证确保数据完整性</t>
+  </si>
+  <si>
     <t>遵循 RESTful 风格</t>
   </si>
   <si>
+    <t>密码管理（创建时必填，编辑时可选）</t>
+  </si>
+  <si>
     <t>使用 HTTP 动词表示操作类型</t>
   </si>
   <si>
+    <t>角色和状态选择</t>
+  </si>
+  <si>
     <t>使用路径参数标识资源</t>
   </si>
   <si>
+    <r>
+      <t>状态管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
     <t>返回统一的数据格式</t>
   </si>
   <si>
+    <t>使用 Pinia 管理用户数据</t>
+  </si>
+  <si>
     <t>authService.js</t>
   </si>
   <si>
+    <t>处理加载状态和错误</t>
+  </si>
+  <si>
     <t>billService.js</t>
+  </si>
+  <si>
+    <t>提供统一的数据获取和操作方法</t>
   </si>
   <si>
     <t>noticeService.js</t>
@@ -3545,13 +3706,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3837,14 +4004,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FF404040"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9.5"/>
+      <color rgb="FF404040"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4462,137 +4629,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4600,57 +4767,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4659,7 +4835,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4668,22 +4844,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4698,19 +4874,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="24">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="24">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4725,46 +4901,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="22" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="22">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4794,16 +4970,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="22" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="22" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="24" applyFill="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="24" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4872,53 +5048,6 @@
   <book/>
   <sheets/>
 </customStorage>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="59372500"/>
-          <a:ext cx="965200" cy="387350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5184,10 +5313,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="225" spans="1:2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5222,33 +5351,33 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" customHeight="1" spans="1:13">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="63" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5256,17 +5385,17 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="J3" s="61" t="s">
+      <c r="G3" s="22"/>
+      <c r="J3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="66" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5274,19 +5403,19 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="63" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5294,19 +5423,19 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="66" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5314,19 +5443,19 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="63" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5334,19 +5463,19 @@
       <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="62" t="s">
+      <c r="L7" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="66" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5354,19 +5483,19 @@
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="63" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5374,17 +5503,17 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="J9" s="61" t="s">
+      <c r="G9" s="22"/>
+      <c r="J9" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="62" t="s">
+      <c r="K9" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="66" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5392,19 +5521,19 @@
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5412,19 +5541,19 @@
       <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="M11" s="66" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5432,27 +5561,27 @@
       <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="69" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="22" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5460,13 +5589,13 @@
       <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5474,7 +5603,7 @@
       <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="50" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5482,7 +5611,7 @@
       <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="50" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5490,7 +5619,7 @@
       <c r="A18" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="53" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5498,13 +5627,13 @@
       <c r="A19" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
       <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="54" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5512,7 +5641,7 @@
       <c r="A21" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="54" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5520,7 +5649,7 @@
       <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="49" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5528,7 +5657,7 @@
       <c r="A23" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5536,13 +5665,13 @@
       <c r="A24" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
       <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="55" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5550,7 +5679,7 @@
       <c r="A26" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="56" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5558,7 +5687,7 @@
       <c r="A27" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="56" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5566,7 +5695,7 @@
       <c r="A28" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="53" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5574,13 +5703,13 @@
       <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="56" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5588,7 +5717,7 @@
       <c r="A31" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="56" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5596,7 +5725,7 @@
       <c r="A32" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="56" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5604,7 +5733,7 @@
       <c r="A33" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="53" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5612,13 +5741,13 @@
       <c r="A34" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="55" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5626,7 +5755,7 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="55" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5634,7 +5763,7 @@
       <c r="A37" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="55" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5642,7 +5771,7 @@
       <c r="A38" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="53" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5650,13 +5779,13 @@
       <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" customHeight="1" spans="1:7">
       <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="52" t="s">
+      <c r="G40" s="55" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5664,7 +5793,7 @@
       <c r="A41" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="52" t="s">
+      <c r="G41" s="55" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5672,7 +5801,7 @@
       <c r="A42" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="55" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5680,7 +5809,7 @@
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="53" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5688,13 +5817,13 @@
       <c r="A44" t="s">
         <v>121</v>
       </c>
-      <c r="G44" s="19"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" customHeight="1" spans="1:7">
       <c r="A45" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="55" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5702,7 +5831,7 @@
       <c r="A46" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="52" t="s">
+      <c r="G46" s="55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5710,7 +5839,7 @@
       <c r="A47" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5718,7 +5847,7 @@
       <c r="A48" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="53" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5726,13 +5855,13 @@
       <c r="A49" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="19"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="50" customHeight="1" spans="1:7">
       <c r="A50" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="52" t="s">
+      <c r="G50" s="55" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5740,7 +5869,7 @@
       <c r="A51" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="52" t="s">
+      <c r="G51" s="55" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5748,7 +5877,7 @@
       <c r="A52" t="s">
         <v>135</v>
       </c>
-      <c r="G52" s="52" t="s">
+      <c r="G52" s="55" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5756,7 +5885,7 @@
       <c r="A53" t="s">
         <v>137</v>
       </c>
-      <c r="G53" s="46" t="s">
+      <c r="G53" s="49" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5764,7 +5893,7 @@
       <c r="A54" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="22" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5772,258 +5901,258 @@
       <c r="A55" t="s">
         <v>141</v>
       </c>
-      <c r="G55" s="19"/>
+      <c r="G55" s="22"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="54" t="s">
+      <c r="G56" s="57" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:7">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="G57" s="54" t="s">
+      <c r="G57" s="57" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="54" t="s">
+      <c r="G58" s="57" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="D60" s="56" t="s">
+      <c r="D60" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="19"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D61" s="56" t="s">
+      <c r="D61" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="G61" s="54" t="s">
+      <c r="G61" s="57" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="G62" s="54" t="s">
+      <c r="G62" s="57" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="G63" s="54" t="s">
+      <c r="G63" s="57" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="56" t="s">
+      <c r="D64" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="G64" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="56" t="s">
+      <c r="D65" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="G65" s="19"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="56" t="s">
+      <c r="D66" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G66" s="54" t="s">
+      <c r="G66" s="57" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="56" t="s">
+      <c r="D67" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="G67" s="54" t="s">
+      <c r="G67" s="57" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="67" t="s">
+      <c r="D68" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="G68" s="54" t="s">
+      <c r="G68" s="57" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="56" t="s">
+      <c r="D69" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G69" s="22" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="56" t="s">
+      <c r="D70" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="G70" s="19"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="D71" s="56" t="s">
+      <c r="D71" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G71" s="54" t="s">
+      <c r="G71" s="57" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="D72" s="56" t="s">
+      <c r="D72" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="G72" s="54" t="s">
+      <c r="G72" s="57" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="56" t="s">
+      <c r="D73" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="G73" s="54" t="s">
+      <c r="G73" s="57" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="56" t="s">
+      <c r="D74" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="G74" s="19" t="s">
+      <c r="G74" s="22" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="D75" s="56" t="s">
+      <c r="D75" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="G75" s="19"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="D76" s="56" t="s">
+      <c r="D76" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="G76" s="54" t="s">
+      <c r="G76" s="57" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D77" s="56" t="s">
+      <c r="D77" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="54" t="s">
+      <c r="G77" s="57" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="D78" s="56" t="s">
+      <c r="D78" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="G78" s="54" t="s">
+      <c r="G78" s="57" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="D79" s="56" t="s">
+      <c r="D79" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="G79" s="46" t="s">
+      <c r="G79" s="49" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6031,10 +6160,10 @@
       <c r="A80" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="56" t="s">
+      <c r="D80" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="G80" s="19" t="s">
+      <c r="G80" s="22" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6042,19 +6171,19 @@
       <c r="A81" t="s">
         <v>210</v>
       </c>
-      <c r="D81" s="56" t="s">
+      <c r="D81" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="G81" s="19"/>
+      <c r="G81" s="22"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
       <c r="A82" t="s">
         <v>212</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D82" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="G82" s="47" t="s">
+      <c r="G82" s="50" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6062,10 +6191,10 @@
       <c r="A83" t="s">
         <v>214</v>
       </c>
-      <c r="D83" s="56" t="s">
+      <c r="D83" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="G83" s="47" t="s">
+      <c r="G83" s="50" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6073,10 +6202,10 @@
       <c r="A84" t="s">
         <v>217</v>
       </c>
-      <c r="D84" s="56" t="s">
+      <c r="D84" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="G84" s="19" t="s">
+      <c r="G84" s="22" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6084,19 +6213,19 @@
       <c r="A85" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="56" t="s">
+      <c r="D85" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="G85" s="19"/>
+      <c r="G85" s="22"/>
     </row>
     <row r="86" customHeight="1" spans="1:7">
       <c r="A86" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="56" t="s">
+      <c r="D86" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="G86" s="47" t="s">
+      <c r="G86" s="50" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6104,10 +6233,10 @@
       <c r="A87" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="56" t="s">
+      <c r="D87" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="G87" s="47" t="s">
+      <c r="G87" s="50" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6115,10 +6244,10 @@
       <c r="A88" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="56" t="s">
+      <c r="D88" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="G88" s="47" t="s">
+      <c r="G88" s="50" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6126,7 +6255,7 @@
       <c r="A89" t="s">
         <v>230</v>
       </c>
-      <c r="G89" s="46" t="s">
+      <c r="G89" s="49" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6134,7 +6263,7 @@
       <c r="A90" t="s">
         <v>232</v>
       </c>
-      <c r="G90" s="19" t="s">
+      <c r="G90" s="22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6142,13 +6271,13 @@
       <c r="A91" t="s">
         <v>234</v>
       </c>
-      <c r="G91" s="19"/>
+      <c r="G91" s="22"/>
     </row>
     <row r="92" customHeight="1" spans="1:7">
       <c r="A92" t="s">
         <v>40</v>
       </c>
-      <c r="G92" s="47" t="s">
+      <c r="G92" s="50" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6156,7 +6285,7 @@
       <c r="A93" t="s">
         <v>236</v>
       </c>
-      <c r="G93" s="47" t="s">
+      <c r="G93" s="50" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6164,7 +6293,7 @@
       <c r="A94" t="s">
         <v>238</v>
       </c>
-      <c r="G94" s="19" t="s">
+      <c r="G94" s="22" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6172,13 +6301,13 @@
       <c r="A95" t="s">
         <v>240</v>
       </c>
-      <c r="G95" s="19"/>
+      <c r="G95" s="22"/>
     </row>
     <row r="96" customHeight="1" spans="1:7">
       <c r="A96" t="s">
         <v>169</v>
       </c>
-      <c r="G96" s="51" t="s">
+      <c r="G96" s="54" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6186,7 +6315,7 @@
       <c r="A97" t="s">
         <v>242</v>
       </c>
-      <c r="G97" s="51" t="s">
+      <c r="G97" s="54" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6194,7 +6323,7 @@
       <c r="A98" t="s">
         <v>244</v>
       </c>
-      <c r="G98" s="19" t="s">
+      <c r="G98" s="22" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6202,13 +6331,13 @@
       <c r="A99" t="s">
         <v>246</v>
       </c>
-      <c r="G99" s="19"/>
+      <c r="G99" s="22"/>
     </row>
     <row r="100" customHeight="1" spans="1:7">
       <c r="A100" t="s">
         <v>247</v>
       </c>
-      <c r="G100" s="47" t="s">
+      <c r="G100" s="50" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6216,7 +6345,7 @@
       <c r="A101" t="s">
         <v>249</v>
       </c>
-      <c r="G101" s="46" t="s">
+      <c r="G101" s="49" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6224,7 +6353,7 @@
       <c r="A102" t="s">
         <v>251</v>
       </c>
-      <c r="G102" s="19" t="s">
+      <c r="G102" s="22" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6232,13 +6361,13 @@
       <c r="A103" t="s">
         <v>253</v>
       </c>
-      <c r="G103" s="19"/>
+      <c r="G103" s="22"/>
     </row>
     <row r="104" customHeight="1" spans="1:7">
       <c r="A104" t="s">
         <v>254</v>
       </c>
-      <c r="G104" s="47" t="s">
+      <c r="G104" s="50" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6246,7 +6375,7 @@
       <c r="A105" t="s">
         <v>256</v>
       </c>
-      <c r="G105" s="47" t="s">
+      <c r="G105" s="50" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6254,7 +6383,7 @@
       <c r="A106" t="s">
         <v>258</v>
       </c>
-      <c r="G106" s="19" t="s">
+      <c r="G106" s="22" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6262,13 +6391,13 @@
       <c r="A107" t="s">
         <v>253</v>
       </c>
-      <c r="G107" s="19"/>
+      <c r="G107" s="22"/>
     </row>
     <row r="108" customHeight="1" spans="1:7">
       <c r="A108" t="s">
         <v>260</v>
       </c>
-      <c r="G108" s="47" t="s">
+      <c r="G108" s="50" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6276,7 +6405,7 @@
       <c r="A109" t="s">
         <v>262</v>
       </c>
-      <c r="G109" s="47" t="s">
+      <c r="G109" s="50" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6284,7 +6413,7 @@
       <c r="A110" t="s">
         <v>264</v>
       </c>
-      <c r="G110" s="47" t="s">
+      <c r="G110" s="50" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6292,7 +6421,7 @@
       <c r="A111" t="s">
         <v>266</v>
       </c>
-      <c r="G111" s="19" t="s">
+      <c r="G111" s="22" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6300,13 +6429,13 @@
       <c r="A112" t="s">
         <v>268</v>
       </c>
-      <c r="G112" s="19"/>
+      <c r="G112" s="22"/>
     </row>
     <row r="113" customHeight="1" spans="1:7">
       <c r="A113" t="s">
         <v>269</v>
       </c>
-      <c r="G113" s="47" t="s">
+      <c r="G113" s="50" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6314,7 +6443,7 @@
       <c r="A114" t="s">
         <v>271</v>
       </c>
-      <c r="G114" s="47" t="s">
+      <c r="G114" s="50" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6322,7 +6451,7 @@
       <c r="A115" t="s">
         <v>273</v>
       </c>
-      <c r="G115" s="19" t="s">
+      <c r="G115" s="22" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6330,13 +6459,13 @@
       <c r="A116" t="s">
         <v>275</v>
       </c>
-      <c r="G116" s="19"/>
+      <c r="G116" s="22"/>
     </row>
     <row r="117" customHeight="1" spans="1:7">
       <c r="A117" t="s">
         <v>276</v>
       </c>
-      <c r="G117" s="47" t="s">
+      <c r="G117" s="50" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6344,7 +6473,7 @@
       <c r="A118" t="s">
         <v>278</v>
       </c>
-      <c r="G118" s="47" t="s">
+      <c r="G118" s="50" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6352,7 +6481,7 @@
       <c r="A119" t="s">
         <v>280</v>
       </c>
-      <c r="G119" s="19" t="s">
+      <c r="G119" s="22" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6360,13 +6489,13 @@
       <c r="A120" t="s">
         <v>169</v>
       </c>
-      <c r="G120" s="19"/>
+      <c r="G120" s="22"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
       <c r="A121" t="s">
         <v>282</v>
       </c>
-      <c r="G121" s="47" t="s">
+      <c r="G121" s="50" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6374,7 +6503,7 @@
       <c r="A122" t="s">
         <v>195</v>
       </c>
-      <c r="G122" s="47" t="s">
+      <c r="G122" s="50" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6382,7 +6511,7 @@
       <c r="A123" t="s">
         <v>285</v>
       </c>
-      <c r="G123" s="46" t="s">
+      <c r="G123" s="49" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6390,7 +6519,7 @@
       <c r="A124" t="s">
         <v>287</v>
       </c>
-      <c r="G124" s="19" t="s">
+      <c r="G124" s="22" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6398,13 +6527,13 @@
       <c r="A125" t="s">
         <v>289</v>
       </c>
-      <c r="G125" s="19"/>
+      <c r="G125" s="22"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
       <c r="A126" t="s">
         <v>290</v>
       </c>
-      <c r="G126" s="47" t="s">
+      <c r="G126" s="50" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6412,7 +6541,7 @@
       <c r="A127" t="s">
         <v>292</v>
       </c>
-      <c r="G127" s="19" t="s">
+      <c r="G127" s="22" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6420,339 +6549,339 @@
       <c r="A128" t="s">
         <v>294</v>
       </c>
-      <c r="G128" s="19"/>
+      <c r="G128" s="22"/>
     </row>
     <row r="129" customHeight="1" spans="1:7">
       <c r="A129" t="s">
         <v>295</v>
       </c>
-      <c r="G129" s="47" t="s">
+      <c r="G129" s="50" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="7:7">
-      <c r="G130" s="47" t="s">
+      <c r="G130" s="50" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="7:7">
-      <c r="G131" s="19" t="s">
+      <c r="G131" s="22" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="7:7">
-      <c r="G132" s="19"/>
+      <c r="G132" s="22"/>
     </row>
     <row r="133" customHeight="1" spans="7:7">
-      <c r="G133" s="47" t="s">
+      <c r="G133" s="50" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="7:7">
-      <c r="G134" s="47" t="s">
+      <c r="G134" s="50" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="7:7">
-      <c r="G135" s="46" t="s">
+      <c r="G135" s="49" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="7:7">
-      <c r="G136" s="19" t="s">
+      <c r="G136" s="22" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="7:7">
-      <c r="G137" s="19"/>
+      <c r="G137" s="22"/>
     </row>
     <row r="138" customHeight="1" spans="7:7">
-      <c r="G138" s="47" t="s">
+      <c r="G138" s="50" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="7:7">
-      <c r="G139" s="47" t="s">
+      <c r="G139" s="50" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="7:7">
-      <c r="G140" s="47" t="s">
+      <c r="G140" s="50" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="7:7">
-      <c r="G141" s="19" t="s">
+      <c r="G141" s="22" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="7:7">
-      <c r="G142" s="19"/>
+      <c r="G142" s="22"/>
     </row>
     <row r="143" customHeight="1" spans="7:7">
-      <c r="G143" s="47" t="s">
+      <c r="G143" s="50" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="7:7">
-      <c r="G144" s="47" t="s">
+      <c r="G144" s="50" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="7:7">
-      <c r="G145" s="19" t="s">
+      <c r="G145" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="7:7">
-      <c r="G146" s="19"/>
+      <c r="G146" s="22"/>
     </row>
     <row r="147" customHeight="1" spans="7:7">
-      <c r="G147" s="47" t="s">
+      <c r="G147" s="50" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="7:7">
-      <c r="G148" s="47" t="s">
+      <c r="G148" s="50" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="7:7">
-      <c r="G149" s="19" t="s">
+      <c r="G149" s="22" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="7:7">
-      <c r="G150" s="19"/>
+      <c r="G150" s="22"/>
     </row>
     <row r="151" customHeight="1" spans="7:7">
-      <c r="G151" s="47" t="s">
+      <c r="G151" s="50" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="7:7">
-      <c r="G152" s="47" t="s">
+      <c r="G152" s="50" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="7:7">
-      <c r="G153" s="19" t="s">
+      <c r="G153" s="22" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="7:7">
-      <c r="G154" s="19"/>
+      <c r="G154" s="22"/>
     </row>
     <row r="155" customHeight="1" spans="7:7">
-      <c r="G155" s="47" t="s">
+      <c r="G155" s="50" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="7:7">
-      <c r="G156" s="47" t="s">
+      <c r="G156" s="50" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="7:7">
-      <c r="G157" s="19"/>
+      <c r="G157" s="22"/>
     </row>
     <row r="158" customHeight="1" spans="7:7">
-      <c r="G158" s="47" t="s">
+      <c r="G158" s="50" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="7:7">
-      <c r="G159" s="47" t="s">
+      <c r="G159" s="50" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="7:7">
-      <c r="G160" s="19" t="s">
+      <c r="G160" s="22" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="7:7">
-      <c r="G161" s="19"/>
+      <c r="G161" s="22"/>
     </row>
     <row r="162" customHeight="1" spans="7:7">
-      <c r="G162" s="47" t="s">
+      <c r="G162" s="50" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="7:7">
-      <c r="G163" s="47" t="s">
+      <c r="G163" s="50" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="7:7">
-      <c r="G164" s="19" t="s">
+      <c r="G164" s="22" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="7:7">
-      <c r="G165" s="19"/>
+      <c r="G165" s="22"/>
     </row>
     <row r="166" customHeight="1" spans="7:7">
-      <c r="G166" s="47" t="s">
+      <c r="G166" s="50" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="7:7">
-      <c r="G167" s="47" t="s">
+      <c r="G167" s="50" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="7:7">
-      <c r="G168" s="46" t="s">
+      <c r="G168" s="49" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="7:7">
-      <c r="G169" s="19" t="s">
+      <c r="G169" s="22" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="7:7">
-      <c r="G170" s="19"/>
+      <c r="G170" s="22"/>
     </row>
     <row r="171" customHeight="1" spans="7:7">
-      <c r="G171" s="47" t="s">
+      <c r="G171" s="50" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="7:7">
-      <c r="G172" s="19" t="s">
+      <c r="G172" s="22" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="7:7">
-      <c r="G173" s="19"/>
+      <c r="G173" s="22"/>
     </row>
     <row r="174" customHeight="1" spans="7:7">
-      <c r="G174" s="47" t="s">
+      <c r="G174" s="50" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="7:7">
-      <c r="G175" s="47" t="s">
+      <c r="G175" s="50" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="7:7">
-      <c r="G176" s="19" t="s">
+      <c r="G176" s="22" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="7:7">
-      <c r="G177" s="19"/>
+      <c r="G177" s="22"/>
     </row>
     <row r="178" customHeight="1" spans="7:7">
-      <c r="G178" s="47" t="s">
+      <c r="G178" s="50" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="7:7">
-      <c r="G179" s="47" t="s">
+      <c r="G179" s="50" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="7:7">
-      <c r="G180" s="46" t="s">
+      <c r="G180" s="49" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="7:7">
-      <c r="G181" s="19" t="s">
+      <c r="G181" s="22" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="7:7">
-      <c r="G182" s="19"/>
+      <c r="G182" s="22"/>
     </row>
     <row r="183" customHeight="1" spans="7:7">
-      <c r="G183" s="47" t="s">
+      <c r="G183" s="50" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="7:7">
-      <c r="G184" s="47" t="s">
+      <c r="G184" s="50" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="7:7">
-      <c r="G185" s="47" t="s">
+      <c r="G185" s="50" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="7:7">
-      <c r="G186" s="19" t="s">
+      <c r="G186" s="22" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="7:7">
-      <c r="G187" s="19"/>
+      <c r="G187" s="22"/>
     </row>
     <row r="188" customHeight="1" spans="7:7">
-      <c r="G188" s="47" t="s">
+      <c r="G188" s="50" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="7:7">
-      <c r="G189" s="47" t="s">
+      <c r="G189" s="50" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="7:7">
-      <c r="G190" s="19" t="s">
+      <c r="G190" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="7:7">
-      <c r="G191" s="19"/>
+      <c r="G191" s="22"/>
     </row>
     <row r="192" customHeight="1" spans="7:7">
-      <c r="G192" s="47" t="s">
+      <c r="G192" s="50" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="7:7">
-      <c r="G193" s="47" t="s">
+      <c r="G193" s="50" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="7:7">
-      <c r="G194" s="19" t="s">
+      <c r="G194" s="22" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="7:7">
-      <c r="G195" s="19"/>
+      <c r="G195" s="22"/>
     </row>
     <row r="196" customHeight="1" spans="7:7">
-      <c r="G196" s="47" t="s">
+      <c r="G196" s="50" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="7:7">
-      <c r="G197" s="47" t="s">
+      <c r="G197" s="50" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="7:7">
-      <c r="G198" s="19" t="s">
+      <c r="G198" s="22" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="7:7">
-      <c r="G199" s="19"/>
+      <c r="G199" s="22"/>
     </row>
     <row r="200" customHeight="1" spans="7:7">
-      <c r="G200" s="47" t="s">
+      <c r="G200" s="50" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="7:7">
-      <c r="G201" s="47" t="s">
+      <c r="G201" s="50" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6771,8 +6900,8 @@
   <sheetPr/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -6789,37 +6918,37 @@
     <col min="10" max="10" width="21.2090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="25" customHeight="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="19" customFormat="1" ht="25" customHeight="1" spans="1:10">
+      <c r="A1" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6827,19 +6956,19 @@
       <c r="A3" t="s">
         <v>322</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="44" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6847,19 +6976,19 @@
       <c r="A4" t="s">
         <v>326</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="43" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6867,22 +6996,22 @@
       <c r="A5" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="44" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6890,22 +7019,22 @@
       <c r="A6" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="43" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6913,22 +7042,22 @@
       <c r="A7" t="s">
         <v>341</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="44" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6936,22 +7065,22 @@
       <c r="A8" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="43" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6959,22 +7088,22 @@
       <c r="A9" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="44" t="s">
         <v>355</v>
       </c>
     </row>
@@ -6982,22 +7111,22 @@
       <c r="A10" t="s">
         <v>356</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="43" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7005,22 +7134,22 @@
       <c r="A11" t="s">
         <v>360</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="44" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7028,22 +7157,22 @@
       <c r="A12" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="45" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7051,22 +7180,22 @@
       <c r="A13" t="s">
         <v>370</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="43"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="32" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7074,7 +7203,7 @@
       <c r="A15" t="s">
         <v>373</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="31" t="s">
         <v>374</v>
       </c>
       <c r="E15" t="s">
@@ -7085,23 +7214,26 @@
       <c r="A16" t="s">
         <v>376</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="38" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:1">
+    <row r="17" customHeight="1" spans="1:5">
       <c r="A17" t="s">
         <v>378</v>
       </c>
+      <c r="E17" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
@@ -7111,35 +7243,35 @@
     </row>
     <row r="21" customHeight="1" spans="1:1">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:1">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:1">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:1">
@@ -7149,17 +7281,17 @@
     </row>
     <row r="28" customHeight="1" spans="1:1">
       <c r="A28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:1">
       <c r="A29" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
       <c r="A30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:1">
@@ -7169,17 +7301,17 @@
     </row>
     <row r="32" customHeight="1" spans="1:1">
       <c r="A32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:1">
       <c r="A33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:1">
       <c r="A34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:1">
@@ -7189,22 +7321,22 @@
     </row>
     <row r="36" customHeight="1" spans="1:1">
       <c r="A36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:1">
       <c r="A37" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:1">
       <c r="A38" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:1">
       <c r="A39" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:1">
@@ -7214,17 +7346,17 @@
     </row>
     <row r="41" customHeight="1" spans="1:1">
       <c r="A41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:1">
       <c r="A42" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:1">
       <c r="A43" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:1">
@@ -7234,414 +7366,414 @@
     </row>
     <row r="45" customHeight="1" spans="1:1">
       <c r="A45" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
       <c r="A46" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:1">
       <c r="A47" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:3">
       <c r="A48" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="39" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
-      <c r="A49" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="C49" s="38" t="s">
+      <c r="A49" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="C49" s="41" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
-      <c r="A50" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="C50" s="28" t="s">
+      <c r="A50" s="40" t="s">
         <v>406</v>
       </c>
+      <c r="C50" s="31" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
-      <c r="A51" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="C51" s="29" t="s">
+      <c r="A51" s="40" t="s">
         <v>408</v>
       </c>
+      <c r="C51" s="32" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
-      <c r="A52" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="C52" s="28" t="s">
+      <c r="A52" s="40" t="s">
         <v>410</v>
       </c>
+      <c r="C52" s="31" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
-      <c r="A53" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="C53" s="29" t="s">
+      <c r="A53" s="40" t="s">
         <v>412</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
       <c r="A54" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="28" t="s">
-        <v>413</v>
+      <c r="C54" s="31" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
-      <c r="A55" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="C55" s="29" t="s">
+      <c r="A55" s="40" t="s">
         <v>415</v>
       </c>
+      <c r="C55" s="32" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="56" customHeight="1" spans="1:3">
-      <c r="A56" s="37" t="s">
-        <v>416</v>
-      </c>
-      <c r="C56" s="28" t="s">
+      <c r="A56" s="40" t="s">
         <v>417</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:3">
       <c r="A57" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>418</v>
+      <c r="C57" s="32" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
-      <c r="A58" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="C58" s="28" t="s">
+      <c r="A58" s="40" t="s">
         <v>420</v>
       </c>
+      <c r="C58" s="31" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
-      <c r="A59" s="37" t="s">
-        <v>421</v>
-      </c>
-      <c r="C59" s="39" t="s">
+      <c r="A59" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="C59" s="42" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
-      <c r="A60" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="C60" s="28" t="s">
+      <c r="A60" s="40" t="s">
         <v>423</v>
       </c>
+      <c r="C60" s="31" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
-      <c r="A61" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="C61" s="29" t="s">
+      <c r="A61" s="40" t="s">
         <v>425</v>
       </c>
+      <c r="C61" s="32" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
-      <c r="A62" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="C62" s="28" t="s">
+      <c r="A62" s="40" t="s">
         <v>427</v>
       </c>
+      <c r="C62" s="31" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
-      <c r="A63" s="37" t="s">
-        <v>428</v>
-      </c>
-      <c r="C63" s="29" t="s">
+      <c r="A63" s="40" t="s">
         <v>429</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:3">
       <c r="A64" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>430</v>
+      <c r="C64" s="31" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:3">
-      <c r="A65" s="37" t="s">
-        <v>431</v>
-      </c>
-      <c r="C65" s="29" t="s">
+      <c r="A65" s="40" t="s">
         <v>432</v>
       </c>
+      <c r="C65" s="32" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="66" customHeight="1" spans="1:3">
-      <c r="A66" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="C66" s="28" t="s">
+      <c r="A66" s="40" t="s">
         <v>434</v>
       </c>
+      <c r="C66" s="31" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="67" customHeight="1" spans="1:3">
-      <c r="A67" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="C67" s="29" t="s">
+      <c r="A67" s="40" t="s">
         <v>436</v>
       </c>
+      <c r="C67" s="32" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="68" customHeight="1" spans="1:3">
-      <c r="A68" s="37" t="s">
-        <v>437</v>
-      </c>
-      <c r="C68" s="28" t="s">
+      <c r="A68" s="40" t="s">
         <v>438</v>
       </c>
+      <c r="C68" s="31" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="69" customHeight="1" spans="1:3">
-      <c r="A69" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="C69" s="39" t="s">
+      <c r="A69" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="C69" s="42" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
-      <c r="A70" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="C70" s="28" t="s">
+      <c r="A70" s="40" t="s">
         <v>441</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:3">
       <c r="A71" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="29" t="s">
-        <v>442</v>
+      <c r="C71" s="32" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:3">
-      <c r="A72" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="C72" s="28" t="s">
+      <c r="A72" s="40" t="s">
         <v>444</v>
       </c>
+      <c r="C72" s="31" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="73" customHeight="1" spans="1:3">
-      <c r="A73" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="C73" s="29" t="s">
+      <c r="A73" s="40" t="s">
         <v>446</v>
       </c>
+      <c r="C73" s="32" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="74" customHeight="1" spans="1:3">
-      <c r="A74" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="C74" s="28" t="s">
+      <c r="A74" s="40" t="s">
         <v>448</v>
       </c>
+      <c r="C74" s="31" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
-      <c r="A75" s="37" t="s">
-        <v>449</v>
-      </c>
-      <c r="C75" s="29" t="s">
+      <c r="A75" s="40" t="s">
         <v>450</v>
       </c>
+      <c r="C75" s="32" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="76" customHeight="1" spans="1:3">
-      <c r="A76" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>451</v>
+      <c r="A76" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:3">
       <c r="A77" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="29" t="s">
-        <v>452</v>
+      <c r="C77" s="32" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:3">
       <c r="A78" t="s">
-        <v>453</v>
-      </c>
-      <c r="C78" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="C78" s="47" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:3">
       <c r="A79" t="s">
-        <v>454</v>
-      </c>
-      <c r="C79" s="29" t="s">
         <v>455</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:3">
       <c r="A80" t="s">
-        <v>456</v>
-      </c>
-      <c r="C80" s="28" t="s">
         <v>457</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:3">
       <c r="A81" t="s">
-        <v>458</v>
-      </c>
-      <c r="C81" s="29" t="s">
         <v>459</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:3">
       <c r="A82" t="s">
         <v>253</v>
       </c>
-      <c r="C82" s="28" t="s">
-        <v>460</v>
+      <c r="C82" s="31" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
       <c r="A83" t="s">
-        <v>461</v>
-      </c>
-      <c r="C83" s="29" t="s">
         <v>462</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:3">
       <c r="A84" t="s">
-        <v>463</v>
-      </c>
-      <c r="C84" s="28" t="s">
         <v>464</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:3">
       <c r="A85" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="29" t="s">
-        <v>465</v>
+      <c r="C85" s="32" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:3">
       <c r="A86" t="s">
-        <v>466</v>
-      </c>
-      <c r="C86" s="28" t="s">
         <v>467</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:3">
       <c r="A87" t="s">
-        <v>468</v>
-      </c>
-      <c r="C87" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="C87" s="42" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:3">
       <c r="A88" t="s">
-        <v>469</v>
-      </c>
-      <c r="C88" s="28" t="s">
         <v>470</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:3">
       <c r="A89" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="29" t="s">
-        <v>471</v>
+      <c r="C89" s="32" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
       <c r="A90" t="s">
-        <v>472</v>
-      </c>
-      <c r="C90" s="28" t="s">
         <v>473</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
       <c r="A91" t="s">
-        <v>474</v>
-      </c>
-      <c r="C91" s="29" t="s">
         <v>475</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:3">
       <c r="A92" t="s">
-        <v>476</v>
-      </c>
-      <c r="C92" s="28" t="s">
         <v>477</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:3">
       <c r="A93" t="s">
-        <v>478</v>
-      </c>
-      <c r="C93" s="29" t="s">
         <v>479</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:3">
       <c r="A94" t="s">
         <v>253</v>
       </c>
-      <c r="C94" s="28" t="s">
-        <v>480</v>
+      <c r="C94" s="31" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:3">
       <c r="A95" t="s">
-        <v>481</v>
-      </c>
-      <c r="C95" s="29" t="s">
         <v>482</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:3">
       <c r="A96" t="s">
-        <v>483</v>
-      </c>
-      <c r="C96" s="45" t="s">
         <v>484</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:1">
       <c r="A97" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:1">
@@ -7651,17 +7783,17 @@
     </row>
     <row r="99" customHeight="1" spans="1:1">
       <c r="A99" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:1">
       <c r="A100" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:1">
       <c r="A101" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:1">
@@ -7671,17 +7803,17 @@
     </row>
     <row r="103" customHeight="1" spans="1:1">
       <c r="A103" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:1">
       <c r="A104" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:1">
       <c r="A105" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:1">
@@ -7691,12 +7823,12 @@
     </row>
     <row r="107" customHeight="1" spans="1:1">
       <c r="A107" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:1">
       <c r="A108" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:1">
@@ -7706,42 +7838,42 @@
     </row>
     <row r="110" customHeight="1" spans="1:1">
       <c r="A110" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:1">
       <c r="A111" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:1">
       <c r="A112" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:1">
       <c r="A113" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:1">
       <c r="A114" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:1">
       <c r="A115" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:1">
       <c r="A116" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:1">
       <c r="A117" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7757,7 +7889,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82bdb48b-ef8d-46d0-9fcc-f0808c4ff140}</x14:id>
+          <x14:id>{b026cd65-f972-4f03-8582-83de85967935}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7768,7 +7900,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82bdb48b-ef8d-46d0-9fcc-f0808c4ff140}">
+          <x14:cfRule type="dataBar" id="{b026cd65-f972-4f03-8582-83de85967935}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7791,8 +7923,8 @@
   <sheetPr/>
   <dimension ref="A1:A291"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="17" customHeight="1"/>
@@ -7801,950 +7933,949 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>502</v>
+      <c r="A1" s="7" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="10"/>
+      <c r="A3" s="13"/>
     </row>
     <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>503</v>
+      <c r="A4" s="14" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="12" t="s">
-        <v>504</v>
+      <c r="A5" s="15" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="11" t="s">
-        <v>505</v>
+      <c r="A7" s="14" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="12" t="s">
-        <v>506</v>
+      <c r="A8" s="15" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="11" t="s">
-        <v>507</v>
+      <c r="A10" s="14" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="12" t="s">
-        <v>508</v>
+      <c r="A11" s="15" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="13" t="s">
-        <v>509</v>
+      <c r="A13" s="16" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>510</v>
+      <c r="A15" s="7" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="12" t="s">
-        <v>511</v>
+      <c r="A18" s="15" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>512</v>
+      <c r="A19" s="15" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="11" t="s">
-        <v>513</v>
+      <c r="A21" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="12" t="s">
-        <v>514</v>
+      <c r="A22" s="15" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:1">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:1">
+      <c r="A27" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:1">
+      <c r="A28" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:1">
+      <c r="A30" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:1">
+      <c r="A31" s="15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:1">
+      <c r="A33" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:1">
+      <c r="A34" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:1">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:1">
+      <c r="A39" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:1">
+      <c r="A40" s="15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:1">
+      <c r="A42" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:1">
+      <c r="A43" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:1">
+      <c r="A45" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:1">
+      <c r="A46" s="15" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="10"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="11" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="12" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="12" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:1">
-      <c r="A33" s="11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:1">
-      <c r="A34" s="12" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:1">
-      <c r="A36" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:1">
-      <c r="A38" s="10"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:1">
-      <c r="A39" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="12" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:1">
-      <c r="A43" s="12" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="11" t="s">
+    <row r="48" customHeight="1" spans="1:1">
+      <c r="A48" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:1">
+      <c r="A49" s="17" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:1">
+      <c r="A52" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:1">
+      <c r="A54" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:1">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:1">
+      <c r="A57" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:1">
+      <c r="A58" s="15" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:1">
+      <c r="A60" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:1">
+      <c r="A61" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:1">
+      <c r="A63" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="17" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:1">
+      <c r="A69" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="17" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:1">
+      <c r="A72" s="16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:1">
+      <c r="A74" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:1">
+      <c r="A76" s="13"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:1">
+      <c r="A77" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:1">
+      <c r="A78" s="15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:1">
+      <c r="A80" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:1">
+      <c r="A81" s="15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:1">
+      <c r="A83" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:1">
+      <c r="A84" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:1">
+      <c r="A86" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:1">
+      <c r="A87" s="17" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:1">
+      <c r="A89" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:1">
+      <c r="A90" s="15" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:1">
+      <c r="A92" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:1">
+      <c r="A93" s="15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:1">
+      <c r="A95" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:1">
+      <c r="A96" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:1">
+      <c r="A98" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:1">
+      <c r="A99" s="15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:1">
+      <c r="A101" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:1">
+      <c r="A103" s="13"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:1">
+      <c r="A104" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:1">
+      <c r="A106" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:1">
+      <c r="A107" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:1">
+      <c r="A109" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:1">
+      <c r="A110" s="15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:1">
+      <c r="A112" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:1">
+      <c r="A113" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:1">
+      <c r="A115" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:1">
+      <c r="A116" s="15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:1">
+      <c r="A118" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:1">
+      <c r="A119" s="15" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="12" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="14" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="11" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:1">
-      <c r="A52" s="12" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:1">
-      <c r="A54" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:1">
-      <c r="A56" s="10"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:1">
-      <c r="A57" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:1">
-      <c r="A58" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:1">
-      <c r="A60" s="11" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:1">
-      <c r="A61" s="12" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:1">
-      <c r="A63" s="11" t="s">
+    <row r="120" customHeight="1" spans="1:1">
+      <c r="A120" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:1">
+      <c r="A122" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:1">
+      <c r="A123" s="15" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:1">
+      <c r="A125" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:1">
+      <c r="A127" s="13"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:1">
+      <c r="A128" s="15" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:1">
+      <c r="A129" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:1">
+      <c r="A130" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:1">
+      <c r="A131" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:1">
+      <c r="A132" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:1">
+      <c r="A133" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:1">
+      <c r="A134" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:1">
+      <c r="A136" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:1">
+      <c r="A137" s="15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:1">
+      <c r="A138" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:1">
+      <c r="A139" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:1">
+      <c r="A140" s="15" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:1">
+      <c r="A141" s="15" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:1">
+      <c r="A143" s="16" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:1">
+      <c r="A145" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:1">
+      <c r="A147" s="13"/>
+    </row>
+    <row r="148" customHeight="1" spans="1:1">
+      <c r="A148" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:1">
+      <c r="A149" s="15" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:1">
+      <c r="A151" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:1">
+      <c r="A152" s="15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:1">
+      <c r="A154" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:1">
+      <c r="A155" s="15" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:1">
+      <c r="A157" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:1">
+      <c r="A158" s="15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:1">
+      <c r="A160" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:1">
+      <c r="A162" s="13"/>
+    </row>
+    <row r="163" customHeight="1" spans="1:1">
+      <c r="A163" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:1">
+      <c r="A164" s="15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:1">
+      <c r="A166" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:1">
+      <c r="A167" s="17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:1">
+      <c r="A169" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:1">
+      <c r="A170" s="15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:1">
+      <c r="A172" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:1">
+      <c r="A173" s="17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:1">
+      <c r="A175" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:1">
+      <c r="A176" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:1">
+      <c r="A178" s="16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:1">
+      <c r="A180" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:1">
+      <c r="A182" s="13"/>
+    </row>
+    <row r="183" customHeight="1" spans="1:1">
+      <c r="A183" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:1">
+      <c r="A184" s="15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:1">
+      <c r="A186" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:1">
+      <c r="A187" s="15" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:1">
+      <c r="A189" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:1">
+      <c r="A190" s="17" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="1:1">
+      <c r="A192" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="1:1">
+      <c r="A193" s="17" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="1:1">
+      <c r="A195" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="1:1">
+      <c r="A197" s="13"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:1">
+      <c r="A198" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:1">
+      <c r="A199" s="15" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="1:1">
+      <c r="A201" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="1:1">
+      <c r="A202" s="15" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="1:1">
+      <c r="A204" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="1:1">
+      <c r="A205" s="15" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="1:1">
+      <c r="A207" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="1:1">
+      <c r="A208" s="15" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="1:1">
+      <c r="A210" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="211" customHeight="1" spans="1:1">
+      <c r="A211" s="15" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="213" customHeight="1" spans="1:1">
+      <c r="A213" s="14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="1:1">
+      <c r="A214" s="15" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="1:1">
+      <c r="A216" s="16" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="218" customHeight="1" spans="1:1">
+      <c r="A218" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="1:1">
+      <c r="A220" s="13"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:1">
+      <c r="A221" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="1:1">
+      <c r="A222" s="17" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="224" customHeight="1" spans="1:1">
+      <c r="A224" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="1:1">
+      <c r="A225" s="15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="1:1">
+      <c r="A227" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="1:1">
+      <c r="A228" s="15" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="1:1">
+      <c r="A229" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="1:1">
+      <c r="A231" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="233" customHeight="1" spans="1:1">
+      <c r="A233" s="13"/>
+    </row>
+    <row r="234" customHeight="1" spans="1:1">
+      <c r="A234" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="235" customHeight="1" spans="1:1">
+      <c r="A235" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="1:1">
+      <c r="A237" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="238" customHeight="1" spans="1:1">
+      <c r="A238" s="15" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="240" customHeight="1" spans="1:1">
+      <c r="A240" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="241" customHeight="1" spans="1:1">
+      <c r="A241" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="243" customHeight="1" spans="1:1">
+      <c r="A243" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="244" customHeight="1" spans="1:1">
+      <c r="A244" s="15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="245" customHeight="1" spans="1:1">
+      <c r="A245" s="15" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="1:1">
+      <c r="A247" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="1:1">
+      <c r="A248" s="15" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="250" customHeight="1" spans="1:1">
+      <c r="A250" s="16" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="252" customHeight="1" spans="1:1">
+      <c r="A252" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="254" customHeight="1" spans="1:1">
+      <c r="A254" s="13"/>
+    </row>
+    <row r="255" customHeight="1" spans="1:1">
+      <c r="A255" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="256" customHeight="1" spans="1:1">
+      <c r="A256" s="15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="258" customHeight="1" spans="1:1">
+      <c r="A258" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="1:1">
+      <c r="A259" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="1:1">
+      <c r="A260" s="15" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="1:1">
+      <c r="A262" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="264" customHeight="1" spans="1:1">
+      <c r="A264" s="13"/>
+    </row>
+    <row r="265" customHeight="1" spans="1:1">
+      <c r="A265" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="266" customHeight="1" spans="1:1">
+      <c r="A266" s="15" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:1">
-      <c r="A64" s="12" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:1">
-      <c r="A66" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:1">
-      <c r="A67" s="14" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:1">
-      <c r="A69" s="11" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:1">
-      <c r="A70" s="14" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:1">
-      <c r="A72" s="13" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:1">
-      <c r="A74" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:1">
-      <c r="A76" s="10"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:1">
-      <c r="A77" s="11" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:1">
-      <c r="A78" s="12" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:1">
-      <c r="A80" s="11" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:1">
-      <c r="A81" s="12" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:1">
-      <c r="A83" s="11" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:1">
-      <c r="A84" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:1">
-      <c r="A86" s="11" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:1">
-      <c r="A87" s="14" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:1">
-      <c r="A89" s="11" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:1">
-      <c r="A90" s="12" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:1">
-      <c r="A92" s="11" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:1">
-      <c r="A93" s="12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:1">
-      <c r="A95" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:1">
-      <c r="A96" s="12" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:1">
-      <c r="A98" s="11" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:1">
-      <c r="A99" s="12" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:1">
-      <c r="A101" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:1">
-      <c r="A103" s="10"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:1">
-      <c r="A104" s="11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:1">
-      <c r="A106" s="11" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:1">
-      <c r="A107" s="12" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:1">
-      <c r="A109" s="11" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:1">
-      <c r="A110" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:1">
-      <c r="A112" s="11" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:1">
-      <c r="A113" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:1">
-      <c r="A115" s="11" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:1">
-      <c r="A116" s="12" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:1">
-      <c r="A118" s="11" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:1">
-      <c r="A119" s="12" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:1">
-      <c r="A120" s="12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="122" customHeight="1" spans="1:1">
-      <c r="A122" s="11" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="123" customHeight="1" spans="1:1">
-      <c r="A123" s="12" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:1">
-      <c r="A125" s="4" t="s">
+    <row r="268" customHeight="1" spans="1:1">
+      <c r="A268" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="269" customHeight="1" spans="1:1">
+      <c r="A269" s="15" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="271" customHeight="1" spans="1:1">
+      <c r="A271" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="272" customHeight="1" spans="1:1">
+      <c r="A272" s="15" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="278" customHeight="1" spans="1:1">
+      <c r="A278" s="18" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="280" customHeight="1" spans="1:1">
+      <c r="A280" s="13"/>
+    </row>
+    <row r="281" customHeight="1" spans="1:1">
+      <c r="A281" s="15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="282" customHeight="1" spans="1:1">
+      <c r="A282" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="284" customHeight="1" spans="1:1">
+      <c r="A284" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="285" customHeight="1" spans="1:1">
+      <c r="A285" s="15" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="286" customHeight="1" spans="1:1">
+      <c r="A286" s="15" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="288" customHeight="1" spans="1:1">
+      <c r="A288" s="14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="289" customHeight="1" spans="1:1">
+      <c r="A289" s="15" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="290" customHeight="1" spans="1:1">
+      <c r="A290" s="15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="291" customHeight="1" spans="1:1">
+      <c r="A291" s="15" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="127" customHeight="1" spans="1:1">
-      <c r="A127" s="10"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:1">
-      <c r="A128" s="12" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="129" customHeight="1" spans="1:1">
-      <c r="A129" s="11" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="130" customHeight="1" spans="1:1">
-      <c r="A130" s="11" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="131" customHeight="1" spans="1:1">
-      <c r="A131" s="11" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="132" customHeight="1" spans="1:1">
-      <c r="A132" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="133" customHeight="1" spans="1:1">
-      <c r="A133" s="11" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="1:1">
-      <c r="A134" s="11" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="136" customHeight="1" spans="1:1">
-      <c r="A136" s="11" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="137" customHeight="1" spans="1:1">
-      <c r="A137" s="12" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="1:1">
-      <c r="A138" s="11" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="1:1">
-      <c r="A139" s="11" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="1:1">
-      <c r="A140" s="12" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="141" customHeight="1" spans="1:1">
-      <c r="A141" s="12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="1:1">
-      <c r="A143" s="13" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="145" customHeight="1" spans="1:1">
-      <c r="A145" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="147" customHeight="1" spans="1:1">
-      <c r="A147" s="10"/>
-    </row>
-    <row r="148" customHeight="1" spans="1:1">
-      <c r="A148" s="11" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="149" customHeight="1" spans="1:1">
-      <c r="A149" s="12" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="1:1">
-      <c r="A151" s="11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="152" customHeight="1" spans="1:1">
-      <c r="A152" s="12" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="154" customHeight="1" spans="1:1">
-      <c r="A154" s="11" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="155" customHeight="1" spans="1:1">
-      <c r="A155" s="12" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="157" customHeight="1" spans="1:1">
-      <c r="A157" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="1:1">
-      <c r="A158" s="12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="160" customHeight="1" spans="1:1">
-      <c r="A160" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="162" customHeight="1" spans="1:1">
-      <c r="A162" s="10"/>
-    </row>
-    <row r="163" customHeight="1" spans="1:1">
-      <c r="A163" s="11" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="164" customHeight="1" spans="1:1">
-      <c r="A164" s="12" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="166" customHeight="1" spans="1:1">
-      <c r="A166" s="11" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="167" customHeight="1" spans="1:1">
-      <c r="A167" s="12" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="169" customHeight="1" spans="1:1">
-      <c r="A169" s="11" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="170" customHeight="1" spans="1:1">
-      <c r="A170" s="12" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="172" customHeight="1" spans="1:1">
-      <c r="A172" s="11" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="173" customHeight="1" spans="1:1">
-      <c r="A173" s="12" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="175" customHeight="1" spans="1:1">
-      <c r="A175" s="11" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="176" customHeight="1" spans="1:1">
-      <c r="A176" s="12" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="178" customHeight="1" spans="1:1">
-      <c r="A178" s="13" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="180" customHeight="1" spans="1:1">
-      <c r="A180" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="182" customHeight="1" spans="1:1">
-      <c r="A182" s="10"/>
-    </row>
-    <row r="183" customHeight="1" spans="1:1">
-      <c r="A183" s="11" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="184" customHeight="1" spans="1:1">
-      <c r="A184" s="12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="186" customHeight="1" spans="1:1">
-      <c r="A186" s="11" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="187" customHeight="1" spans="1:1">
-      <c r="A187" s="12" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="189" customHeight="1" spans="1:1">
-      <c r="A189" s="11" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="190" customHeight="1" spans="1:1">
-      <c r="A190" s="12" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="192" customHeight="1" spans="1:1">
-      <c r="A192" s="11" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="193" customHeight="1" spans="1:1">
-      <c r="A193" s="12" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="195" customHeight="1" spans="1:1">
-      <c r="A195" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="197" customHeight="1" spans="1:1">
-      <c r="A197" s="10"/>
-    </row>
-    <row r="198" customHeight="1" spans="1:1">
-      <c r="A198" s="11" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="199" customHeight="1" spans="1:1">
-      <c r="A199" s="12" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="201" customHeight="1" spans="1:1">
-      <c r="A201" s="11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="202" customHeight="1" spans="1:1">
-      <c r="A202" s="12" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="204" customHeight="1" spans="1:1">
-      <c r="A204" s="11" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="205" customHeight="1" spans="1:1">
-      <c r="A205" s="12" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="207" customHeight="1" spans="1:1">
-      <c r="A207" s="11" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="208" customHeight="1" spans="1:1">
-      <c r="A208" s="12" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="210" customHeight="1" spans="1:1">
-      <c r="A210" s="11" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="211" customHeight="1" spans="1:1">
-      <c r="A211" s="12" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="213" customHeight="1" spans="1:1">
-      <c r="A213" s="11" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="214" customHeight="1" spans="1:1">
-      <c r="A214" s="12" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="216" customHeight="1" spans="1:1">
-      <c r="A216" s="13" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="218" customHeight="1" spans="1:1">
-      <c r="A218" s="4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="220" customHeight="1" spans="1:1">
-      <c r="A220" s="10"/>
-    </row>
-    <row r="221" customHeight="1" spans="1:1">
-      <c r="A221" s="11" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="222" customHeight="1" spans="1:1">
-      <c r="A222" s="12" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="224" customHeight="1" spans="1:1">
-      <c r="A224" s="11" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="225" customHeight="1" spans="1:1">
-      <c r="A225" s="12" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="227" customHeight="1" spans="1:1">
-      <c r="A227" s="11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="228" customHeight="1" spans="1:1">
-      <c r="A228" s="12" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="229" customHeight="1" spans="1:1">
-      <c r="A229" s="12" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="231" customHeight="1" spans="1:1">
-      <c r="A231" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="233" customHeight="1" spans="1:1">
-      <c r="A233" s="10"/>
-    </row>
-    <row r="234" customHeight="1" spans="1:1">
-      <c r="A234" s="11" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="235" customHeight="1" spans="1:1">
-      <c r="A235" s="11" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="237" customHeight="1" spans="1:1">
-      <c r="A237" s="11" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="238" customHeight="1" spans="1:1">
-      <c r="A238" s="12" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="240" customHeight="1" spans="1:1">
-      <c r="A240" s="11" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="241" customHeight="1" spans="1:1">
-      <c r="A241" s="12" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="243" customHeight="1" spans="1:1">
-      <c r="A243" s="11" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="244" customHeight="1" spans="1:1">
-      <c r="A244" s="12" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="245" customHeight="1" spans="1:1">
-      <c r="A245" s="12" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="247" customHeight="1" spans="1:1">
-      <c r="A247" s="11" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="248" customHeight="1" spans="1:1">
-      <c r="A248" s="12" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="250" customHeight="1" spans="1:1">
-      <c r="A250" s="13" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="252" customHeight="1" spans="1:1">
-      <c r="A252" s="4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="254" customHeight="1" spans="1:1">
-      <c r="A254" s="10"/>
-    </row>
-    <row r="255" customHeight="1" spans="1:1">
-      <c r="A255" s="11" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="256" customHeight="1" spans="1:1">
-      <c r="A256" s="12" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="258" customHeight="1" spans="1:1">
-      <c r="A258" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="259" customHeight="1" spans="1:1">
-      <c r="A259" s="12" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="260" customHeight="1" spans="1:1">
-      <c r="A260" s="12" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="262" customHeight="1" spans="1:1">
-      <c r="A262" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="264" customHeight="1" spans="1:1">
-      <c r="A264" s="10"/>
-    </row>
-    <row r="265" customHeight="1" spans="1:1">
-      <c r="A265" s="11" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="266" customHeight="1" spans="1:1">
-      <c r="A266" s="12" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="268" customHeight="1" spans="1:1">
-      <c r="A268" s="11" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="269" customHeight="1" spans="1:1">
-      <c r="A269" s="12" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="271" customHeight="1" spans="1:1">
-      <c r="A271" s="11" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="272" customHeight="1" spans="1:1">
-      <c r="A272" s="12" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="278" customHeight="1" spans="1:1">
-      <c r="A278" s="15" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="280" customHeight="1" spans="1:1">
-      <c r="A280" s="10"/>
-    </row>
-    <row r="281" customHeight="1" spans="1:1">
-      <c r="A281" s="12" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="282" customHeight="1" spans="1:1">
-      <c r="A282" s="12" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="284" customHeight="1" spans="1:1">
-      <c r="A284" s="11" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="285" customHeight="1" spans="1:1">
-      <c r="A285" s="12" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="286" customHeight="1" spans="1:1">
-      <c r="A286" s="12" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="288" customHeight="1" spans="1:1">
-      <c r="A288" s="11" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="289" customHeight="1" spans="1:1">
-      <c r="A289" s="12" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="290" customHeight="1" spans="1:1">
-      <c r="A290" s="12" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="291" customHeight="1" spans="1:1">
-      <c r="A291" s="12" t="s">
-        <v>574</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8754,7 +8885,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -8763,133 +8894,133 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.5" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>674</v>
+      <c r="A1" s="7" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>675</v>
+      <c r="A3" s="8" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="4" ht="17.5" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>676</v>
+      <c r="A4" s="8" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="6" ht="17.5" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>677</v>
+      <c r="A6" s="7" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:1">
-      <c r="A8" s="6" t="s">
-        <v>678</v>
+      <c r="A8" s="9" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="10" ht="17.5" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>679</v>
+      <c r="A10" s="7" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="12" ht="17.5" spans="1:1">
-      <c r="A12" s="5" t="s">
-        <v>680</v>
+      <c r="A12" s="8" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="13" ht="17.5" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>681</v>
+      <c r="A13" s="8" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="14" ht="17.5" spans="1:1">
-      <c r="A14" s="7" t="s">
-        <v>682</v>
+      <c r="A14" s="10" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:1">
-      <c r="A15" s="8" t="s">
-        <v>683</v>
+      <c r="A15" s="11" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:1">
-      <c r="A16" s="8" t="s">
-        <v>684</v>
+      <c r="A16" s="11" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="17" ht="17.5" spans="1:1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:1">
+      <c r="A18" s="12" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="19" ht="17.5" spans="1:1">
+      <c r="A19" s="12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="20" ht="17.5" spans="1:1">
+      <c r="A20" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="21" ht="17.5" spans="1:1">
+      <c r="A21" s="11" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="22" ht="17.5" spans="1:1">
+      <c r="A22" s="10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:1">
+      <c r="A23" s="11" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:1">
-      <c r="A18" s="9" t="s">
+    <row r="24" ht="15" spans="1:1">
+      <c r="A24" s="11" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="19" ht="17.5" spans="1:1">
-      <c r="A19" s="9" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" ht="17.5" spans="1:1">
-      <c r="A20" s="9" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" ht="17.5" spans="1:1">
-      <c r="A21" s="8" t="s">
+    <row r="25" ht="17.5" spans="1:1">
+      <c r="A25" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:1">
+      <c r="A26" s="12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" ht="17.5" spans="1:1">
+      <c r="A27" s="12" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="22" ht="17.5" spans="1:1">
-      <c r="A22" s="7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:1">
-      <c r="A23" s="8" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:1">
-      <c r="A24" s="8" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="25" ht="17.5" spans="1:1">
-      <c r="A25" s="9" t="s">
+    <row r="28" ht="17.5" spans="1:1">
+      <c r="A28" s="12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="29" ht="17.5" spans="1:1">
+      <c r="A29" s="11" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:1">
-      <c r="A26" s="9" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="27" ht="17.5" spans="1:1">
-      <c r="A27" s="9" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="28" ht="17.5" spans="1:1">
-      <c r="A28" s="9" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="29" ht="17.5" spans="1:1">
-      <c r="A29" s="8" t="s">
-        <v>689</v>
-      </c>
-    </row>
     <row r="30" ht="17.5" spans="1:1">
-      <c r="A30" s="5" t="s">
-        <v>694</v>
+      <c r="A30" s="8" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:1">
-      <c r="A31" s="5" t="s">
-        <v>695</v>
+      <c r="A31" s="8" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -8901,100 +9032,164 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="18" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="38.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="56.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>698</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="8" ht="17.5" spans="1:1">
-      <c r="A8" s="3" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" ht="15" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:2">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="10" ht="17.5" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="13" ht="17.5" spans="1:1">
-      <c r="A13" s="3" t="s">
+    <row r="5" customHeight="1" spans="2:2">
+      <c r="B5" s="5" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="14" ht="17.5" spans="1:1">
-      <c r="A14" s="3" t="s">
+    <row r="6" customHeight="1" spans="2:2">
+      <c r="B6" s="5" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="16" ht="15" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:2">
+      <c r="B11" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:2">
+      <c r="B12" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:2">
+      <c r="B18" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
       <c r="A19" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>721</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
       <c r="A20" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>723</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
       <c r="A21" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>725</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:1">
       <c r="A22" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:1">
       <c r="A23" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:1">
       <c r="A24" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>

--- a/设计与实现 2.0.xlsx
+++ b/设计与实现 2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12220" windowHeight="12080" activeTab="3"/>
+    <workbookView windowWidth="12220" windowHeight="12080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="毕业设计主题" sheetId="1" r:id="rId1"/>
@@ -3187,6 +3187,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">git reset --hard </t>
     </r>
     <r>
@@ -3228,6 +3234,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">git push -f origin </t>
     </r>
     <r>
@@ -3269,6 +3281,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">git checkout -- </t>
     </r>
     <r>
@@ -3295,6 +3313,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">git reset HEAD </t>
     </r>
     <r>
@@ -3366,6 +3390,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">git pull origin </t>
     </r>
     <r>
@@ -3569,39 +3599,13 @@
   </si>
   <si>
     <r>
-      <t>服务层设计</t>
-    </r>
-    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>：</t>
-    </r>
-  </si>
-  <si>
-    <t>展示用户基本信息（用户名、电话、邮箱、角色、状态）</t>
-  </si>
-  <si>
-    <t>支持搜索、筛选和分页</t>
-  </si>
-  <si>
-    <t>提供编辑、禁用 / 启用用户功能</t>
-  </si>
-  <si>
-    <t>每个模块都有独立的服务文件</t>
-  </si>
-  <si>
-    <t>显示加载状态和空状态</t>
-  </si>
-  <si>
-    <t>使用 axios 处理 HTTP 请求</t>
-  </si>
-  <si>
-    <r>
-      <t>用户编辑页面</t>
+      <t>服务层设计</t>
     </r>
     <r>
       <rPr>
@@ -3614,12 +3618,24 @@
     </r>
   </si>
   <si>
-    <t>包含错误处理和请求配置</t>
-  </si>
-  <si>
-    <r>
-      <t>API 设计特点</t>
-    </r>
+    <t>展示用户基本信息（用户名、电话、邮箱、角色、状态）</t>
+  </si>
+  <si>
+    <t>支持搜索、筛选和分页</t>
+  </si>
+  <si>
+    <t>提供编辑、禁用 / 启用用户功能</t>
+  </si>
+  <si>
+    <t>每个模块都有独立的服务文件</t>
+  </si>
+  <si>
+    <t>显示加载状态和空状态</t>
+  </si>
+  <si>
+    <t>使用 axios 处理 HTTP 请求</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -3627,10 +3643,42 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
+      <t>用户编辑页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>：</t>
     </r>
   </si>
   <si>
+    <t>包含错误处理和请求配置</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>API 设计特点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
     <t>支持创建和编辑用户</t>
   </si>
   <si>
@@ -3653,6 +3701,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>状态管理</t>
     </r>
     <r>
@@ -4004,14 +4058,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9.5"/>
+      <color rgb="FF404040"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FF404040"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -4759,7 +4813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4783,9 +4837,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5313,10 +5364,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="225" spans="1:2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5351,33 +5402,33 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" customHeight="1" spans="1:13">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="62" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5385,17 +5436,17 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="J3" s="64" t="s">
+      <c r="G3" s="21"/>
+      <c r="J3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="65" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5403,19 +5454,19 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="62" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5423,19 +5474,19 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="65" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5443,19 +5494,19 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="62" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5463,19 +5514,19 @@
       <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="66" t="s">
+      <c r="M7" s="65" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5483,19 +5534,19 @@
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="63" t="s">
+      <c r="M8" s="62" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5503,17 +5554,17 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="J9" s="64" t="s">
+      <c r="G9" s="21"/>
+      <c r="J9" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="65" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5521,19 +5572,19 @@
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="M10" s="62" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5541,19 +5592,19 @@
       <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="65" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5561,27 +5612,27 @@
       <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="69" t="s">
+      <c r="M12" s="68" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5589,13 +5640,13 @@
       <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="49" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5603,7 +5654,7 @@
       <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="49" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5611,7 +5662,7 @@
       <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5619,7 +5670,7 @@
       <c r="A18" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="52" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5627,13 +5678,13 @@
       <c r="A19" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
       <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="53" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5641,7 +5692,7 @@
       <c r="A21" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="53" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5649,7 +5700,7 @@
       <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="48" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5657,7 +5708,7 @@
       <c r="A23" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="52" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5665,13 +5716,13 @@
       <c r="A24" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
       <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="54" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5679,7 +5730,7 @@
       <c r="A26" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="55" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5687,7 +5738,7 @@
       <c r="A27" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="55" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5695,7 +5746,7 @@
       <c r="A28" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="52" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5703,13 +5754,13 @@
       <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="55" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5717,7 +5768,7 @@
       <c r="A31" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="55" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5725,7 +5776,7 @@
       <c r="A32" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="55" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5733,7 +5784,7 @@
       <c r="A33" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="52" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5741,13 +5792,13 @@
       <c r="A34" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="22"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="54" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5755,7 +5806,7 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="54" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5763,7 +5814,7 @@
       <c r="A37" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="55" t="s">
+      <c r="G37" s="54" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5771,7 +5822,7 @@
       <c r="A38" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="53" t="s">
+      <c r="G38" s="52" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5779,13 +5830,13 @@
       <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="22"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" customHeight="1" spans="1:7">
       <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="54" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5793,7 +5844,7 @@
       <c r="A41" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="54" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5801,7 +5852,7 @@
       <c r="A42" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="54" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5809,7 +5860,7 @@
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="52" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5817,13 +5868,13 @@
       <c r="A44" t="s">
         <v>121</v>
       </c>
-      <c r="G44" s="22"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" customHeight="1" spans="1:7">
       <c r="A45" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="54" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5831,7 +5882,7 @@
       <c r="A46" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="55" t="s">
+      <c r="G46" s="54" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5839,7 +5890,7 @@
       <c r="A47" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G47" s="54" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5847,7 +5898,7 @@
       <c r="A48" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="53" t="s">
+      <c r="G48" s="52" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5855,13 +5906,13 @@
       <c r="A49" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="22"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" customHeight="1" spans="1:7">
       <c r="A50" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5869,7 +5920,7 @@
       <c r="A51" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="54" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5877,7 +5928,7 @@
       <c r="A52" t="s">
         <v>135</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="54" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5885,7 +5936,7 @@
       <c r="A53" t="s">
         <v>137</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="48" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5893,7 +5944,7 @@
       <c r="A54" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="21" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5901,258 +5952,258 @@
       <c r="A55" t="s">
         <v>141</v>
       </c>
-      <c r="G55" s="22"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
       <c r="A56" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="57" t="s">
+      <c r="G56" s="56" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:7">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="G57" s="57" t="s">
+      <c r="G57" s="56" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="57" t="s">
+      <c r="G58" s="56" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="21" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="22"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="G61" s="57" t="s">
+      <c r="G61" s="56" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="G62" s="57" t="s">
+      <c r="G62" s="56" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="G63" s="57" t="s">
+      <c r="G63" s="56" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="21" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="G65" s="22"/>
+      <c r="G65" s="21"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="G66" s="57" t="s">
+      <c r="G66" s="56" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="G67" s="57" t="s">
+      <c r="G67" s="56" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="70" t="s">
+      <c r="D68" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="G68" s="57" t="s">
+      <c r="G68" s="56" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="G70" s="22"/>
+      <c r="G70" s="21"/>
     </row>
     <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="G71" s="57" t="s">
+      <c r="G71" s="56" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="G72" s="57" t="s">
+      <c r="G72" s="56" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="G73" s="57" t="s">
+      <c r="G73" s="56" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="59" t="s">
+      <c r="D74" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="G74" s="21" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="D75" s="59" t="s">
+      <c r="D75" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="G75" s="22"/>
+      <c r="G75" s="21"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D76" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="G76" s="57" t="s">
+      <c r="G76" s="56" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="D77" s="59" t="s">
+      <c r="D77" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="57" t="s">
+      <c r="G77" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="D78" s="59" t="s">
+      <c r="D78" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="G78" s="57" t="s">
+      <c r="G78" s="56" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="D79" s="59" t="s">
+      <c r="D79" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="G79" s="49" t="s">
+      <c r="G79" s="48" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6160,10 +6211,10 @@
       <c r="A80" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="59" t="s">
+      <c r="D80" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="21" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6171,19 +6222,19 @@
       <c r="A81" t="s">
         <v>210</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D81" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="G81" s="22"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
       <c r="A82" t="s">
         <v>212</v>
       </c>
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="G82" s="50" t="s">
+      <c r="G82" s="49" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6191,10 +6242,10 @@
       <c r="A83" t="s">
         <v>214</v>
       </c>
-      <c r="D83" s="59" t="s">
+      <c r="D83" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="G83" s="50" t="s">
+      <c r="G83" s="49" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6202,10 +6253,10 @@
       <c r="A84" t="s">
         <v>217</v>
       </c>
-      <c r="D84" s="59" t="s">
+      <c r="D84" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="G84" s="22" t="s">
+      <c r="G84" s="21" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6213,19 +6264,19 @@
       <c r="A85" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="59" t="s">
+      <c r="D85" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="G85" s="22"/>
+      <c r="G85" s="21"/>
     </row>
     <row r="86" customHeight="1" spans="1:7">
       <c r="A86" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="59" t="s">
+      <c r="D86" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="G86" s="50" t="s">
+      <c r="G86" s="49" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6233,10 +6284,10 @@
       <c r="A87" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="59" t="s">
+      <c r="D87" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="G87" s="50" t="s">
+      <c r="G87" s="49" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6244,10 +6295,10 @@
       <c r="A88" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="59" t="s">
+      <c r="D88" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="G88" s="50" t="s">
+      <c r="G88" s="49" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6255,7 +6306,7 @@
       <c r="A89" t="s">
         <v>230</v>
       </c>
-      <c r="G89" s="49" t="s">
+      <c r="G89" s="48" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6263,7 +6314,7 @@
       <c r="A90" t="s">
         <v>232</v>
       </c>
-      <c r="G90" s="22" t="s">
+      <c r="G90" s="21" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6271,13 +6322,13 @@
       <c r="A91" t="s">
         <v>234</v>
       </c>
-      <c r="G91" s="22"/>
+      <c r="G91" s="21"/>
     </row>
     <row r="92" customHeight="1" spans="1:7">
       <c r="A92" t="s">
         <v>40</v>
       </c>
-      <c r="G92" s="50" t="s">
+      <c r="G92" s="49" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6285,7 +6336,7 @@
       <c r="A93" t="s">
         <v>236</v>
       </c>
-      <c r="G93" s="50" t="s">
+      <c r="G93" s="49" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6293,7 +6344,7 @@
       <c r="A94" t="s">
         <v>238</v>
       </c>
-      <c r="G94" s="22" t="s">
+      <c r="G94" s="21" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6301,13 +6352,13 @@
       <c r="A95" t="s">
         <v>240</v>
       </c>
-      <c r="G95" s="22"/>
+      <c r="G95" s="21"/>
     </row>
     <row r="96" customHeight="1" spans="1:7">
       <c r="A96" t="s">
         <v>169</v>
       </c>
-      <c r="G96" s="54" t="s">
+      <c r="G96" s="53" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6315,7 +6366,7 @@
       <c r="A97" t="s">
         <v>242</v>
       </c>
-      <c r="G97" s="54" t="s">
+      <c r="G97" s="53" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6323,7 +6374,7 @@
       <c r="A98" t="s">
         <v>244</v>
       </c>
-      <c r="G98" s="22" t="s">
+      <c r="G98" s="21" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6331,13 +6382,13 @@
       <c r="A99" t="s">
         <v>246</v>
       </c>
-      <c r="G99" s="22"/>
+      <c r="G99" s="21"/>
     </row>
     <row r="100" customHeight="1" spans="1:7">
       <c r="A100" t="s">
         <v>247</v>
       </c>
-      <c r="G100" s="50" t="s">
+      <c r="G100" s="49" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6345,7 +6396,7 @@
       <c r="A101" t="s">
         <v>249</v>
       </c>
-      <c r="G101" s="49" t="s">
+      <c r="G101" s="48" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6353,7 +6404,7 @@
       <c r="A102" t="s">
         <v>251</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G102" s="21" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6361,13 +6412,13 @@
       <c r="A103" t="s">
         <v>253</v>
       </c>
-      <c r="G103" s="22"/>
+      <c r="G103" s="21"/>
     </row>
     <row r="104" customHeight="1" spans="1:7">
       <c r="A104" t="s">
         <v>254</v>
       </c>
-      <c r="G104" s="50" t="s">
+      <c r="G104" s="49" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6375,7 +6426,7 @@
       <c r="A105" t="s">
         <v>256</v>
       </c>
-      <c r="G105" s="50" t="s">
+      <c r="G105" s="49" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6383,7 +6434,7 @@
       <c r="A106" t="s">
         <v>258</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="G106" s="21" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6391,13 +6442,13 @@
       <c r="A107" t="s">
         <v>253</v>
       </c>
-      <c r="G107" s="22"/>
+      <c r="G107" s="21"/>
     </row>
     <row r="108" customHeight="1" spans="1:7">
       <c r="A108" t="s">
         <v>260</v>
       </c>
-      <c r="G108" s="50" t="s">
+      <c r="G108" s="49" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6405,7 +6456,7 @@
       <c r="A109" t="s">
         <v>262</v>
       </c>
-      <c r="G109" s="50" t="s">
+      <c r="G109" s="49" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6413,7 +6464,7 @@
       <c r="A110" t="s">
         <v>264</v>
       </c>
-      <c r="G110" s="50" t="s">
+      <c r="G110" s="49" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6421,7 +6472,7 @@
       <c r="A111" t="s">
         <v>266</v>
       </c>
-      <c r="G111" s="22" t="s">
+      <c r="G111" s="21" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6429,13 +6480,13 @@
       <c r="A112" t="s">
         <v>268</v>
       </c>
-      <c r="G112" s="22"/>
+      <c r="G112" s="21"/>
     </row>
     <row r="113" customHeight="1" spans="1:7">
       <c r="A113" t="s">
         <v>269</v>
       </c>
-      <c r="G113" s="50" t="s">
+      <c r="G113" s="49" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6443,7 +6494,7 @@
       <c r="A114" t="s">
         <v>271</v>
       </c>
-      <c r="G114" s="50" t="s">
+      <c r="G114" s="49" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6451,7 +6502,7 @@
       <c r="A115" t="s">
         <v>273</v>
       </c>
-      <c r="G115" s="22" t="s">
+      <c r="G115" s="21" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6459,13 +6510,13 @@
       <c r="A116" t="s">
         <v>275</v>
       </c>
-      <c r="G116" s="22"/>
+      <c r="G116" s="21"/>
     </row>
     <row r="117" customHeight="1" spans="1:7">
       <c r="A117" t="s">
         <v>276</v>
       </c>
-      <c r="G117" s="50" t="s">
+      <c r="G117" s="49" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6473,7 +6524,7 @@
       <c r="A118" t="s">
         <v>278</v>
       </c>
-      <c r="G118" s="50" t="s">
+      <c r="G118" s="49" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6481,7 +6532,7 @@
       <c r="A119" t="s">
         <v>280</v>
       </c>
-      <c r="G119" s="22" t="s">
+      <c r="G119" s="21" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6489,13 +6540,13 @@
       <c r="A120" t="s">
         <v>169</v>
       </c>
-      <c r="G120" s="22"/>
+      <c r="G120" s="21"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
       <c r="A121" t="s">
         <v>282</v>
       </c>
-      <c r="G121" s="50" t="s">
+      <c r="G121" s="49" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6503,7 +6554,7 @@
       <c r="A122" t="s">
         <v>195</v>
       </c>
-      <c r="G122" s="50" t="s">
+      <c r="G122" s="49" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6511,7 +6562,7 @@
       <c r="A123" t="s">
         <v>285</v>
       </c>
-      <c r="G123" s="49" t="s">
+      <c r="G123" s="48" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6519,7 +6570,7 @@
       <c r="A124" t="s">
         <v>287</v>
       </c>
-      <c r="G124" s="22" t="s">
+      <c r="G124" s="21" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6527,13 +6578,13 @@
       <c r="A125" t="s">
         <v>289</v>
       </c>
-      <c r="G125" s="22"/>
+      <c r="G125" s="21"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
       <c r="A126" t="s">
         <v>290</v>
       </c>
-      <c r="G126" s="50" t="s">
+      <c r="G126" s="49" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6541,7 +6592,7 @@
       <c r="A127" t="s">
         <v>292</v>
       </c>
-      <c r="G127" s="22" t="s">
+      <c r="G127" s="21" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6549,339 +6600,339 @@
       <c r="A128" t="s">
         <v>294</v>
       </c>
-      <c r="G128" s="22"/>
+      <c r="G128" s="21"/>
     </row>
     <row r="129" customHeight="1" spans="1:7">
       <c r="A129" t="s">
         <v>295</v>
       </c>
-      <c r="G129" s="50" t="s">
+      <c r="G129" s="49" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="7:7">
-      <c r="G130" s="50" t="s">
+      <c r="G130" s="49" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="7:7">
-      <c r="G131" s="22" t="s">
+      <c r="G131" s="21" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="7:7">
-      <c r="G132" s="22"/>
+      <c r="G132" s="21"/>
     </row>
     <row r="133" customHeight="1" spans="7:7">
-      <c r="G133" s="50" t="s">
+      <c r="G133" s="49" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="7:7">
-      <c r="G134" s="50" t="s">
+      <c r="G134" s="49" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="7:7">
-      <c r="G135" s="49" t="s">
+      <c r="G135" s="48" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="7:7">
-      <c r="G136" s="22" t="s">
+      <c r="G136" s="21" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="7:7">
-      <c r="G137" s="22"/>
+      <c r="G137" s="21"/>
     </row>
     <row r="138" customHeight="1" spans="7:7">
-      <c r="G138" s="50" t="s">
+      <c r="G138" s="49" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="7:7">
-      <c r="G139" s="50" t="s">
+      <c r="G139" s="49" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="7:7">
-      <c r="G140" s="50" t="s">
+      <c r="G140" s="49" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="7:7">
-      <c r="G141" s="22" t="s">
+      <c r="G141" s="21" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="7:7">
-      <c r="G142" s="22"/>
+      <c r="G142" s="21"/>
     </row>
     <row r="143" customHeight="1" spans="7:7">
-      <c r="G143" s="50" t="s">
+      <c r="G143" s="49" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="7:7">
-      <c r="G144" s="50" t="s">
+      <c r="G144" s="49" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="7:7">
-      <c r="G145" s="22" t="s">
+      <c r="G145" s="21" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="7:7">
-      <c r="G146" s="22"/>
+      <c r="G146" s="21"/>
     </row>
     <row r="147" customHeight="1" spans="7:7">
-      <c r="G147" s="50" t="s">
+      <c r="G147" s="49" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="7:7">
-      <c r="G148" s="50" t="s">
+      <c r="G148" s="49" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="7:7">
-      <c r="G149" s="22" t="s">
+      <c r="G149" s="21" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="7:7">
-      <c r="G150" s="22"/>
+      <c r="G150" s="21"/>
     </row>
     <row r="151" customHeight="1" spans="7:7">
-      <c r="G151" s="50" t="s">
+      <c r="G151" s="49" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="7:7">
-      <c r="G152" s="50" t="s">
+      <c r="G152" s="49" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="7:7">
-      <c r="G153" s="22" t="s">
+      <c r="G153" s="21" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="7:7">
-      <c r="G154" s="22"/>
+      <c r="G154" s="21"/>
     </row>
     <row r="155" customHeight="1" spans="7:7">
-      <c r="G155" s="50" t="s">
+      <c r="G155" s="49" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="7:7">
-      <c r="G156" s="50" t="s">
+      <c r="G156" s="49" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="7:7">
-      <c r="G157" s="22"/>
+      <c r="G157" s="21"/>
     </row>
     <row r="158" customHeight="1" spans="7:7">
-      <c r="G158" s="50" t="s">
+      <c r="G158" s="49" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="7:7">
-      <c r="G159" s="50" t="s">
+      <c r="G159" s="49" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="7:7">
-      <c r="G160" s="22" t="s">
+      <c r="G160" s="21" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="7:7">
-      <c r="G161" s="22"/>
+      <c r="G161" s="21"/>
     </row>
     <row r="162" customHeight="1" spans="7:7">
-      <c r="G162" s="50" t="s">
+      <c r="G162" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="7:7">
-      <c r="G163" s="50" t="s">
+      <c r="G163" s="49" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="7:7">
-      <c r="G164" s="22" t="s">
+      <c r="G164" s="21" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="7:7">
-      <c r="G165" s="22"/>
+      <c r="G165" s="21"/>
     </row>
     <row r="166" customHeight="1" spans="7:7">
-      <c r="G166" s="50" t="s">
+      <c r="G166" s="49" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="7:7">
-      <c r="G167" s="50" t="s">
+      <c r="G167" s="49" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="7:7">
-      <c r="G168" s="49" t="s">
+      <c r="G168" s="48" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="7:7">
-      <c r="G169" s="22" t="s">
+      <c r="G169" s="21" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="7:7">
-      <c r="G170" s="22"/>
+      <c r="G170" s="21"/>
     </row>
     <row r="171" customHeight="1" spans="7:7">
-      <c r="G171" s="50" t="s">
+      <c r="G171" s="49" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="7:7">
-      <c r="G172" s="22" t="s">
+      <c r="G172" s="21" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="7:7">
-      <c r="G173" s="22"/>
+      <c r="G173" s="21"/>
     </row>
     <row r="174" customHeight="1" spans="7:7">
-      <c r="G174" s="50" t="s">
+      <c r="G174" s="49" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="7:7">
-      <c r="G175" s="50" t="s">
+      <c r="G175" s="49" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="7:7">
-      <c r="G176" s="22" t="s">
+      <c r="G176" s="21" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="7:7">
-      <c r="G177" s="22"/>
+      <c r="G177" s="21"/>
     </row>
     <row r="178" customHeight="1" spans="7:7">
-      <c r="G178" s="50" t="s">
+      <c r="G178" s="49" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="7:7">
-      <c r="G179" s="50" t="s">
+      <c r="G179" s="49" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="7:7">
-      <c r="G180" s="49" t="s">
+      <c r="G180" s="48" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="7:7">
-      <c r="G181" s="22" t="s">
+      <c r="G181" s="21" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="7:7">
-      <c r="G182" s="22"/>
+      <c r="G182" s="21"/>
     </row>
     <row r="183" customHeight="1" spans="7:7">
-      <c r="G183" s="50" t="s">
+      <c r="G183" s="49" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="7:7">
-      <c r="G184" s="50" t="s">
+      <c r="G184" s="49" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="7:7">
-      <c r="G185" s="50" t="s">
+      <c r="G185" s="49" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="7:7">
-      <c r="G186" s="22" t="s">
+      <c r="G186" s="21" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="7:7">
-      <c r="G187" s="22"/>
+      <c r="G187" s="21"/>
     </row>
     <row r="188" customHeight="1" spans="7:7">
-      <c r="G188" s="50" t="s">
+      <c r="G188" s="49" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="7:7">
-      <c r="G189" s="50" t="s">
+      <c r="G189" s="49" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="7:7">
-      <c r="G190" s="22" t="s">
+      <c r="G190" s="21" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="7:7">
-      <c r="G191" s="22"/>
+      <c r="G191" s="21"/>
     </row>
     <row r="192" customHeight="1" spans="7:7">
-      <c r="G192" s="50" t="s">
+      <c r="G192" s="49" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="7:7">
-      <c r="G193" s="50" t="s">
+      <c r="G193" s="49" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="7:7">
-      <c r="G194" s="22" t="s">
+      <c r="G194" s="21" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="7:7">
-      <c r="G195" s="22"/>
+      <c r="G195" s="21"/>
     </row>
     <row r="196" customHeight="1" spans="7:7">
-      <c r="G196" s="50" t="s">
+      <c r="G196" s="49" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="7:7">
-      <c r="G197" s="50" t="s">
+      <c r="G197" s="49" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="7:7">
-      <c r="G198" s="22" t="s">
+      <c r="G198" s="21" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="7:7">
-      <c r="G199" s="22"/>
+      <c r="G199" s="21"/>
     </row>
     <row r="200" customHeight="1" spans="7:7">
-      <c r="G200" s="50" t="s">
+      <c r="G200" s="49" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="7:7">
-      <c r="G201" s="50" t="s">
+      <c r="G201" s="49" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6900,8 +6951,8 @@
   <sheetPr/>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -6918,37 +6969,37 @@
     <col min="10" max="10" width="21.2090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="25" customHeight="1" spans="1:10">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="18" customFormat="1" ht="25" customHeight="1" spans="1:10">
+      <c r="A1" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="42" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6956,19 +7007,19 @@
       <c r="A3" t="s">
         <v>322</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="43" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6976,19 +7027,19 @@
       <c r="A4" t="s">
         <v>326</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="42" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6996,22 +7047,22 @@
       <c r="A5" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="43" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7019,22 +7070,22 @@
       <c r="A6" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="42" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7042,22 +7093,22 @@
       <c r="A7" t="s">
         <v>341</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="43" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7065,22 +7116,22 @@
       <c r="A8" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="42" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7088,22 +7139,22 @@
       <c r="A9" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="43" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7111,22 +7162,22 @@
       <c r="A10" t="s">
         <v>356</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7134,22 +7185,22 @@
       <c r="A11" t="s">
         <v>360</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="43" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7157,22 +7208,22 @@
       <c r="A12" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="44" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7180,22 +7231,22 @@
       <c r="A13" t="s">
         <v>370</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="46"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7203,7 +7254,7 @@
       <c r="A15" t="s">
         <v>373</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>374</v>
       </c>
       <c r="E15" t="s">
@@ -7214,7 +7265,7 @@
       <c r="A16" t="s">
         <v>376</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7383,47 +7434,47 @@
       <c r="A48" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="38" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="40" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="30" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="31" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="30" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="31" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7431,23 +7482,23 @@
       <c r="A54" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="30" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="31" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:3">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="30" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7455,55 +7506,55 @@
       <c r="A57" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="31" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="30" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="41" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="30" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="31" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="30" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="31" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7511,55 +7562,55 @@
       <c r="A64" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="30" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:3">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="39" t="s">
         <v>432</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="31" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:3">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="30" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:3">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="31" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:3">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="30" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:3">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="41" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="30" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7567,47 +7618,47 @@
       <c r="A71" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="C71" s="31" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:3">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="30" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:3">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="31" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:3">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="30" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="31" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:3">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="30" t="s">
         <v>452</v>
       </c>
     </row>
@@ -7615,7 +7666,7 @@
       <c r="A77" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="31" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7623,7 +7674,7 @@
       <c r="A78" t="s">
         <v>454</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="46" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7631,7 +7682,7 @@
       <c r="A79" t="s">
         <v>455</v>
       </c>
-      <c r="C79" s="32" t="s">
+      <c r="C79" s="31" t="s">
         <v>456</v>
       </c>
     </row>
@@ -7639,7 +7690,7 @@
       <c r="A80" t="s">
         <v>457</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="30" t="s">
         <v>458</v>
       </c>
     </row>
@@ -7647,7 +7698,7 @@
       <c r="A81" t="s">
         <v>459</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="31" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7655,7 +7706,7 @@
       <c r="A82" t="s">
         <v>253</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="30" t="s">
         <v>461</v>
       </c>
     </row>
@@ -7663,7 +7714,7 @@
       <c r="A83" t="s">
         <v>462</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C83" s="31" t="s">
         <v>463</v>
       </c>
     </row>
@@ -7671,7 +7722,7 @@
       <c r="A84" t="s">
         <v>464</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="30" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7679,7 +7730,7 @@
       <c r="A85" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C85" s="31" t="s">
         <v>466</v>
       </c>
     </row>
@@ -7687,7 +7738,7 @@
       <c r="A86" t="s">
         <v>467</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C86" s="30" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7695,7 +7746,7 @@
       <c r="A87" t="s">
         <v>469</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="41" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7703,7 +7754,7 @@
       <c r="A88" t="s">
         <v>470</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="30" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7711,7 +7762,7 @@
       <c r="A89" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="32" t="s">
+      <c r="C89" s="31" t="s">
         <v>472</v>
       </c>
     </row>
@@ -7719,7 +7770,7 @@
       <c r="A90" t="s">
         <v>473</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="30" t="s">
         <v>474</v>
       </c>
     </row>
@@ -7727,7 +7778,7 @@
       <c r="A91" t="s">
         <v>475</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C91" s="31" t="s">
         <v>476</v>
       </c>
     </row>
@@ -7735,7 +7786,7 @@
       <c r="A92" t="s">
         <v>477</v>
       </c>
-      <c r="C92" s="31" t="s">
+      <c r="C92" s="30" t="s">
         <v>478</v>
       </c>
     </row>
@@ -7743,7 +7794,7 @@
       <c r="A93" t="s">
         <v>479</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="C93" s="31" t="s">
         <v>480</v>
       </c>
     </row>
@@ -7751,7 +7802,7 @@
       <c r="A94" t="s">
         <v>253</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="C94" s="30" t="s">
         <v>481</v>
       </c>
     </row>
@@ -7759,7 +7810,7 @@
       <c r="A95" t="s">
         <v>482</v>
       </c>
-      <c r="C95" s="32" t="s">
+      <c r="C95" s="31" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7767,7 +7818,7 @@
       <c r="A96" t="s">
         <v>484</v>
       </c>
-      <c r="C96" s="48" t="s">
+      <c r="C96" s="47" t="s">
         <v>485</v>
       </c>
     </row>
@@ -7889,7 +7940,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b026cd65-f972-4f03-8582-83de85967935}</x14:id>
+          <x14:id>{0f6d2de9-3f57-4708-95cf-6c5ad3de6481}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7900,7 +7951,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b026cd65-f972-4f03-8582-83de85967935}">
+          <x14:cfRule type="dataBar" id="{0f6d2de9-3f57-4708-95cf-6c5ad3de6481}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7923,7 +7974,7 @@
   <sheetPr/>
   <dimension ref="A1:A291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
@@ -7938,40 +7989,40 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>510</v>
       </c>
     </row>
@@ -7981,25 +8032,25 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
     </row>
     <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>515</v>
       </c>
     </row>
@@ -8009,35 +8060,35 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>522</v>
       </c>
     </row>
@@ -8047,55 +8098,55 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:1">
-      <c r="A38" s="13"/>
+      <c r="A38" s="12"/>
     </row>
     <row r="39" customHeight="1" spans="1:1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:1">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>532</v>
       </c>
     </row>
@@ -8105,60 +8156,60 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:1">
-      <c r="A56" s="13"/>
+      <c r="A56" s="12"/>
     </row>
     <row r="57" customHeight="1" spans="1:1">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:1">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:1">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:1">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:1">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:1">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:1">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:1">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>544</v>
       </c>
     </row>
@@ -8168,85 +8219,85 @@
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:1">
-      <c r="A76" s="13"/>
+      <c r="A76" s="12"/>
     </row>
     <row r="77" customHeight="1" spans="1:1">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="13" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:1">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:1">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="13" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:1">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:1">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="13" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:1">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:1">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:1">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="16" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:1">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="13" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:1">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:1">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="13" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:1">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="14" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:1">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="13" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:1">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="14" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:1">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="13" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:1">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="14" t="s">
         <v>561</v>
       </c>
     </row>
@@ -8256,75 +8307,75 @@
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:1">
-      <c r="A103" s="13"/>
+      <c r="A103" s="12"/>
     </row>
     <row r="104" customHeight="1" spans="1:1">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:1">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="13" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:1">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:1">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="13" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:1">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:1">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="13" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:1">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:1">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="13" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:1">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:1">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="13" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:1">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:1">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="14" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:1">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="13" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:1">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="14" t="s">
         <v>575</v>
       </c>
     </row>
@@ -8334,75 +8385,75 @@
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:1">
-      <c r="A127" s="13"/>
+      <c r="A127" s="12"/>
     </row>
     <row r="128" customHeight="1" spans="1:1">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="14" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:1">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="13" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:1">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="13" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:1">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="13" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:1">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="13" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:1">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="13" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:1">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="13" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:1">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="13" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:1">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="14" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:1">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="13" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:1">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="13" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:1">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="14" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:1">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="14" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:1">
-      <c r="A143" s="16" t="s">
+      <c r="A143" s="15" t="s">
         <v>590</v>
       </c>
     </row>
@@ -8412,45 +8463,45 @@
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:1">
-      <c r="A147" s="13"/>
+      <c r="A147" s="12"/>
     </row>
     <row r="148" customHeight="1" spans="1:1">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="13" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:1">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="14" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:1">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="13" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:1">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="14" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:1">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="13" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:1">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="14" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:1">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="13" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:1">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="14" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8460,60 +8511,60 @@
       </c>
     </row>
     <row r="162" customHeight="1" spans="1:1">
-      <c r="A162" s="13"/>
+      <c r="A162" s="12"/>
     </row>
     <row r="163" customHeight="1" spans="1:1">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="13" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:1">
-      <c r="A164" s="15" t="s">
+      <c r="A164" s="14" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:1">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="13" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:1">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="16" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:1">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="13" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:1">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="14" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:1">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="13" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="1:1">
-      <c r="A173" s="17" t="s">
+      <c r="A173" s="16" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:1">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="13" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:1">
-      <c r="A176" s="15" t="s">
+      <c r="A176" s="14" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:1">
-      <c r="A178" s="16" t="s">
+      <c r="A178" s="15" t="s">
         <v>611</v>
       </c>
     </row>
@@ -8523,45 +8574,45 @@
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:1">
-      <c r="A182" s="13"/>
+      <c r="A182" s="12"/>
     </row>
     <row r="183" customHeight="1" spans="1:1">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="13" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="1:1">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="14" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="1:1">
-      <c r="A186" s="14" t="s">
+      <c r="A186" s="13" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="1:1">
-      <c r="A187" s="15" t="s">
+      <c r="A187" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="1:1">
-      <c r="A189" s="14" t="s">
+      <c r="A189" s="13" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="1:1">
-      <c r="A190" s="17" t="s">
+      <c r="A190" s="16" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="1:1">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="13" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="1:1">
-      <c r="A193" s="17" t="s">
+      <c r="A193" s="16" t="s">
         <v>620</v>
       </c>
     </row>
@@ -8571,70 +8622,70 @@
       </c>
     </row>
     <row r="197" customHeight="1" spans="1:1">
-      <c r="A197" s="13"/>
+      <c r="A197" s="12"/>
     </row>
     <row r="198" customHeight="1" spans="1:1">
-      <c r="A198" s="14" t="s">
+      <c r="A198" s="13" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="1:1">
-      <c r="A199" s="15" t="s">
+      <c r="A199" s="14" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="201" customHeight="1" spans="1:1">
-      <c r="A201" s="14" t="s">
+      <c r="A201" s="13" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="1:1">
-      <c r="A202" s="15" t="s">
+      <c r="A202" s="14" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="1:1">
-      <c r="A204" s="14" t="s">
+      <c r="A204" s="13" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="1:1">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="14" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="1:1">
-      <c r="A207" s="14" t="s">
+      <c r="A207" s="13" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="1:1">
-      <c r="A208" s="15" t="s">
+      <c r="A208" s="14" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="1:1">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="13" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="1:1">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="14" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="1:1">
-      <c r="A213" s="14" t="s">
+      <c r="A213" s="13" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="1:1">
-      <c r="A214" s="15" t="s">
+      <c r="A214" s="14" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="216" customHeight="1" spans="1:1">
-      <c r="A216" s="16" t="s">
+      <c r="A216" s="15" t="s">
         <v>634</v>
       </c>
     </row>
@@ -8644,40 +8695,40 @@
       </c>
     </row>
     <row r="220" customHeight="1" spans="1:1">
-      <c r="A220" s="13"/>
+      <c r="A220" s="12"/>
     </row>
     <row r="221" customHeight="1" spans="1:1">
-      <c r="A221" s="14" t="s">
+      <c r="A221" s="13" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="222" customHeight="1" spans="1:1">
-      <c r="A222" s="17" t="s">
+      <c r="A222" s="16" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="1:1">
-      <c r="A224" s="14" t="s">
+      <c r="A224" s="13" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="225" customHeight="1" spans="1:1">
-      <c r="A225" s="15" t="s">
+      <c r="A225" s="14" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="1:1">
-      <c r="A227" s="14" t="s">
+      <c r="A227" s="13" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="228" customHeight="1" spans="1:1">
-      <c r="A228" s="15" t="s">
+      <c r="A228" s="14" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="229" customHeight="1" spans="1:1">
-      <c r="A229" s="15" t="s">
+      <c r="A229" s="14" t="s">
         <v>642</v>
       </c>
     </row>
@@ -8687,65 +8738,65 @@
       </c>
     </row>
     <row r="233" customHeight="1" spans="1:1">
-      <c r="A233" s="13"/>
+      <c r="A233" s="12"/>
     </row>
     <row r="234" customHeight="1" spans="1:1">
-      <c r="A234" s="14" t="s">
+      <c r="A234" s="13" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="235" customHeight="1" spans="1:1">
-      <c r="A235" s="14" t="s">
+      <c r="A235" s="13" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="237" customHeight="1" spans="1:1">
-      <c r="A237" s="14" t="s">
+      <c r="A237" s="13" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="238" customHeight="1" spans="1:1">
-      <c r="A238" s="15" t="s">
+      <c r="A238" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="240" customHeight="1" spans="1:1">
-      <c r="A240" s="14" t="s">
+      <c r="A240" s="13" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="1:1">
-      <c r="A241" s="15" t="s">
+      <c r="A241" s="14" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="243" customHeight="1" spans="1:1">
-      <c r="A243" s="14" t="s">
+      <c r="A243" s="13" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="244" customHeight="1" spans="1:1">
-      <c r="A244" s="15" t="s">
+      <c r="A244" s="14" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="1:1">
-      <c r="A245" s="15" t="s">
+      <c r="A245" s="14" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="1:1">
-      <c r="A247" s="14" t="s">
+      <c r="A247" s="13" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="248" customHeight="1" spans="1:1">
-      <c r="A248" s="15" t="s">
+      <c r="A248" s="14" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="250" customHeight="1" spans="1:1">
-      <c r="A250" s="16" t="s">
+      <c r="A250" s="15" t="s">
         <v>654</v>
       </c>
     </row>
@@ -8755,30 +8806,30 @@
       </c>
     </row>
     <row r="254" customHeight="1" spans="1:1">
-      <c r="A254" s="13"/>
+      <c r="A254" s="12"/>
     </row>
     <row r="255" customHeight="1" spans="1:1">
-      <c r="A255" s="14" t="s">
+      <c r="A255" s="13" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="1:1">
-      <c r="A256" s="15" t="s">
+      <c r="A256" s="14" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="258" customHeight="1" spans="1:1">
-      <c r="A258" s="14" t="s">
+      <c r="A258" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="1:1">
-      <c r="A259" s="15" t="s">
+      <c r="A259" s="14" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="260" customHeight="1" spans="1:1">
-      <c r="A260" s="15" t="s">
+      <c r="A260" s="14" t="s">
         <v>660</v>
       </c>
     </row>
@@ -8788,88 +8839,88 @@
       </c>
     </row>
     <row r="264" customHeight="1" spans="1:1">
-      <c r="A264" s="13"/>
+      <c r="A264" s="12"/>
     </row>
     <row r="265" customHeight="1" spans="1:1">
-      <c r="A265" s="14" t="s">
+      <c r="A265" s="13" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="1:1">
-      <c r="A266" s="15" t="s">
+      <c r="A266" s="14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="268" customHeight="1" spans="1:1">
-      <c r="A268" s="14" t="s">
+      <c r="A268" s="13" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="269" customHeight="1" spans="1:1">
-      <c r="A269" s="15" t="s">
+      <c r="A269" s="14" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="1:1">
-      <c r="A271" s="14" t="s">
+      <c r="A271" s="13" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="1:1">
-      <c r="A272" s="15" t="s">
+      <c r="A272" s="14" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="278" customHeight="1" spans="1:1">
-      <c r="A278" s="18" t="s">
+      <c r="A278" s="17" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="1:1">
-      <c r="A280" s="13"/>
+      <c r="A280" s="12"/>
     </row>
     <row r="281" customHeight="1" spans="1:1">
-      <c r="A281" s="15" t="s">
+      <c r="A281" s="14" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="282" customHeight="1" spans="1:1">
-      <c r="A282" s="15" t="s">
+      <c r="A282" s="14" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="1:1">
-      <c r="A284" s="14" t="s">
+      <c r="A284" s="13" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="285" customHeight="1" spans="1:1">
-      <c r="A285" s="15" t="s">
+      <c r="A285" s="14" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="1:1">
-      <c r="A286" s="15" t="s">
+      <c r="A286" s="14" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="288" customHeight="1" spans="1:1">
-      <c r="A288" s="14" t="s">
+      <c r="A288" s="13" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="1:1">
-      <c r="A289" s="15" t="s">
+      <c r="A289" s="14" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="1:1">
-      <c r="A290" s="15" t="s">
+      <c r="A290" s="14" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="291" customHeight="1" spans="1:1">
-      <c r="A291" s="15" t="s">
+      <c r="A291" s="14" t="s">
         <v>575</v>
       </c>
     </row>
@@ -8899,12 +8950,12 @@
       </c>
     </row>
     <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="4" ht="17.5" spans="1:1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>678</v>
       </c>
     </row>
@@ -8914,7 +8965,7 @@
       </c>
     </row>
     <row r="8" ht="15" spans="1:1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>680</v>
       </c>
     </row>
@@ -8924,102 +8975,102 @@
       </c>
     </row>
     <row r="12" ht="17.5" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="13" ht="17.5" spans="1:1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="14" ht="17.5" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="17" ht="17.5" spans="1:1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="19" ht="17.5" spans="1:1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="20" ht="17.5" spans="1:1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="21" ht="17.5" spans="1:1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="22" ht="17.5" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="25" ht="17.5" spans="1:1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="27" ht="17.5" spans="1:1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="28" ht="17.5" spans="1:1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="29" ht="17.5" spans="1:1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="30" ht="17.5" spans="1:1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>697</v>
       </c>
     </row>
